--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="301">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -578,6 +578,342 @@
   </si>
   <si>
     <t>신재현</t>
+  </si>
+  <si>
+    <t>xpo7777@naver.com</t>
+  </si>
+  <si>
+    <t>박찬주</t>
+  </si>
+  <si>
+    <t>lhrcomp@naver.com</t>
+  </si>
+  <si>
+    <t>이혜린</t>
+  </si>
+  <si>
+    <t>a01045477730@gmail.com</t>
+  </si>
+  <si>
+    <t>박윤재</t>
+  </si>
+  <si>
+    <t>lsk8424@naver.com</t>
+  </si>
+  <si>
+    <t>이상기</t>
+  </si>
+  <si>
+    <t>rhdid98@naver.com</t>
+  </si>
+  <si>
+    <t>김소정</t>
+  </si>
+  <si>
+    <t>hytree22@naver.com</t>
+  </si>
+  <si>
+    <t>신하영</t>
+  </si>
+  <si>
+    <t>679qmg@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜원</t>
+  </si>
+  <si>
+    <t>20233814@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>식품영양학과</t>
+  </si>
+  <si>
+    <t>김정현</t>
+  </si>
+  <si>
+    <t>dllight2001@gmail.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT</t>
+  </si>
+  <si>
+    <t>김들빛</t>
+  </si>
+  <si>
+    <t>psp528500@gmail.com</t>
+  </si>
+  <si>
+    <t>경영대학</t>
+  </si>
+  <si>
+    <t>박준형</t>
+  </si>
+  <si>
+    <t>jkv0125@gmail.com</t>
+  </si>
+  <si>
+    <t>조경빈</t>
+  </si>
+  <si>
+    <t>dyseo0303@gmail.com</t>
+  </si>
+  <si>
+    <t>서동영</t>
+  </si>
+  <si>
+    <t>sjb0008@naver.com</t>
+  </si>
+  <si>
+    <t>심지범</t>
+  </si>
+  <si>
+    <t>soc07045@naver.com</t>
+  </si>
+  <si>
+    <t>이윤교</t>
+  </si>
+  <si>
+    <t>dlrnjsfh1@naver.com</t>
+  </si>
+  <si>
+    <t>스마트iot</t>
+  </si>
+  <si>
+    <t>이권로</t>
+  </si>
+  <si>
+    <t>jeongsuyeon749@naver.com</t>
+  </si>
+  <si>
+    <t>정수연</t>
+  </si>
+  <si>
+    <t>lsjlol1264@naver.com</t>
+  </si>
+  <si>
+    <t>이세진</t>
+  </si>
+  <si>
+    <t>ghdfo7882@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>김홍래</t>
+  </si>
+  <si>
+    <t>qazx429@naver.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>athboy3@gmail.com</t>
+  </si>
+  <si>
+    <t>안태현</t>
+  </si>
+  <si>
+    <t>jinh6291@naver.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬</t>
+  </si>
+  <si>
+    <t>이유진</t>
+  </si>
+  <si>
+    <t>rkdus0413@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최가연</t>
+  </si>
+  <si>
+    <t>codmswldhs@naver.com</t>
+  </si>
+  <si>
+    <t>언어병리학과</t>
+  </si>
+  <si>
+    <t>김채은</t>
+  </si>
+  <si>
+    <t>jangho5636@gmail.com</t>
+  </si>
+  <si>
+    <t>이장호</t>
+  </si>
+  <si>
+    <t>tvkim0122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태빈</t>
+  </si>
+  <si>
+    <t>rla00604@gmail.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬학과</t>
+  </si>
+  <si>
+    <t>김수연</t>
+  </si>
+  <si>
+    <t>a40432708@gmail.com</t>
+  </si>
+  <si>
+    <t>영어영문학과</t>
+  </si>
+  <si>
+    <t>송준영</t>
+  </si>
+  <si>
+    <t>amy001031@naver.com</t>
+  </si>
+  <si>
+    <t>전예림</t>
+  </si>
+  <si>
+    <t>kimjy040302@gmail.com</t>
+  </si>
+  <si>
+    <t>김지연</t>
+  </si>
+  <si>
+    <t>dlruddk9@naver.com</t>
+  </si>
+  <si>
+    <t>이경아</t>
+  </si>
+  <si>
+    <t>yunbi0405@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>최윤비</t>
+  </si>
+  <si>
+    <t>hanbin0308@naver.com</t>
+  </si>
+  <si>
+    <t>한빈</t>
+  </si>
+  <si>
+    <t>sjhan1957@naver.com</t>
+  </si>
+  <si>
+    <t>한수진</t>
+  </si>
+  <si>
+    <t>20217134@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>체육학과</t>
+  </si>
+  <si>
+    <t>장효경</t>
+  </si>
+  <si>
+    <t>bb2611323@gmail.com</t>
+  </si>
+  <si>
+    <t>방유빈</t>
+  </si>
+  <si>
+    <t>ysyscome@naver.com</t>
+  </si>
+  <si>
+    <t>김영서</t>
+  </si>
+  <si>
+    <t>asd1231077@naver.com</t>
+  </si>
+  <si>
+    <t>김민경</t>
+  </si>
+  <si>
+    <t>dong9mi24k@naver.com</t>
+  </si>
+  <si>
+    <t>이동금</t>
+  </si>
+  <si>
+    <t>bluessin0312@naver.com</t>
+  </si>
+  <si>
+    <t>신혜빈</t>
+  </si>
+  <si>
+    <t>junz0young@gmail.com</t>
+  </si>
+  <si>
+    <t>인문학부</t>
+  </si>
+  <si>
+    <t>배준영</t>
+  </si>
+  <si>
+    <t>se0jin1112@naver.com</t>
+  </si>
+  <si>
+    <t>김서진</t>
+  </si>
+  <si>
+    <t>pig6832@naver.com</t>
+  </si>
+  <si>
+    <t>dnjstjsdn02@naver.com</t>
+  </si>
+  <si>
+    <t>원선우</t>
+  </si>
+  <si>
+    <t>dnjsgmlwjd1020@naver.com</t>
+  </si>
+  <si>
+    <t>원희정</t>
+  </si>
+  <si>
+    <t>suin207846@naver.com</t>
+  </si>
+  <si>
+    <t>안수인</t>
+  </si>
+  <si>
+    <t>hyeeun7356@naver.com</t>
+  </si>
+  <si>
+    <t>유혜은</t>
+  </si>
+  <si>
+    <t>5614bok@naver.com</t>
+  </si>
+  <si>
+    <t>안세진</t>
+  </si>
+  <si>
+    <t>pjw4063@naver.com</t>
+  </si>
+  <si>
+    <t>화학과</t>
+  </si>
+  <si>
+    <t>박지원</t>
+  </si>
+  <si>
+    <t>total7146@gmail.com</t>
+  </si>
+  <si>
+    <t>안정하</t>
+  </si>
+  <si>
+    <t>chh040817@naver.com</t>
+  </si>
+  <si>
+    <t>차현화</t>
   </si>
 </sst>
 </file>
@@ -3193,6 +3529,2056 @@
         <v>22</v>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" s="2">
+        <v>45202.414674837964</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="3">
+        <v>2.0212623E7</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>45202.47478108796</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2.0236634E7</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2">
+        <v>45202.47506736111</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="3">
+        <v>2.0232329E7</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>45202.47947092593</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="3">
+        <v>2.0172428E7</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K61" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2">
+        <v>45202.48233116898</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2.0192604E7</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>45202.50694034722</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2.0232724E7</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L63" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N63" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>45202.53052188657</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2.022275E7</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I64" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L64" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>45202.5434670949</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2.0233814E7</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I65" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L65" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N65" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>45202.623966597224</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2.0205129E7</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N66" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>45202.63249583333</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2.023296E7</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K67" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N67" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>45202.63380145833</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2.0212135E7</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>45202.641237488424</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2.0235182E7</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I69" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K69" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L69" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N69" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>45202.64205825231</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2.0217086E7</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N70" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>45202.64391912037</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2.0193828E7</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>45202.667685092594</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D72" s="3">
+        <v>2.0217148E7</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J72" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>45202.68280444444</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D73" s="3">
+        <v>2.023629E7</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K73" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N73" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>45202.685288078705</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D74" s="3">
+        <v>2.0182941E7</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K74" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M74" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>45202.69336586806</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D75" s="3">
+        <v>2.0217142E7</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K75" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L75" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>45202.70088076389</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2.0232706E7</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I76" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>45202.70311912037</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D77" s="3">
+        <v>2.0222616E7</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K77" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L77" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M77" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>45202.725687557875</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D78" s="3">
+        <v>2.0233631E7</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I78" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K78" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L78" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>45202.73257583333</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D79" s="3">
+        <v>2.0236168E7</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M79" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>45202.738511504635</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="3">
+        <v>2.0213925E7</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K80" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L80" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>45202.73876368055</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" s="3">
+        <v>2.0161723E7</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J81" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K81" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M81" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2">
+        <v>45202.750655613425</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D82" s="3">
+        <v>2.0203314E7</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J82" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K82" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L82" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>45202.78454599537</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D83" s="3">
+        <v>2.0233608E7</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K83" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2">
+        <v>45202.78567621528</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D84" s="3">
+        <v>2.0191218E7</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I84" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K84" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M84" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>45202.78785467593</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" s="3">
+        <v>2.0193426E7</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J85" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K85" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N85" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2">
+        <v>45202.79482565972</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D86" s="3">
+        <v>2.0232319E7</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H86" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I86" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K86" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>45202.80780743055</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2.0212342E7</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H87" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I87" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K87" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L87" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M87" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2">
+        <v>45202.82062896991</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D88" s="3">
+        <v>2.019527E7</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G88" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H88" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J88" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K88" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>45202.8238634838</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D89" s="3">
+        <v>2.0192441E7</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J89" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2">
+        <v>45202.83095895834</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="3">
+        <v>2.0222762E7</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I90" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J90" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K90" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>45202.84776089121</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D91" s="3">
+        <v>2.0217134E7</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2">
+        <v>45202.8602341088</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D92" s="3">
+        <v>2.0236729E7</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>45202.867107094906</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D93" s="3">
+        <v>2.0236713E7</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K93" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N93" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2">
+        <v>45202.86746429398</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D94" s="3">
+        <v>2.0233804E7</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>45202.901410694445</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="3">
+        <v>2.0232426E7</v>
+      </c>
+      <c r="E95" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I95" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K95" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2">
+        <v>45202.90180487269</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D96" s="3">
+        <v>2.0221054E7</v>
+      </c>
+      <c r="E96" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H96" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K96" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L96" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>45202.903494756945</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D97" s="3">
+        <v>2.0231044E7</v>
+      </c>
+      <c r="E97" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H97" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I97" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K97" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L97" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M97" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2">
+        <v>45202.91581233796</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D98" s="3">
+        <v>2.0233806E7</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H98" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J98" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K98" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L98" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M98" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>45202.91681401621</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99" s="3">
+        <v>2.023274E7</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K99" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L99" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M99" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2">
+        <v>45202.93130517361</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D100" s="3">
+        <v>2.0225196E7</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>45202.94558487269</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D101" s="3">
+        <v>2.0231057E7</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2">
+        <v>45202.9457734375</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D102" s="3">
+        <v>2.0222977E7</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2">
+        <v>45202.947056875</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103" s="3">
+        <v>2.0203824E7</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H103" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K103" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L103" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N103" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2">
+        <v>45202.94998666667</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D104" s="3">
+        <v>2.0233525E7</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H104" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I104" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K104" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L104" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2">
+        <v>45202.95105113426</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D105" s="3">
+        <v>2.023341E7</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J105" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M105" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2">
+        <v>45202.951123437495</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D106" s="3">
+        <v>2.0223722E7</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H106" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J106" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K106" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L106" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2">
+        <v>45202.966917604164</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2.0233962E7</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J107" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K107" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N107" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1074" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="725">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -914,6 +914,1278 @@
   </si>
   <si>
     <t>차현화</t>
+  </si>
+  <si>
+    <t>jw011400@naver.com</t>
+  </si>
+  <si>
+    <t>안정우</t>
+  </si>
+  <si>
+    <t>tmdals7205@gmail.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 소프트웨어융합 스마트IOT</t>
+  </si>
+  <si>
+    <t>박승민</t>
+  </si>
+  <si>
+    <t>minge0407@naver.com</t>
+  </si>
+  <si>
+    <t>이민지</t>
+  </si>
+  <si>
+    <t>pouoqjs@naver.com</t>
+  </si>
+  <si>
+    <t>서준서</t>
+  </si>
+  <si>
+    <t>dldusgh0908@gmail.com</t>
+  </si>
+  <si>
+    <t>이연호</t>
+  </si>
+  <si>
+    <t>applegoose007@gmail.com</t>
+  </si>
+  <si>
+    <t>장재훈</t>
+  </si>
+  <si>
+    <t>sallylee12300@gmail.com</t>
+  </si>
+  <si>
+    <t>이상은</t>
+  </si>
+  <si>
+    <t>tlsrkdms12345@naver.com</t>
+  </si>
+  <si>
+    <t>신가은</t>
+  </si>
+  <si>
+    <t>yonj2sj@naver.com</t>
+  </si>
+  <si>
+    <t>양은채</t>
+  </si>
+  <si>
+    <t>hmuc1smoker@gmail.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>서정원</t>
+  </si>
+  <si>
+    <t>hyu4511@gmail.com</t>
+  </si>
+  <si>
+    <t>유영후</t>
+  </si>
+  <si>
+    <t>catboom5329@gmail.com</t>
+  </si>
+  <si>
+    <t>박주현</t>
+  </si>
+  <si>
+    <t>sjb081235@naver.com</t>
+  </si>
+  <si>
+    <t>신종범</t>
+  </si>
+  <si>
+    <t>jjsuk9702@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어</t>
+  </si>
+  <si>
+    <t>김선혁</t>
+  </si>
+  <si>
+    <t>leaf0113@naver.com</t>
+  </si>
+  <si>
+    <t>김남은</t>
+  </si>
+  <si>
+    <t>bill916@naver.com</t>
+  </si>
+  <si>
+    <t>의약신소재</t>
+  </si>
+  <si>
+    <t>신대철</t>
+  </si>
+  <si>
+    <t>ymun018@naver.com</t>
+  </si>
+  <si>
+    <t>문윤식</t>
+  </si>
+  <si>
+    <t>hayeong206@gmail.com</t>
+  </si>
+  <si>
+    <t>조하영</t>
+  </si>
+  <si>
+    <t>whtjsals159@naver.com</t>
+  </si>
+  <si>
+    <t>조선민</t>
+  </si>
+  <si>
+    <t>moyapple2431@naver.com</t>
+  </si>
+  <si>
+    <t>조윤서</t>
+  </si>
+  <si>
+    <t>rjsgjsd135@naver.com</t>
+  </si>
+  <si>
+    <t>이은혁</t>
+  </si>
+  <si>
+    <t>lelle0514@naver.com</t>
+  </si>
+  <si>
+    <t>김예진</t>
+  </si>
+  <si>
+    <t>rhguswo324@naver.com</t>
+  </si>
+  <si>
+    <t>고현재</t>
+  </si>
+  <si>
+    <t>su12ki24@gmail.com</t>
+  </si>
+  <si>
+    <t>박지숙</t>
+  </si>
+  <si>
+    <t>machippo99@gmail.com</t>
+  </si>
+  <si>
+    <t>제동재</t>
+  </si>
+  <si>
+    <t>hyj1141@naver.com</t>
+  </si>
+  <si>
+    <t>한예지</t>
+  </si>
+  <si>
+    <t>wjdgh040103@gmail.com</t>
+  </si>
+  <si>
+    <t>배정호</t>
+  </si>
+  <si>
+    <t>ohj09170@naver.com</t>
+  </si>
+  <si>
+    <t>미디어스쿨</t>
+  </si>
+  <si>
+    <t>오현진</t>
+  </si>
+  <si>
+    <t>csk7915@gmail.com</t>
+  </si>
+  <si>
+    <t>최선규</t>
+  </si>
+  <si>
+    <t>fodhzks1@naver.com</t>
+  </si>
+  <si>
+    <t>gotse7@naver.com</t>
+  </si>
+  <si>
+    <t>바이오메디컬 학과</t>
+  </si>
+  <si>
+    <t>이소은</t>
+  </si>
+  <si>
+    <t>kimcr0678@gmail.com</t>
+  </si>
+  <si>
+    <t>김채령</t>
+  </si>
+  <si>
+    <t>dpwls040103@naver.com</t>
+  </si>
+  <si>
+    <t>spungseon@gmail.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>cheis11@naver.com</t>
+  </si>
+  <si>
+    <t>김찬호</t>
+  </si>
+  <si>
+    <t>sysy050300@naver.com</t>
+  </si>
+  <si>
+    <t>고서연</t>
+  </si>
+  <si>
+    <t>wjdgus2251@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터학과</t>
+  </si>
+  <si>
+    <t>이정현</t>
+  </si>
+  <si>
+    <t>cuyer7406@gmail.com</t>
+  </si>
+  <si>
+    <t>이혜민</t>
+  </si>
+  <si>
+    <t>dnjsdnuni@gmail.com</t>
+  </si>
+  <si>
+    <t>홍희선</t>
+  </si>
+  <si>
+    <t>chlwnsgur1202@gamil.com</t>
+  </si>
+  <si>
+    <t>최준혁</t>
+  </si>
+  <si>
+    <t>kns2266@naver.com</t>
+  </si>
+  <si>
+    <t>사학전공</t>
+  </si>
+  <si>
+    <t>김남석</t>
+  </si>
+  <si>
+    <t>whtpgml0410@naver.com</t>
+  </si>
+  <si>
+    <t>조세희</t>
+  </si>
+  <si>
+    <t>kuopty2758@gmail.com</t>
+  </si>
+  <si>
+    <t>강채원</t>
+  </si>
+  <si>
+    <t>yeonho4749@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경영학과 </t>
+  </si>
+  <si>
+    <t>서연호</t>
+  </si>
+  <si>
+    <t>20223614@sdhs.gwe.hs.kr</t>
+  </si>
+  <si>
+    <t>윤태웅</t>
+  </si>
+  <si>
+    <t>jinny8014@naver.com</t>
+  </si>
+  <si>
+    <t>광고홍보</t>
+  </si>
+  <si>
+    <t>박윤진</t>
+  </si>
+  <si>
+    <t>donghyunkim0404@naver.com</t>
+  </si>
+  <si>
+    <t>사회학과</t>
+  </si>
+  <si>
+    <t>김동현</t>
+  </si>
+  <si>
+    <t>wlsgml9808@naver.com</t>
+  </si>
+  <si>
+    <t>이진희</t>
+  </si>
+  <si>
+    <t>minho020122@gmail.com</t>
+  </si>
+  <si>
+    <t>김민호</t>
+  </si>
+  <si>
+    <t>yjeong2687@naver.com</t>
+  </si>
+  <si>
+    <t>중국학과</t>
+  </si>
+  <si>
+    <t>유정현</t>
+  </si>
+  <si>
+    <t>gustn838@gmail.com</t>
+  </si>
+  <si>
+    <t>박현수</t>
+  </si>
+  <si>
+    <t>gusdud0627@naver.com</t>
+  </si>
+  <si>
+    <t>정보과학대학 콘텐츠It학과</t>
+  </si>
+  <si>
+    <t>장현일</t>
+  </si>
+  <si>
+    <t>kimsemin3@naver.com</t>
+  </si>
+  <si>
+    <t>김세민</t>
+  </si>
+  <si>
+    <t>csnoi@naver.com</t>
+  </si>
+  <si>
+    <t>원현서</t>
+  </si>
+  <si>
+    <t>bee9588@naver.com</t>
+  </si>
+  <si>
+    <t>민서윤</t>
+  </si>
+  <si>
+    <t>mhkimghrhkd@naver.com</t>
+  </si>
+  <si>
+    <t>김민혁</t>
+  </si>
+  <si>
+    <t>h20206619@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>신현경</t>
+  </si>
+  <si>
+    <t>steve0711@naver.com</t>
+  </si>
+  <si>
+    <t>이승준</t>
+  </si>
+  <si>
+    <t>hjp0107@naver.com</t>
+  </si>
+  <si>
+    <t>컨텐츠it학과</t>
+  </si>
+  <si>
+    <t>홍진표</t>
+  </si>
+  <si>
+    <t>rlaek1116@naver.com</t>
+  </si>
+  <si>
+    <t>김다정</t>
+  </si>
+  <si>
+    <t>dlekals56@gmail.com</t>
+  </si>
+  <si>
+    <t>이다민</t>
+  </si>
+  <si>
+    <t>dlwodms5596@naver.com</t>
+  </si>
+  <si>
+    <t>이재은</t>
+  </si>
+  <si>
+    <t>mimi041221@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김미정 </t>
+  </si>
+  <si>
+    <t>gggp1224@naver.com</t>
+  </si>
+  <si>
+    <t>임재우</t>
+  </si>
+  <si>
+    <t>tmdwna0418@naver.com</t>
+  </si>
+  <si>
+    <t>승준</t>
+  </si>
+  <si>
+    <t>20232565@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이지안</t>
+  </si>
+  <si>
+    <t>syflower244@gmail.com</t>
+  </si>
+  <si>
+    <t>이수연</t>
+  </si>
+  <si>
+    <t>dlgusqqls@gmail.com</t>
+  </si>
+  <si>
+    <t>이현빈</t>
+  </si>
+  <si>
+    <t>xw2809@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어콘텐츠</t>
+  </si>
+  <si>
+    <t>이규빈</t>
+  </si>
+  <si>
+    <t>digiphk12@naver.com</t>
+  </si>
+  <si>
+    <t>박현규</t>
+  </si>
+  <si>
+    <t>jkw1391@naver.com</t>
+  </si>
+  <si>
+    <t>se0870@naver.com</t>
+  </si>
+  <si>
+    <t>이세은</t>
+  </si>
+  <si>
+    <t>judy030427@naver.com</t>
+  </si>
+  <si>
+    <t>오주영</t>
+  </si>
+  <si>
+    <t>dbwjd_1230@naver.com</t>
+  </si>
+  <si>
+    <t>김유정</t>
+  </si>
+  <si>
+    <t>kkj20040117@gmail.com</t>
+  </si>
+  <si>
+    <t>권경진</t>
+  </si>
+  <si>
+    <t>phanbe1@naver.com</t>
+  </si>
+  <si>
+    <t>박한비</t>
+  </si>
+  <si>
+    <t>tlaaldhktlaa@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">광고홍보학과 </t>
+  </si>
+  <si>
+    <t>박심미</t>
+  </si>
+  <si>
+    <t>kimdo4524@naver.com</t>
+  </si>
+  <si>
+    <t>김도연</t>
+  </si>
+  <si>
+    <t>molly7624@naver.com</t>
+  </si>
+  <si>
+    <t>변재은</t>
+  </si>
+  <si>
+    <t>jinho2066@naver.com</t>
+  </si>
+  <si>
+    <t>염진호</t>
+  </si>
+  <si>
+    <t>20202850@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>경제학괴</t>
+  </si>
+  <si>
+    <t>최다운</t>
+  </si>
+  <si>
+    <t>kimcciman1@gmail.com</t>
+  </si>
+  <si>
+    <t>김원빈</t>
+  </si>
+  <si>
+    <t>leejuns0711@naver.com</t>
+  </si>
+  <si>
+    <t>이준서</t>
+  </si>
+  <si>
+    <t>back8028@naver.com</t>
+  </si>
+  <si>
+    <t>백재영</t>
+  </si>
+  <si>
+    <t>kirokomom@naver.com</t>
+  </si>
+  <si>
+    <t>김병관</t>
+  </si>
+  <si>
+    <t>cyurim3@gmail.com</t>
+  </si>
+  <si>
+    <t>최유림</t>
+  </si>
+  <si>
+    <t>rkdgodbs7148@naver.com</t>
+  </si>
+  <si>
+    <t>러시라학과</t>
+  </si>
+  <si>
+    <t>강해윤</t>
+  </si>
+  <si>
+    <t>ggwoo02211@gmail.com</t>
+  </si>
+  <si>
+    <t>박건우</t>
+  </si>
+  <si>
+    <t>sally4417776@naver.com</t>
+  </si>
+  <si>
+    <t>안세연</t>
+  </si>
+  <si>
+    <t>wotmddl3947@gmail.com</t>
+  </si>
+  <si>
+    <t>류재승</t>
+  </si>
+  <si>
+    <t>lsh0409210@gmail.com</t>
+  </si>
+  <si>
+    <t>이시은</t>
+  </si>
+  <si>
+    <t>tjfud05@naver.com</t>
+  </si>
+  <si>
+    <t>박서령</t>
+  </si>
+  <si>
+    <t>20236207@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">간호학과 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">권기영 </t>
+  </si>
+  <si>
+    <t>aoa0226@naver.com</t>
+  </si>
+  <si>
+    <t>일본학과</t>
+  </si>
+  <si>
+    <t>강문원</t>
+  </si>
+  <si>
+    <t>ssb060333@gmail.com</t>
+  </si>
+  <si>
+    <t>신수빈</t>
+  </si>
+  <si>
+    <t>phyi0915@naver.com</t>
+  </si>
+  <si>
+    <t>백승진</t>
+  </si>
+  <si>
+    <t>heejae7942@naver.com</t>
+  </si>
+  <si>
+    <t>최희재</t>
+  </si>
+  <si>
+    <t>seonyeong0429@gmail.com</t>
+  </si>
+  <si>
+    <t>노선영</t>
+  </si>
+  <si>
+    <t>birr040511@naver.com</t>
+  </si>
+  <si>
+    <t>오준서</t>
+  </si>
+  <si>
+    <t>bravemw2@naver.com</t>
+  </si>
+  <si>
+    <t>데이터테크전공</t>
+  </si>
+  <si>
+    <t>태민우</t>
+  </si>
+  <si>
+    <t>hsm3932@naver.com</t>
+  </si>
+  <si>
+    <t>허선민</t>
+  </si>
+  <si>
+    <t>ee2243@naver.com</t>
+  </si>
+  <si>
+    <t>정주연</t>
+  </si>
+  <si>
+    <t>jihye199530@gmail.com</t>
+  </si>
+  <si>
+    <t>엄지혜</t>
+  </si>
+  <si>
+    <t>guseons__@naver.com</t>
+  </si>
+  <si>
+    <t>반도체디스플레이스쿨</t>
+  </si>
+  <si>
+    <t>구선화</t>
+  </si>
+  <si>
+    <t>bsihyeon0707@gmail.com</t>
+  </si>
+  <si>
+    <t>박시현</t>
+  </si>
+  <si>
+    <t>popoq2004@naver.com</t>
+  </si>
+  <si>
+    <t>박신비</t>
+  </si>
+  <si>
+    <t>juh0611@naver.com</t>
+  </si>
+  <si>
+    <t>신주희</t>
+  </si>
+  <si>
+    <t>fkdldjs0322@gmail.com</t>
+  </si>
+  <si>
+    <t>이지희</t>
+  </si>
+  <si>
+    <t>jimin040719@naver.com</t>
+  </si>
+  <si>
+    <t>박지민</t>
+  </si>
+  <si>
+    <t>tkdgjs9768@naver.com</t>
+  </si>
+  <si>
+    <t>임상헌</t>
+  </si>
+  <si>
+    <t>kimtaejung1053@gmail.com</t>
+  </si>
+  <si>
+    <t>김태정</t>
+  </si>
+  <si>
+    <t>ksrkatie@naver.com</t>
+  </si>
+  <si>
+    <t>권소린</t>
+  </si>
+  <si>
+    <t>0218mun@naver.com</t>
+  </si>
+  <si>
+    <t>강문희</t>
+  </si>
+  <si>
+    <t>qkrwnsdud1019@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학과</t>
+  </si>
+  <si>
+    <t>0319dy@naver.com</t>
+  </si>
+  <si>
+    <t>chldydnjs123@naver.com</t>
+  </si>
+  <si>
+    <t>러시아</t>
+  </si>
+  <si>
+    <t>최요원</t>
+  </si>
+  <si>
+    <t>memo0103@naver.com</t>
+  </si>
+  <si>
+    <t>안현서</t>
+  </si>
+  <si>
+    <t>a01076249986@gmail.com</t>
+  </si>
+  <si>
+    <t>전수민</t>
+  </si>
+  <si>
+    <t>impact0219@naver.com</t>
+  </si>
+  <si>
+    <t>김서언</t>
+  </si>
+  <si>
+    <t>rkqls3333@gmail.com</t>
+  </si>
+  <si>
+    <t>간호힉과</t>
+  </si>
+  <si>
+    <t>권가빈</t>
+  </si>
+  <si>
+    <t>qodnwnop@naver.com</t>
+  </si>
+  <si>
+    <t>이우주</t>
+  </si>
+  <si>
+    <t>chlgpals2507@naver.com</t>
+  </si>
+  <si>
+    <t>최혜민</t>
+  </si>
+  <si>
+    <t>tnqls06082@naver.com</t>
+  </si>
+  <si>
+    <t>조수빈</t>
+  </si>
+  <si>
+    <t>aktnftk3520@naver.com</t>
+  </si>
+  <si>
+    <t>어수련</t>
+  </si>
+  <si>
+    <t>csk331400@gmail.com</t>
+  </si>
+  <si>
+    <t>장승규</t>
+  </si>
+  <si>
+    <t>vivace3990@gmail.com</t>
+  </si>
+  <si>
+    <t>kdy3921633@naver.com</t>
+  </si>
+  <si>
+    <t>kimbitna7890@naver.com</t>
+  </si>
+  <si>
+    <t>김빛나</t>
+  </si>
+  <si>
+    <t>bluejjun619@naver.com</t>
+  </si>
+  <si>
+    <t>윤영준</t>
+  </si>
+  <si>
+    <t>dhwnsgh740@gmail.com</t>
+  </si>
+  <si>
+    <t>오준호</t>
+  </si>
+  <si>
+    <t>rcn214@naver.com</t>
+  </si>
+  <si>
+    <t>김제승</t>
+  </si>
+  <si>
+    <t>h20191204@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김민지</t>
+  </si>
+  <si>
+    <t>kutae1228@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체 디스플레이스쿨 / 반도체 전공 </t>
+  </si>
+  <si>
+    <t>구태환</t>
+  </si>
+  <si>
+    <t>qkralgus121@gmail.com</t>
+  </si>
+  <si>
+    <t>박미현</t>
+  </si>
+  <si>
+    <t>yura5635@naver.com</t>
+  </si>
+  <si>
+    <t>이유</t>
+  </si>
+  <si>
+    <t>inhwagil40@gmail.com</t>
+  </si>
+  <si>
+    <t>길인화</t>
+  </si>
+  <si>
+    <t>ga89193234@gmail.com</t>
+  </si>
+  <si>
+    <t>김경아</t>
+  </si>
+  <si>
+    <t>zo267869@naver.com</t>
+  </si>
+  <si>
+    <t>황태용</t>
+  </si>
+  <si>
+    <t>sujh7021@naver.com</t>
+  </si>
+  <si>
+    <t>이재현</t>
+  </si>
+  <si>
+    <t>leetaeyang00@gmail.com</t>
+  </si>
+  <si>
+    <t>이태양</t>
+  </si>
+  <si>
+    <t>sshs0206@naver.com</t>
+  </si>
+  <si>
+    <t>최지민</t>
+  </si>
+  <si>
+    <t>seohyojeong123@gmail.com</t>
+  </si>
+  <si>
+    <t>서효정</t>
+  </si>
+  <si>
+    <t>amyson0622@naver.com</t>
+  </si>
+  <si>
+    <t>손진아</t>
+  </si>
+  <si>
+    <t>yewon6501@naver.com</t>
+  </si>
+  <si>
+    <t>박예원</t>
+  </si>
+  <si>
+    <t>odh4743@naver.com</t>
+  </si>
+  <si>
+    <t>오동훈</t>
+  </si>
+  <si>
+    <t>abcdefg76500@naver.com</t>
+  </si>
+  <si>
+    <t>노희망</t>
+  </si>
+  <si>
+    <t>deo333333@naver.com</t>
+  </si>
+  <si>
+    <t>서대철</t>
+  </si>
+  <si>
+    <t>rhy0787@naver.com</t>
+  </si>
+  <si>
+    <t>유희영</t>
+  </si>
+  <si>
+    <t>0310cherry@naver.com</t>
+  </si>
+  <si>
+    <t>이재원</t>
+  </si>
+  <si>
+    <t>ehgus4597@gmail.com</t>
+  </si>
+  <si>
+    <t>김도현</t>
+  </si>
+  <si>
+    <t>psjj3840@gmail.com</t>
+  </si>
+  <si>
+    <t>박서진</t>
+  </si>
+  <si>
+    <t>tlswnals04@naver.com</t>
+  </si>
+  <si>
+    <t>신주민</t>
+  </si>
+  <si>
+    <t>kimys20604@gmail.com</t>
+  </si>
+  <si>
+    <t>김용석</t>
+  </si>
+  <si>
+    <t>dmskr0408@gmail.com</t>
+  </si>
+  <si>
+    <t>오은탁</t>
+  </si>
+  <si>
+    <t>cozyandrelaxing2@gmail.com</t>
+  </si>
+  <si>
+    <t>이성민</t>
+  </si>
+  <si>
+    <t>dbswlals0326@naver.com</t>
+  </si>
+  <si>
+    <t>윤지민</t>
+  </si>
+  <si>
+    <t>kwangsik04@naver.com</t>
+  </si>
+  <si>
+    <t>성광식</t>
+  </si>
+  <si>
+    <t>thomas1114@naver.com</t>
+  </si>
+  <si>
+    <t>이재석</t>
+  </si>
+  <si>
+    <t>kswon115@naver.com</t>
+  </si>
+  <si>
+    <t>김시원</t>
+  </si>
+  <si>
+    <t>seoungho990101@naver.com</t>
+  </si>
+  <si>
+    <t>체뉵학과</t>
+  </si>
+  <si>
+    <t>이승호</t>
+  </si>
+  <si>
+    <t>africa00788@gmail.com</t>
+  </si>
+  <si>
+    <t>언어청각기관</t>
+  </si>
+  <si>
+    <t>구도희</t>
+  </si>
+  <si>
+    <t>sun21cc2@naver.com</t>
+  </si>
+  <si>
+    <t>이민규</t>
+  </si>
+  <si>
+    <t>pjuns502@gmail.com</t>
+  </si>
+  <si>
+    <t>박준현</t>
+  </si>
+  <si>
+    <t>m.kwak2018@gmail.com</t>
+  </si>
+  <si>
+    <t>곽민수</t>
+  </si>
+  <si>
+    <t>jjiwoong0212@gmail.com</t>
+  </si>
+  <si>
+    <t>바메</t>
+  </si>
+  <si>
+    <t>이지웅</t>
+  </si>
+  <si>
+    <t>phg1242@naver.com</t>
+  </si>
+  <si>
+    <t>박효근</t>
+  </si>
+  <si>
+    <t>mys714@naver.com</t>
+  </si>
+  <si>
+    <t>문예슬</t>
+  </si>
+  <si>
+    <t>citchchache@gmail.com</t>
+  </si>
+  <si>
+    <t>공병우</t>
+  </si>
+  <si>
+    <t>kkhe2370@naver.com</t>
+  </si>
+  <si>
+    <t>전혜린</t>
+  </si>
+  <si>
+    <t>wnyuna04@gmail.com</t>
+  </si>
+  <si>
+    <t>주윤아</t>
+  </si>
+  <si>
+    <t>kgy5988@naver.com</t>
+  </si>
+  <si>
+    <t>김진범</t>
+  </si>
+  <si>
+    <t>jennybee0403@naver.com</t>
+  </si>
+  <si>
+    <t>백재현</t>
+  </si>
+  <si>
+    <t>minjoo902@naver.com</t>
+  </si>
+  <si>
+    <t>김민주</t>
+  </si>
+  <si>
+    <t>onjng0918@gmail.com</t>
+  </si>
+  <si>
+    <t>오윤정</t>
+  </si>
+  <si>
+    <t>vlxjvos2514@naver.com</t>
+  </si>
+  <si>
+    <t>홍성은</t>
+  </si>
+  <si>
+    <t>wjdgusgh1021@naver.com</t>
+  </si>
+  <si>
+    <t>정현호</t>
+  </si>
+  <si>
+    <t>rian213@naver.com</t>
+  </si>
+  <si>
+    <t>안리안</t>
+  </si>
+  <si>
+    <t>wooyj0817@naver.com</t>
+  </si>
+  <si>
+    <t>우연정</t>
+  </si>
+  <si>
+    <t>selapina0312@naver.com</t>
+  </si>
+  <si>
+    <t>홍민서</t>
+  </si>
+  <si>
+    <t>lhj040512@naver.com</t>
+  </si>
+  <si>
+    <t>이현종</t>
+  </si>
+  <si>
+    <t>mu3218712@naver.com</t>
+  </si>
+  <si>
+    <t>이무원</t>
+  </si>
+  <si>
+    <t>dbwlgns1307@naver.com</t>
+  </si>
+  <si>
+    <t>유지훈</t>
+  </si>
+  <si>
+    <t>jangyc3972@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤채</t>
+  </si>
+  <si>
+    <t>jmc0122@naver.com</t>
+  </si>
+  <si>
+    <t>정원혁</t>
+  </si>
+  <si>
+    <t>nic0903930@gmail.com</t>
+  </si>
+  <si>
+    <t>나임채</t>
+  </si>
+  <si>
+    <t>jungjukim0227@gmail.com</t>
+  </si>
+  <si>
+    <t>김정주</t>
+  </si>
+  <si>
+    <t>qj2qmf@naver.com</t>
+  </si>
+  <si>
+    <t>원주현</t>
+  </si>
+  <si>
+    <t>lin031215@naver.com</t>
+  </si>
+  <si>
+    <t>cheeseru0808@naver.com</t>
+  </si>
+  <si>
+    <t>김민선</t>
+  </si>
+  <si>
+    <t>zdfxd3611@naver.com</t>
+  </si>
+  <si>
+    <t>이현태</t>
+  </si>
+  <si>
+    <t>kwakyeeun624@naver.com</t>
+  </si>
+  <si>
+    <t>곽예은</t>
+  </si>
+  <si>
+    <t>nanadiana222@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터과</t>
+  </si>
+  <si>
+    <t>조희진</t>
+  </si>
+  <si>
+    <t>smilerina1@naver.com</t>
+  </si>
+  <si>
+    <t>조예린</t>
+  </si>
+  <si>
+    <t>xhaexeon@naver.com</t>
+  </si>
+  <si>
+    <t>김채연</t>
+  </si>
+  <si>
+    <t>hyelinj27@gmail.com</t>
+  </si>
+  <si>
+    <t>진혜린</t>
+  </si>
+  <si>
+    <t>wjddmsqjqtk@naver.com</t>
+  </si>
+  <si>
+    <t>신정은</t>
+  </si>
+  <si>
+    <t>kimyugyeong59@naver.com</t>
+  </si>
+  <si>
+    <t>김유경</t>
+  </si>
+  <si>
+    <t>123qazwsx12@naver.com</t>
+  </si>
+  <si>
+    <t>전예진</t>
+  </si>
+  <si>
+    <t>areana1053@naver.com</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>luis0815@naver.com</t>
+  </si>
+  <si>
+    <t>양지민</t>
+  </si>
+  <si>
+    <t>yjh110951@gmail.com</t>
+  </si>
+  <si>
+    <t>유정훈</t>
   </si>
 </sst>
 </file>
@@ -5579,6 +6851,8247 @@
         <v>22</v>
       </c>
     </row>
+    <row r="108">
+      <c r="A108" s="2">
+        <v>45202.97550726852</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2.0235202E7</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K108" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L108" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2">
+        <v>45202.97638487269</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D109" s="3">
+        <v>2.0217144E7</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I109" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K109" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N109" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2">
+        <v>45202.99438793982</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D110" s="3">
+        <v>2.0212126E7</v>
+      </c>
+      <c r="E110" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I110" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K110" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L110" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M110" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2">
+        <v>45203.07467269676</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D111" s="3">
+        <v>2.0232969E7</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I111" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K111" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L111" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M111" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2">
+        <v>45203.08341233796</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2.0232738E7</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H112" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I112" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K112" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L112" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2">
+        <v>45203.16868447917</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D113" s="3">
+        <v>2.0225243E7</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I113" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K113" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L113" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N113" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2">
+        <v>45203.37962082176</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D114" s="3">
+        <v>2.0226143E7</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H114" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K114" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L114" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2">
+        <v>45203.39124646991</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D115" s="3">
+        <v>2.0217037E7</v>
+      </c>
+      <c r="E115" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I115" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J115" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K115" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L115" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N115" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2">
+        <v>45203.42629133102</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D116" s="3">
+        <v>2.0236742E7</v>
+      </c>
+      <c r="E116" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="F116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H116" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I116" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K116" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L116" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2">
+        <v>45203.468555983796</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="D117" s="3">
+        <v>2.0217146E7</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I117" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K117" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L117" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M117" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2">
+        <v>45203.46956135417</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D118" s="3">
+        <v>2.023106E7</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J118" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N118" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2">
+        <v>45203.47138349537</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D119" s="3">
+        <v>2.0234121E7</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H119" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J119" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K119" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L119" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N119" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2">
+        <v>45203.47735082176</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D120" s="3">
+        <v>2.0232334E7</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H120" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L120" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N120" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2">
+        <v>45203.48242861111</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="D121" s="3">
+        <v>2.0217141E7</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L121" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N121" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2">
+        <v>45203.492304768515</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D122" s="3">
+        <v>2.0231203E7</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H122" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I122" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J122" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K122" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L122" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M122" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2">
+        <v>45203.49551554398</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D123" s="3">
+        <v>2.0196621E7</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H123" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I123" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J123" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L123" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N123" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2">
+        <v>45203.51476842593</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D124" s="3">
+        <v>2.023516E7</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H124" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I124" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J124" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K124" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L124" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2">
+        <v>45203.515514363426</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D125" s="3">
+        <v>2.023343E7</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H125" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I125" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L125" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N125" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2">
+        <v>45203.542717476856</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D126" s="3">
+        <v>2.0236778E7</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H126" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I126" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J126" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L126" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M126" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2">
+        <v>45203.542884525465</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D127" s="3">
+        <v>2.0221729E7</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H127" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I127" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J127" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K127" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L127" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M127" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2">
+        <v>45203.551863622684</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D128" s="3">
+        <v>2.0181077E7</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K128" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L128" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M128" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2">
+        <v>45203.56037273148</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129" s="3">
+        <v>2.0202513E7</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H129" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I129" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K129" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L129" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N129" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2">
+        <v>45203.57416449074</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D130" s="3">
+        <v>2.0183604E7</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H130" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I130" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K130" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L130" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N130" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2">
+        <v>45203.580818194445</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D131" s="3">
+        <v>2.0232821E7</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="F131" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H131" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I131" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K131" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L131" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M131" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2">
+        <v>45203.58938024305</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D132" s="3">
+        <v>2.0236164E7</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H132" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K132" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L132" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M132" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2">
+        <v>45203.594898379626</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D133" s="3">
+        <v>2.0217095E7</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H133" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K133" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L133" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N133" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2">
+        <v>45203.605757060184</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D134" s="3">
+        <v>2.0232116E7</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H134" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J134" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K134" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L134" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M134" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2">
+        <v>45203.62174519676</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D135" s="3">
+        <v>2.0232555E7</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H135" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I135" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K135" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L135" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M135" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2">
+        <v>45203.62673216435</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D136" s="3">
+        <v>2.018244E7</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H136" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I136" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K136" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L136" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N136" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2">
+        <v>45203.62963729167</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D137" s="3">
+        <v>2.0233728E7</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H137" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I137" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J137" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K137" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N137" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2">
+        <v>45203.64307854167</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="D138" s="3">
+        <v>2.0233629E7</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J138" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K138" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N138" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2">
+        <v>45203.64365336805</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D139" s="3">
+        <v>2.023623E7</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H139" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I139" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K139" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L139" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M139" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2">
+        <v>45203.64978060185</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D140" s="3">
+        <v>2.0236758E7</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H140" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K140" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L140" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M140" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2">
+        <v>45203.65161021991</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D141" s="3">
+        <v>2.0236219E7</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H141" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I141" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K141" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L141" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M141" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2">
+        <v>45203.65904680555</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D142" s="3">
+        <v>2.0195143E7</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H142" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I142" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K142" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L142" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M142" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2">
+        <v>45203.663109305555</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D143" s="3">
+        <v>2.0232101E7</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H143" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K143" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L143" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M143" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2">
+        <v>45203.69436725695</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D144" s="3">
+        <v>2.0217149E7</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I144" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J144" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K144" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L144" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N144" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2">
+        <v>45203.69531053241</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145" s="3">
+        <v>2.0236767E7</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H145" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I145" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J145" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K145" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L145" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N145" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2">
+        <v>45203.69761396991</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D146" s="3">
+        <v>2.0233969E7</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I146" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J146" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K146" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L146" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M146" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2">
+        <v>45203.70157936343</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D147" s="3">
+        <v>2.0236783E7</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H147" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I147" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K147" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L147" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N147" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2">
+        <v>45203.70187261574</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D148" s="3">
+        <v>2.0201012E7</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I148" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J148" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K148" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L148" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M148" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2">
+        <v>45203.702219583334</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D149" s="3">
+        <v>2.0236292E7</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H149" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J149" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K149" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L149" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M149" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2">
+        <v>45203.7029558912</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D150" s="3">
+        <v>2.0232303E7</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K150" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L150" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N150" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2">
+        <v>45203.71025761574</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="D151" s="3">
+        <v>2.0222965E7</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H151" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I151" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K151" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L151" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N151" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2">
+        <v>45203.723737430555</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D152" s="3">
+        <v>2.023522E7</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="F152" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H152" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I152" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K152" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L152" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N152" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2">
+        <v>45203.72991260416</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D153" s="3">
+        <v>2.0192213E7</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="F153" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H153" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I153" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K153" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L153" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N153" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2">
+        <v>45203.73921789352</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D154" s="3">
+        <v>2.0232204E7</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H154" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I154" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J154" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K154" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L154" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M154" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2">
+        <v>45203.746290104165</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D155" s="3">
+        <v>2.0173728E7</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H155" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I155" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J155" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K155" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L155" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M155" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2">
+        <v>45203.75243729167</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D156" s="3">
+        <v>2.0212709E7</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="F156" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H156" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I156" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J156" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K156" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L156" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N156" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2">
+        <v>45203.756117337965</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D157" s="3">
+        <v>2.0221525E7</v>
+      </c>
+      <c r="E157" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I157" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J157" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K157" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L157" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M157" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2">
+        <v>45203.75775740741</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D158" s="3">
+        <v>2.0212417E7</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I158" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K158" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L158" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2">
+        <v>45203.757815335644</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D159" s="3">
+        <v>2.0205246E7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H159" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I159" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K159" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L159" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N159" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2">
+        <v>45203.76195483796</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D160" s="3">
+        <v>2.0233607E7</v>
+      </c>
+      <c r="E160" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H160" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I160" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J160" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K160" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L160" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N160" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2">
+        <v>45203.76855122685</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D161" s="3">
+        <v>2.0202992E7</v>
+      </c>
+      <c r="E161" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="F161" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H161" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I161" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J161" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K161" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L161" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M161" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2">
+        <v>45203.775306689815</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D162" s="3">
+        <v>2.0233925E7</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I162" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K162" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L162" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M162" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2">
+        <v>45203.80190883102</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D163" s="3">
+        <v>2.020411E7</v>
+      </c>
+      <c r="E163" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H163" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I163" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K163" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L163" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N163" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2">
+        <v>45203.81742478009</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D164" s="3">
+        <v>2.0206619E7</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I164" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J164" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K164" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L164" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N164" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2">
+        <v>45203.82248221065</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D165" s="3">
+        <v>2.0183831E7</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H165" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I165" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J165" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K165" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L165" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N165" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2">
+        <v>45203.829298321754</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="D166" s="3">
+        <v>2.0205277E7</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K166" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L166" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M166" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2">
+        <v>45203.83381150463</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D167" s="3">
+        <v>2.0232704E7</v>
+      </c>
+      <c r="E167" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F167" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H167" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I167" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J167" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K167" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L167" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N167" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2">
+        <v>45203.84215332176</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D168" s="3">
+        <v>2.0211526E7</v>
+      </c>
+      <c r="E168" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H168" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I168" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K168" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L168" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M168" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2">
+        <v>45203.84750824074</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D169" s="3">
+        <v>2.0236631E7</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J169" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K169" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L169" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N169" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2">
+        <v>45203.87967342592</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D170" s="3">
+        <v>2.0231503E7</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H170" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J170" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K170" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L170" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M170" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2">
+        <v>45203.89340252314</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D171" s="3">
+        <v>2.0202742E7</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H171" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I171" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J171" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K171" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L171" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M171" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2">
+        <v>45203.9288696875</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D172" s="3">
+        <v>2.0167135E7</v>
+      </c>
+      <c r="E172" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I172" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J172" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K172" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L172" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N172" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2">
+        <v>45203.9313108912</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D173" s="3">
+        <v>2.0232565E7</v>
+      </c>
+      <c r="E173" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="F173" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H173" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I173" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J173" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K173" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L173" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N173" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2">
+        <v>45203.93509143518</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D174" s="3">
+        <v>2.0221072E7</v>
+      </c>
+      <c r="E174" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H174" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I174" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K174" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L174" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M174" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2">
+        <v>45203.96445054398</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D175" s="3">
+        <v>2.0233635E7</v>
+      </c>
+      <c r="E175" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H175" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I175" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J175" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K175" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L175" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N175" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2">
+        <v>45203.96806212963</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D176" s="3">
+        <v>2.0202554E7</v>
+      </c>
+      <c r="E176" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="F176" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H176" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I176" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J176" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K176" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L176" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M176" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2">
+        <v>45203.97051741898</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D177" s="3">
+        <v>2.0162617E7</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="F177" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H177" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I177" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K177" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L177" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M177" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2">
+        <v>45204.020871643515</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D178" s="3">
+        <v>2.0212611E7</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="F178" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G178" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H178" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I178" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K178" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L178" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N178" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2">
+        <v>45204.02822759259</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D179" s="3">
+        <v>2.0232563E7</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="F179" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H179" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I179" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K179" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L179" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M179" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2">
+        <v>45204.04598931713</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D180" s="3">
+        <v>2.0236263E7</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="F180" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H180" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I180" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J180" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K180" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L180" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M180" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2">
+        <v>45204.0480819213</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D181" s="3">
+        <v>2.0232712E7</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H181" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I181" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J181" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K181" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L181" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M181" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2">
+        <v>45204.05438290509</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D182" s="3">
+        <v>2.0236206E7</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I182" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K182" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L182" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M182" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2">
+        <v>45204.05774532407</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D183" s="3">
+        <v>2.0236244E7</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>464</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H183" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I183" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K183" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L183" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N183" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2">
+        <v>45204.07397233797</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D184" s="3">
+        <v>2.0217069E7</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H184" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I184" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J184" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K184" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L184" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N184" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2">
+        <v>45204.07441019676</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D185" s="3">
+        <v>2.0232407E7</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F185" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H185" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I185" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J185" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K185" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L185" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M185" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2">
+        <v>45204.20667204861</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D186" s="3">
+        <v>2.0211516E7</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H186" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I186" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J186" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K186" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L186" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M186" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2">
+        <v>45204.283249988424</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D187" s="3">
+        <v>2.0235207E7</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H187" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K187" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L187" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N187" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2">
+        <v>45204.42591373842</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D188" s="3">
+        <v>2.020285E7</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="F188" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H188" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K188" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L188" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N188" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2">
+        <v>45204.428988784726</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D189" s="3">
+        <v>2.0236715E7</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="F189" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I189" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J189" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K189" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L189" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M189" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2">
+        <v>45204.43806083333</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190" s="3">
+        <v>2.0202741E7</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="F190" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H190" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I190" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K190" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L190" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N190" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2">
+        <v>45204.46379119213</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D191" s="3">
+        <v>2.0202972E7</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="F191" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H191" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I191" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K191" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L191" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N191" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2">
+        <v>45204.50690153935</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D192" s="3">
+        <v>2.0192709E7</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H192" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I192" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K192" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L192" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2">
+        <v>45204.51956943287</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D193" s="3">
+        <v>2.0222143E7</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H193" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I193" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J193" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K193" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L193" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N193" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2">
+        <v>45204.527771747686</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D194" s="3">
+        <v>2.0181702E7</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H194" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I194" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K194" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L194" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M194" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2">
+        <v>45204.53065190972</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D195" s="3">
+        <v>2.0232817E7</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H195" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I195" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K195" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L195" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N195" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2">
+        <v>45204.54065634259</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D196" s="3">
+        <v>2.0236257E7</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="F196" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H196" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I196" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K196" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L196" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M196" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2">
+        <v>45204.56502521991</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D197" s="3">
+        <v>2.0195157E7</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H197" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I197" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K197" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L197" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N197" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2">
+        <v>45204.585759884256</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D198" s="3">
+        <v>2.0233726E7</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H198" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I198" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J198" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K198" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L198" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M198" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2">
+        <v>45204.591427974534</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="C199" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D199" s="3">
+        <v>2.0233409E7</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="F199" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H199" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I199" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J199" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K199" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L199" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N199" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2">
+        <v>45204.592345173616</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="D200" s="3">
+        <v>2.0236207E7</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="F200" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H200" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I200" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K200" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L200" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N200" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2">
+        <v>45204.601034340274</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D201" s="3">
+        <v>2.0201601E7</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>505</v>
+      </c>
+      <c r="F201" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H201" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I201" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K201" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L201" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N201" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2">
+        <v>45204.62327888889</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>506</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D202" s="3">
+        <v>2.0222614E7</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="F202" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H202" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I202" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K202" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L202" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N202" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2">
+        <v>45204.630459618056</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D203" s="3">
+        <v>2.0232967E7</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H203" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I203" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J203" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K203" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L203" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M203" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2">
+        <v>45204.63822753472</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D204" s="3">
+        <v>2.0236301E7</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H204" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I204" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J204" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K204" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L204" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M204" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2">
+        <v>45204.6432221412</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D205" s="3">
+        <v>2.0236235E7</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H205" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I205" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K205" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L205" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M205" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2">
+        <v>45204.64507128472</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D206" s="3">
+        <v>2.0232832E7</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H206" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I206" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K206" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L206" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2">
+        <v>45204.659903437496</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D207" s="3">
+        <v>2.0203257E7</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="F207" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H207" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I207" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K207" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L207" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M207" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2">
+        <v>45204.680204687495</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D208" s="3">
+        <v>2.0221637E7</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H208" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I208" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J208" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K208" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L208" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M208" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2">
+        <v>45204.68581546296</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D209" s="3">
+        <v>2.0232362E7</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H209" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I209" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J209" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K209" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L209" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M209" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2">
+        <v>45204.69083614583</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D210" s="3">
+        <v>2.0236261E7</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="F210" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H210" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I210" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J210" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K210" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L210" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M210" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2">
+        <v>45204.70297737268</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D211" s="3">
+        <v>2.0203301E7</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="F211" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H211" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I211" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K211" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L211" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N211" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2">
+        <v>45204.70350256945</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D212" s="3">
+        <v>2.0235167E7</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="F212" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H212" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I212" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J212" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K212" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L212" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N212" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2">
+        <v>45204.72277471065</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D213" s="3">
+        <v>2.0236239E7</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="F213" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H213" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I213" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J213" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K213" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L213" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M213" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2">
+        <v>45204.72938863426</v>
+      </c>
+      <c r="B214" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="D214" s="3">
+        <v>2.0221051E7</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H214" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I214" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K214" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L214" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N214" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2">
+        <v>45204.73760201389</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D215" s="3">
+        <v>2.0231075E7</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H215" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I215" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K215" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L215" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N215" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2">
+        <v>45204.753283495374</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D216" s="3">
+        <v>2.0232616E7</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="F216" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H216" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I216" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K216" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L216" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N216" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2">
+        <v>45204.79595989583</v>
+      </c>
+      <c r="B217" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D217" s="3">
+        <v>2.0212837E7</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="F217" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H217" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I217" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K217" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L217" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N217" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2">
+        <v>45204.79741601852</v>
+      </c>
+      <c r="B218" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D218" s="3">
+        <v>2.023515E7</v>
+      </c>
+      <c r="E218" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="F218" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H218" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I218" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J218" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K218" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L218" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N218" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2">
+        <v>45204.86906640047</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D219" s="3">
+        <v>2.0231004E7</v>
+      </c>
+      <c r="E219" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="F219" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H219" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I219" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K219" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L219" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N219" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2">
+        <v>45204.89341395833</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D220" s="3">
+        <v>2.0193601E7</v>
+      </c>
+      <c r="E220" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="F220" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H220" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I220" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J220" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K220" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L220" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M220" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2">
+        <v>45204.91735053241</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C221" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D221" s="3">
+        <v>2.0235172E7</v>
+      </c>
+      <c r="E221" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F221" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H221" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I221" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J221" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K221" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L221" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M221" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2">
+        <v>45204.921460949074</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D222" s="3">
+        <v>2.0225116E7</v>
+      </c>
+      <c r="E222" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F222" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H222" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I222" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J222" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K222" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L222" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N222" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2">
+        <v>45204.936767164356</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C223" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D223" s="3">
+        <v>2.022173E7</v>
+      </c>
+      <c r="E223" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="F223" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H223" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I223" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K223" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L223" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N223" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2">
+        <v>45204.97060821759</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="C224" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D224" s="3">
+        <v>2.0236142E7</v>
+      </c>
+      <c r="E224" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="F224" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H224" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I224" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J224" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K224" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L224" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N224" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2">
+        <v>45205.013655104165</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D225" s="3">
+        <v>2.0236289E7</v>
+      </c>
+      <c r="E225" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="F225" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H225" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I225" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K225" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L225" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N225" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2">
+        <v>45205.017850752316</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D226" s="3">
+        <v>2.0236218E7</v>
+      </c>
+      <c r="E226" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="F226" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H226" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I226" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K226" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L226" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N226" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2">
+        <v>45205.01919065972</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="D227" s="3">
+        <v>2.0236205E7</v>
+      </c>
+      <c r="E227" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="F227" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H227" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I227" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J227" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K227" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L227" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N227" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2">
+        <v>45205.04862327546</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D228" s="3">
+        <v>2.023235E7</v>
+      </c>
+      <c r="E228" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="F228" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H228" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I228" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K228" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L228" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M228" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2">
+        <v>45205.04876327547</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D229" s="3">
+        <v>2.0181735E7</v>
+      </c>
+      <c r="E229" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="F229" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H229" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I229" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K229" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L229" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N229" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2">
+        <v>45205.08763688657</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D230" s="3">
+        <v>2.0221728E7</v>
+      </c>
+      <c r="E230" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="F230" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H230" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I230" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K230" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L230" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N230" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2">
+        <v>45205.15827431713</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D231" s="3">
+        <v>2.0236628E7</v>
+      </c>
+      <c r="E231" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="F231" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H231" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I231" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J231" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K231" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L231" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M231" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2">
+        <v>45205.17436747685</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D232" s="3">
+        <v>2.0203536E7</v>
+      </c>
+      <c r="E232" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="F232" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H232" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I232" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K232" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L232" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M232" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2">
+        <v>45205.30746784722</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D233" s="3">
+        <v>2.0171605E7</v>
+      </c>
+      <c r="E233" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="F233" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H233" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I233" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K233" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L233" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N233" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2">
+        <v>45205.429803437495</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D234" s="3">
+        <v>2.0232604E7</v>
+      </c>
+      <c r="E234" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="F234" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H234" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I234" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J234" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K234" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L234" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M234" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2">
+        <v>45205.48496315972</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="C235" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D235" s="3">
+        <v>2.0222609E7</v>
+      </c>
+      <c r="E235" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="F235" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H235" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I235" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J235" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K235" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L235" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N235" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2">
+        <v>45205.526995312495</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C236" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D236" s="3">
+        <v>2.0226758E7</v>
+      </c>
+      <c r="E236" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="F236" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H236" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I236" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K236" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L236" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M236" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2">
+        <v>45205.551294386576</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C237" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D237" s="3">
+        <v>2.0216258E7</v>
+      </c>
+      <c r="E237" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="F237" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H237" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I237" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J237" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K237" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L237" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M237" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2">
+        <v>45205.5555047338</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D238" s="3">
+        <v>2.0232932E7</v>
+      </c>
+      <c r="E238" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="F238" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H238" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I238" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J238" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K238" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L238" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N238" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2">
+        <v>45205.562409618055</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D239" s="3">
+        <v>2.0191204E7</v>
+      </c>
+      <c r="E239" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F239" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H239" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I239" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J239" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K239" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L239" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M239" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2">
+        <v>45205.567952812504</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="D240" s="3">
+        <v>2.0183301E7</v>
+      </c>
+      <c r="E240" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="F240" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H240" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I240" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J240" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K240" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L240" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M240" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2">
+        <v>45205.56928048611</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D241" s="3">
+        <v>2.0236236E7</v>
+      </c>
+      <c r="E241" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="F241" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H241" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I241" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J241" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K241" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L241" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N241" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2">
+        <v>45205.59292418981</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D242" s="3">
+        <v>2.0203637E7</v>
+      </c>
+      <c r="E242" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="F242" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H242" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I242" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J242" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K242" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L242" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2">
+        <v>45205.6068266088</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D243" s="3">
+        <v>2.023621E7</v>
+      </c>
+      <c r="E243" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="F243" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H243" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I243" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K243" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L243" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M243" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2">
+        <v>45205.60743305556</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D244" s="3">
+        <v>2.0231007E7</v>
+      </c>
+      <c r="E244" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="F244" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H244" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I244" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J244" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K244" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L244" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N244" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2">
+        <v>45205.60832484954</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D245" s="3">
+        <v>2.0197092E7</v>
+      </c>
+      <c r="E245" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="F245" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H245" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I245" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K245" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L245" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N245" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2">
+        <v>45205.60994369213</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D246" s="3">
+        <v>2.0232629E7</v>
+      </c>
+      <c r="E246" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="F246" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H246" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I246" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J246" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K246" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L246" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N246" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2">
+        <v>45205.61682178241</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C247" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D247" s="3">
+        <v>2.0236764E7</v>
+      </c>
+      <c r="E247" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="F247" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H247" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I247" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K247" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L247" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N247" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="2">
+        <v>45205.640904988424</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C248" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D248" s="3">
+        <v>2.0236174E7</v>
+      </c>
+      <c r="E248" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="F248" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H248" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I248" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J248" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K248" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L248" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M248" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="2">
+        <v>45205.64290355324</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C249" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D249" s="3">
+        <v>2.0226622E7</v>
+      </c>
+      <c r="E249" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H249" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I249" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J249" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K249" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L249" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M249" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="2">
+        <v>45205.65770335648</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C250" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D250" s="3">
+        <v>2.0223825E7</v>
+      </c>
+      <c r="E250" s="3" t="s">
+        <v>605</v>
+      </c>
+      <c r="F250" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H250" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I250" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K250" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L250" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M250" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="2">
+        <v>45205.67402851852</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D251" s="3">
+        <v>2.0223817E7</v>
+      </c>
+      <c r="E251" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="F251" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H251" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I251" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J251" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K251" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L251" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M251" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="2">
+        <v>45205.710575879624</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D252" s="3">
+        <v>2.020234E7</v>
+      </c>
+      <c r="E252" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="F252" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H252" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J252" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K252" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L252" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M252" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="2">
+        <v>45205.72222267361</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D253" s="3">
+        <v>2.0232946E7</v>
+      </c>
+      <c r="E253" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="F253" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H253" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I253" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J253" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K253" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L253" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M253" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="2">
+        <v>45205.731573854166</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D254" s="3">
+        <v>2.0182889E7</v>
+      </c>
+      <c r="E254" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="F254" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H254" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I254" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J254" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K254" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L254" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N254" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="2">
+        <v>45205.73328916667</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D255" s="3">
+        <v>2.0213827E7</v>
+      </c>
+      <c r="E255" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="F255" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H255" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I255" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J255" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K255" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L255" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M255" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="2">
+        <v>45205.74701876157</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D256" s="3">
+        <v>2.019153E7</v>
+      </c>
+      <c r="E256" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H256" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I256" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K256" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L256" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M256" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2">
+        <v>45205.76730649306</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D257" s="3">
+        <v>2.0223208E7</v>
+      </c>
+      <c r="E257" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H257" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I257" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J257" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K257" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L257" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N257" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2">
+        <v>45205.76740960648</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="C258" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D258" s="3">
+        <v>2.0215154E7</v>
+      </c>
+      <c r="E258" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="F258" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H258" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I258" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K258" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L258" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M258" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2">
+        <v>45205.76949827546</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C259" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D259" s="3">
+        <v>2.023674E7</v>
+      </c>
+      <c r="E259" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="F259" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H259" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I259" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J259" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K259" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L259" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M259" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2">
+        <v>45205.774087881946</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C260" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D260" s="3">
+        <v>2.0236714E7</v>
+      </c>
+      <c r="E260" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="F260" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H260" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I260" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K260" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L260" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N260" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2">
+        <v>45205.776217060185</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="C261" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D261" s="3">
+        <v>2.0235208E7</v>
+      </c>
+      <c r="E261" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="F261" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H261" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I261" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J261" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K261" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L261" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M261" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2">
+        <v>45205.78107210648</v>
+      </c>
+      <c r="B262" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="C262" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D262" s="3">
+        <v>2.0223725E7</v>
+      </c>
+      <c r="E262" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="F262" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H262" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I262" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J262" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K262" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L262" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N262" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2">
+        <v>45205.799220625</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C263" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D263" s="3">
+        <v>2.0235219E7</v>
+      </c>
+      <c r="E263" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="F263" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H263" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I263" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K263" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L263" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N263" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2">
+        <v>45205.80376350695</v>
+      </c>
+      <c r="B264" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C264" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D264" s="3">
+        <v>2.0233619E7</v>
+      </c>
+      <c r="E264" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F264" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H264" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I264" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K264" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L264" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M264" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2">
+        <v>45205.81994864583</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C265" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D265" s="3">
+        <v>2.0201627E7</v>
+      </c>
+      <c r="E265" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="F265" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H265" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I265" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K265" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L265" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M265" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2">
+        <v>45205.84905729166</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C266" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D266" s="3">
+        <v>2.023293E7</v>
+      </c>
+      <c r="E266" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="F266" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H266" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I266" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K266" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L266" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M266" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2">
+        <v>45205.860222442134</v>
+      </c>
+      <c r="B267" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C267" s="3" t="s">
+        <v>639</v>
+      </c>
+      <c r="D267" s="3">
+        <v>2.0234136E7</v>
+      </c>
+      <c r="E267" s="3" t="s">
+        <v>640</v>
+      </c>
+      <c r="F267" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H267" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I267" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K267" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L267" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N267" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2">
+        <v>45205.87501125</v>
+      </c>
+      <c r="B268" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C268" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="D268" s="3">
+        <v>2.0233906E7</v>
+      </c>
+      <c r="E268" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="F268" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H268" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I268" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K268" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L268" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N268" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2">
+        <v>45205.89291625</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>644</v>
+      </c>
+      <c r="C269" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D269" s="3">
+        <v>2.0235229E7</v>
+      </c>
+      <c r="E269" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F269" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H269" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I269" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J269" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K269" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L269" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N269" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2">
+        <v>45205.89853104167</v>
+      </c>
+      <c r="B270" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C270" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D270" s="3">
+        <v>2.0236617E7</v>
+      </c>
+      <c r="E270" s="3" t="s">
+        <v>647</v>
+      </c>
+      <c r="F270" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H270" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I270" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J270" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K270" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L270" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N270" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2">
+        <v>45205.90367043982</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>648</v>
+      </c>
+      <c r="C271" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D271" s="3">
+        <v>2.0182202E7</v>
+      </c>
+      <c r="E271" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="F271" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H271" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I271" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J271" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K271" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L271" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N271" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2">
+        <v>45205.90514106481</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="C272" s="3" t="s">
+        <v>651</v>
+      </c>
+      <c r="D272" s="3">
+        <v>2.0233634E7</v>
+      </c>
+      <c r="E272" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="F272" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G272" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H272" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I272" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J272" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K272" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L272" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N272" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2">
+        <v>45205.92062690972</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D273" s="3">
+        <v>2.0193926E7</v>
+      </c>
+      <c r="E273" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="F273" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G273" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H273" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I273" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J273" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K273" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L273" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N273" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2">
+        <v>45205.9213734838</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C274" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D274" s="3">
+        <v>2.0191614E7</v>
+      </c>
+      <c r="E274" s="3" t="s">
+        <v>656</v>
+      </c>
+      <c r="F274" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G274" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H274" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I274" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K274" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L274" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M274" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2">
+        <v>45205.92990650463</v>
+      </c>
+      <c r="B275" s="3" t="s">
+        <v>657</v>
+      </c>
+      <c r="C275" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D275" s="3">
+        <v>2.0235111E7</v>
+      </c>
+      <c r="E275" s="3" t="s">
+        <v>658</v>
+      </c>
+      <c r="F275" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G275" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H275" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I275" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J275" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K275" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L275" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M275" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2">
+        <v>45205.93899197917</v>
+      </c>
+      <c r="B276" s="3" t="s">
+        <v>659</v>
+      </c>
+      <c r="C276" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D276" s="3">
+        <v>2.0202638E7</v>
+      </c>
+      <c r="E276" s="3" t="s">
+        <v>660</v>
+      </c>
+      <c r="F276" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G276" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H276" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I276" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K276" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L276" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N276" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2">
+        <v>45205.94214641204</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>661</v>
+      </c>
+      <c r="C277" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D277" s="3">
+        <v>2.0236294E7</v>
+      </c>
+      <c r="E277" s="3" t="s">
+        <v>662</v>
+      </c>
+      <c r="F277" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G277" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H277" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I277" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J277" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K277" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L277" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N277" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2">
+        <v>45205.94594984954</v>
+      </c>
+      <c r="B278" s="3" t="s">
+        <v>663</v>
+      </c>
+      <c r="C278" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D278" s="3">
+        <v>2.0203214E7</v>
+      </c>
+      <c r="E278" s="3" t="s">
+        <v>664</v>
+      </c>
+      <c r="F278" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G278" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H278" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I278" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K278" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L278" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N278" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2">
+        <v>45205.95171630787</v>
+      </c>
+      <c r="B279" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="C279" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D279" s="3">
+        <v>2.0236249E7</v>
+      </c>
+      <c r="E279" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="F279" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G279" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H279" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I279" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J279" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K279" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L279" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N279" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2">
+        <v>45205.95644329861</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D280" s="3">
+        <v>2.0192827E7</v>
+      </c>
+      <c r="E280" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="F280" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G280" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H280" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I280" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K280" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L280" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M280" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2">
+        <v>45205.96186964121</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D281" s="3">
+        <v>2.0232338E7</v>
+      </c>
+      <c r="E281" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="F281" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G281" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H281" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I281" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K281" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L281" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N281" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2">
+        <v>45205.963197627316</v>
+      </c>
+      <c r="B282" s="3" t="s">
+        <v>671</v>
+      </c>
+      <c r="C282" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D282" s="3">
+        <v>2.0203739E7</v>
+      </c>
+      <c r="E282" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="F282" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G282" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H282" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I282" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K282" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L282" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M282" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2">
+        <v>45205.96900704861</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D283" s="3">
+        <v>2.0193647E7</v>
+      </c>
+      <c r="E283" s="3" t="s">
+        <v>674</v>
+      </c>
+      <c r="F283" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G283" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H283" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I283" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J283" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K283" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L283" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M283" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2">
+        <v>45205.97086707176</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>675</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D284" s="3">
+        <v>2.0233823E7</v>
+      </c>
+      <c r="E284" s="3" t="s">
+        <v>676</v>
+      </c>
+      <c r="F284" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G284" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H284" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I284" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J284" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K284" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L284" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M284" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2">
+        <v>45205.97141366898</v>
+      </c>
+      <c r="B285" s="3" t="s">
+        <v>677</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D285" s="3">
+        <v>2.0212986E7</v>
+      </c>
+      <c r="E285" s="3" t="s">
+        <v>678</v>
+      </c>
+      <c r="F285" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G285" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H285" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I285" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J285" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K285" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L285" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M285" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2">
+        <v>45205.97955788195</v>
+      </c>
+      <c r="B286" s="3" t="s">
+        <v>679</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D286" s="3">
+        <v>2.0233968E7</v>
+      </c>
+      <c r="E286" s="3" t="s">
+        <v>680</v>
+      </c>
+      <c r="F286" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H286" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I286" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J286" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K286" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L286" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N286" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="2">
+        <v>45205.98104111111</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>681</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D287" s="3">
+        <v>2.0233424E7</v>
+      </c>
+      <c r="E287" s="3" t="s">
+        <v>682</v>
+      </c>
+      <c r="F287" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H287" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I287" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K287" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L287" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="2">
+        <v>45206.02006787037</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>683</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D288" s="3">
+        <v>2.0211061E7</v>
+      </c>
+      <c r="E288" s="3" t="s">
+        <v>684</v>
+      </c>
+      <c r="F288" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H288" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I288" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J288" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K288" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L288" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N288" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="2">
+        <v>45206.041592118054</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>685</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D289" s="3">
+        <v>2.0194132E7</v>
+      </c>
+      <c r="E289" s="3" t="s">
+        <v>686</v>
+      </c>
+      <c r="F289" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H289" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I289" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J289" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K289" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L289" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M289" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="2">
+        <v>45206.077597407406</v>
+      </c>
+      <c r="B290" s="3" t="s">
+        <v>687</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D290" s="3">
+        <v>2.0236771E7</v>
+      </c>
+      <c r="E290" s="3" t="s">
+        <v>688</v>
+      </c>
+      <c r="F290" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H290" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I290" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J290" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K290" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L290" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M290" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="2">
+        <v>45206.34874793982</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>689</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D291" s="3">
+        <v>2.0173057E7</v>
+      </c>
+      <c r="E291" s="3" t="s">
+        <v>690</v>
+      </c>
+      <c r="F291" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G291" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H291" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I291" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K291" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L291" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N291" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="2">
+        <v>45206.3548987963</v>
+      </c>
+      <c r="B292" s="3" t="s">
+        <v>691</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D292" s="3">
+        <v>2.0222409E7</v>
+      </c>
+      <c r="E292" s="3" t="s">
+        <v>692</v>
+      </c>
+      <c r="F292" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G292" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H292" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I292" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J292" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K292" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L292" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M292" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="2">
+        <v>45206.437631249995</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>693</v>
+      </c>
+      <c r="C293" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D293" s="3">
+        <v>2.0232318E7</v>
+      </c>
+      <c r="E293" s="3" t="s">
+        <v>694</v>
+      </c>
+      <c r="F293" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G293" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H293" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I293" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J293" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K293" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L293" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N293" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="2">
+        <v>45206.44621556713</v>
+      </c>
+      <c r="B294" s="3" t="s">
+        <v>695</v>
+      </c>
+      <c r="C294" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D294" s="3">
+        <v>2.0202735E7</v>
+      </c>
+      <c r="E294" s="3" t="s">
+        <v>696</v>
+      </c>
+      <c r="F294" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G294" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H294" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I294" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J294" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K294" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L294" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M294" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="2">
+        <v>45206.45296701389</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>697</v>
+      </c>
+      <c r="C295" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D295" s="3">
+        <v>2.022257E7</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F295" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G295" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H295" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I295" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J295" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K295" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L295" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N295" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="2">
+        <v>45206.465987523145</v>
+      </c>
+      <c r="B296" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C296" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D296" s="3">
+        <v>2.0201606E7</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F296" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G296" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H296" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I296" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J296" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K296" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L296" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M296" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="2">
+        <v>45206.46712864583</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>700</v>
+      </c>
+      <c r="C297" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D297" s="3">
+        <v>2.0205239E7</v>
+      </c>
+      <c r="E297" s="3" t="s">
+        <v>701</v>
+      </c>
+      <c r="F297" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G297" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H297" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I297" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J297" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K297" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L297" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N297" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="2">
+        <v>45206.48454755787</v>
+      </c>
+      <c r="B298" s="3" t="s">
+        <v>702</v>
+      </c>
+      <c r="C298" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D298" s="3">
+        <v>2.0236204E7</v>
+      </c>
+      <c r="E298" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="F298" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G298" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H298" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I298" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J298" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K298" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L298" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M298" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="2">
+        <v>45206.522984375</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>704</v>
+      </c>
+      <c r="C299" s="3" t="s">
+        <v>705</v>
+      </c>
+      <c r="D299" s="3">
+        <v>2.0225261E7</v>
+      </c>
+      <c r="E299" s="3" t="s">
+        <v>706</v>
+      </c>
+      <c r="F299" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G299" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H299" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I299" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J299" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K299" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L299" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M299" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="2">
+        <v>45206.5276255787</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>707</v>
+      </c>
+      <c r="C300" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D300" s="3">
+        <v>2.0236293E7</v>
+      </c>
+      <c r="E300" s="3" t="s">
+        <v>708</v>
+      </c>
+      <c r="F300" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G300" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H300" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I300" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J300" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K300" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L300" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M300" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="2">
+        <v>45206.53014126157</v>
+      </c>
+      <c r="B301" s="3" t="s">
+        <v>709</v>
+      </c>
+      <c r="C301" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D301" s="3">
+        <v>2.021221E7</v>
+      </c>
+      <c r="E301" s="3" t="s">
+        <v>710</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G301" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H301" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I301" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J301" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K301" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L301" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M301" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="2">
+        <v>45206.57990060185</v>
+      </c>
+      <c r="B302" s="3" t="s">
+        <v>711</v>
+      </c>
+      <c r="C302" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D302" s="3">
+        <v>2.0236781E7</v>
+      </c>
+      <c r="E302" s="3" t="s">
+        <v>712</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G302" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H302" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I302" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J302" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K302" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L302" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N302" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="2">
+        <v>45206.58200559027</v>
+      </c>
+      <c r="B303" s="3" t="s">
+        <v>713</v>
+      </c>
+      <c r="C303" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D303" s="3">
+        <v>2.0221714E7</v>
+      </c>
+      <c r="E303" s="3" t="s">
+        <v>714</v>
+      </c>
+      <c r="F303" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G303" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H303" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I303" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J303" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K303" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N303" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="2">
+        <v>45206.5946412037</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C304" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D304" s="3">
+        <v>2.0232521E7</v>
+      </c>
+      <c r="E304" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="F304" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G304" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H304" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I304" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J304" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K304" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L304" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N304" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="2">
+        <v>45206.59468258102</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>717</v>
+      </c>
+      <c r="C305" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D305" s="3">
+        <v>2.0233029E7</v>
+      </c>
+      <c r="E305" s="3" t="s">
+        <v>718</v>
+      </c>
+      <c r="F305" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G305" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H305" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I305" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J305" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K305" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L305" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="2">
+        <v>45206.607892789354</v>
+      </c>
+      <c r="B306" s="3" t="s">
+        <v>719</v>
+      </c>
+      <c r="C306" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D306" s="3">
+        <v>2.0231502E7</v>
+      </c>
+      <c r="E306" s="3" t="s">
+        <v>720</v>
+      </c>
+      <c r="F306" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G306" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H306" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I306" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J306" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K306" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L306" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N306" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="2">
+        <v>45206.60818899305</v>
+      </c>
+      <c r="B307" s="3" t="s">
+        <v>721</v>
+      </c>
+      <c r="C307" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D307" s="3">
+        <v>2.0232336E7</v>
+      </c>
+      <c r="E307" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="F307" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G307" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H307" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I307" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J307" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K307" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L307" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M307" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="2">
+        <v>45206.60978266204</v>
+      </c>
+      <c r="B308" s="3" t="s">
+        <v>723</v>
+      </c>
+      <c r="C308" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D308" s="3">
+        <v>2.0232995E7</v>
+      </c>
+      <c r="E308" s="3" t="s">
+        <v>724</v>
+      </c>
+      <c r="F308" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G308" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H308" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I308" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J308" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K308" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M308" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3084" uniqueCount="725">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="780">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2186,6 +2186,171 @@
   </si>
   <si>
     <t>유정훈</t>
+  </si>
+  <si>
+    <t>loul0412@naver.com</t>
+  </si>
+  <si>
+    <t>김가령</t>
+  </si>
+  <si>
+    <t>junchan1223@naver.com</t>
+  </si>
+  <si>
+    <t>최찬현</t>
+  </si>
+  <si>
+    <t>seoarin09@gmail.com</t>
+  </si>
+  <si>
+    <t>서아린</t>
+  </si>
+  <si>
+    <t>cdm990512@gmail.com</t>
+  </si>
+  <si>
+    <t>천동민</t>
+  </si>
+  <si>
+    <t>syc020916@naver.com</t>
+  </si>
+  <si>
+    <t>조신영</t>
+  </si>
+  <si>
+    <t>jyn10131@naver.com</t>
+  </si>
+  <si>
+    <t>정예나</t>
+  </si>
+  <si>
+    <t>eugene3551@gmail.com</t>
+  </si>
+  <si>
+    <t>유수영</t>
+  </si>
+  <si>
+    <t>thdrkdud45646@gmail.com</t>
+  </si>
+  <si>
+    <t>송가영</t>
+  </si>
+  <si>
+    <t>cilly03@naver.com</t>
+  </si>
+  <si>
+    <t>이예랑</t>
+  </si>
+  <si>
+    <t>syn_1234@naver.com</t>
+  </si>
+  <si>
+    <t>사영노</t>
+  </si>
+  <si>
+    <t>sungjuwon1@gmail.com</t>
+  </si>
+  <si>
+    <t>컨텐츠IT전공</t>
+  </si>
+  <si>
+    <t>성주원</t>
+  </si>
+  <si>
+    <t>leeyen1215@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어</t>
+  </si>
+  <si>
+    <t>이예인</t>
+  </si>
+  <si>
+    <t>smart0403p@naver.com</t>
+  </si>
+  <si>
+    <t>seraphic_0913@naver.com</t>
+  </si>
+  <si>
+    <t>배윤서</t>
+  </si>
+  <si>
+    <t>lceda1011@naver.com</t>
+  </si>
+  <si>
+    <t>이채은</t>
+  </si>
+  <si>
+    <t>whgdktlfgdj2@naver.com</t>
+  </si>
+  <si>
+    <t>변용찬</t>
+  </si>
+  <si>
+    <t>tjdus3641@gmail.com</t>
+  </si>
+  <si>
+    <t>장서연</t>
+  </si>
+  <si>
+    <t>dlawlals1669@naver.com</t>
+  </si>
+  <si>
+    <t>임지민</t>
+  </si>
+  <si>
+    <t>siyun8477@gmail.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>chominseo1029@naver.com</t>
+  </si>
+  <si>
+    <t>조민서</t>
+  </si>
+  <si>
+    <t>ind_b3@naver.com</t>
+  </si>
+  <si>
+    <t>김지안</t>
+  </si>
+  <si>
+    <t>2003lsa@naver.com</t>
+  </si>
+  <si>
+    <t>이수아</t>
+  </si>
+  <si>
+    <t>pgw0814@gmail.com</t>
+  </si>
+  <si>
+    <t>박지우</t>
+  </si>
+  <si>
+    <t>yewonshine@naver.com</t>
+  </si>
+  <si>
+    <t>허예원</t>
+  </si>
+  <si>
+    <t>won993456@naver.com</t>
+  </si>
+  <si>
+    <t>정경원</t>
+  </si>
+  <si>
+    <t>20233825@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>엄서현</t>
+  </si>
+  <si>
+    <t>sjy01041864550@gmail.com</t>
+  </si>
+  <si>
+    <t>서진영</t>
   </si>
 </sst>
 </file>
@@ -15092,6 +15257,1113 @@
         <v>43</v>
       </c>
     </row>
+    <row r="309">
+      <c r="A309" s="2">
+        <v>45206.62180349537</v>
+      </c>
+      <c r="B309" s="3" t="s">
+        <v>725</v>
+      </c>
+      <c r="C309" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D309" s="3">
+        <v>2.0231201E7</v>
+      </c>
+      <c r="E309" s="3" t="s">
+        <v>726</v>
+      </c>
+      <c r="F309" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G309" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H309" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I309" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J309" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K309" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L309" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N309" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="2">
+        <v>45206.627616921294</v>
+      </c>
+      <c r="B310" s="3" t="s">
+        <v>727</v>
+      </c>
+      <c r="C310" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D310" s="3">
+        <v>2.02363E7</v>
+      </c>
+      <c r="E310" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="F310" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G310" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H310" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I310" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J310" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K310" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L310" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N310" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="2">
+        <v>45206.65306401621</v>
+      </c>
+      <c r="B311" s="3" t="s">
+        <v>729</v>
+      </c>
+      <c r="C311" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D311" s="3">
+        <v>2.0202332E7</v>
+      </c>
+      <c r="E311" s="3" t="s">
+        <v>730</v>
+      </c>
+      <c r="F311" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G311" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H311" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I311" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J311" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K311" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L311" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M311" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="2">
+        <v>45206.6554215625</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>731</v>
+      </c>
+      <c r="C312" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D312" s="3">
+        <v>2.01853E7</v>
+      </c>
+      <c r="E312" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="F312" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G312" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H312" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I312" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J312" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K312" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L312" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M312" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="2">
+        <v>45206.679877523144</v>
+      </c>
+      <c r="B313" s="3" t="s">
+        <v>733</v>
+      </c>
+      <c r="C313" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D313" s="3">
+        <v>2.0226166E7</v>
+      </c>
+      <c r="E313" s="3" t="s">
+        <v>734</v>
+      </c>
+      <c r="F313" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G313" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H313" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I313" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J313" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K313" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L313" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M313" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="2">
+        <v>45206.683364537035</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>735</v>
+      </c>
+      <c r="C314" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D314" s="3">
+        <v>2.0233847E7</v>
+      </c>
+      <c r="E314" s="3" t="s">
+        <v>736</v>
+      </c>
+      <c r="F314" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G314" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H314" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I314" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J314" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K314" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L314" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M314" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="2">
+        <v>45206.68527667824</v>
+      </c>
+      <c r="B315" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="C315" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D315" s="3">
+        <v>2.0235214E7</v>
+      </c>
+      <c r="E315" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="F315" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G315" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H315" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I315" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J315" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K315" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L315" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M315" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="2">
+        <v>45206.69607578704</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>739</v>
+      </c>
+      <c r="C316" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D316" s="3">
+        <v>2.0222968E7</v>
+      </c>
+      <c r="E316" s="3" t="s">
+        <v>740</v>
+      </c>
+      <c r="F316" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G316" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H316" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I316" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J316" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K316" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N316" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="2">
+        <v>45206.71506630787</v>
+      </c>
+      <c r="B317" s="3" t="s">
+        <v>741</v>
+      </c>
+      <c r="C317" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D317" s="3">
+        <v>2.0221629E7</v>
+      </c>
+      <c r="E317" s="3" t="s">
+        <v>742</v>
+      </c>
+      <c r="F317" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G317" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H317" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I317" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J317" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K317" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L317" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M317" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="2">
+        <v>45206.74588326389</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="C318" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D318" s="3">
+        <v>2.0205184E7</v>
+      </c>
+      <c r="E318" s="3" t="s">
+        <v>744</v>
+      </c>
+      <c r="F318" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G318" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H318" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I318" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J318" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K318" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L318" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N318" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="2">
+        <v>45206.74720917824</v>
+      </c>
+      <c r="B319" s="3" t="s">
+        <v>745</v>
+      </c>
+      <c r="C319" s="3" t="s">
+        <v>746</v>
+      </c>
+      <c r="D319" s="3">
+        <v>2.0215173E7</v>
+      </c>
+      <c r="E319" s="3" t="s">
+        <v>747</v>
+      </c>
+      <c r="F319" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G319" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H319" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I319" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J319" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K319" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N319" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="2">
+        <v>45206.771724398146</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="C320" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D320" s="3">
+        <v>2.0222561E7</v>
+      </c>
+      <c r="E320" s="3" t="s">
+        <v>750</v>
+      </c>
+      <c r="F320" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G320" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H320" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I320" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J320" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K320" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L320" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M320" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="2">
+        <v>45206.78389497685</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>751</v>
+      </c>
+      <c r="C321" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D321" s="3">
+        <v>2.0232719E7</v>
+      </c>
+      <c r="E321" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F321" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G321" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H321" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I321" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J321" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K321" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L321" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M321" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="2">
+        <v>45206.786338935184</v>
+      </c>
+      <c r="B322" s="3" t="s">
+        <v>752</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D322" s="3">
+        <v>2.023272E7</v>
+      </c>
+      <c r="E322" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="F322" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G322" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H322" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I322" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J322" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K322" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L322" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N322" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="2">
+        <v>45206.79862847222</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>754</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D323" s="3">
+        <v>2.0233955E7</v>
+      </c>
+      <c r="E323" s="3" t="s">
+        <v>755</v>
+      </c>
+      <c r="F323" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G323" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H323" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I323" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J323" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K323" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L323" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M323" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="2">
+        <v>45206.8202609838</v>
+      </c>
+      <c r="B324" s="3" t="s">
+        <v>756</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D324" s="3">
+        <v>2.0181051E7</v>
+      </c>
+      <c r="E324" s="3" t="s">
+        <v>757</v>
+      </c>
+      <c r="F324" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G324" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H324" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I324" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J324" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K324" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L324" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M324" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="2">
+        <v>45206.8355446875</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D325" s="3">
+        <v>2.0226283E7</v>
+      </c>
+      <c r="E325" s="3" t="s">
+        <v>759</v>
+      </c>
+      <c r="F325" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G325" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H325" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I325" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J325" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K325" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L325" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M325" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="2">
+        <v>45206.83983510417</v>
+      </c>
+      <c r="B326" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D326" s="3">
+        <v>2.0231537E7</v>
+      </c>
+      <c r="E326" s="3" t="s">
+        <v>761</v>
+      </c>
+      <c r="F326" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G326" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H326" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I326" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J326" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K326" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L326" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M326" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="2">
+        <v>45206.84249927083</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D327" s="3">
+        <v>2.0236224E7</v>
+      </c>
+      <c r="E327" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="F327" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G327" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H327" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I327" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J327" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K327" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L327" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M327" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="2">
+        <v>45206.883910034725</v>
+      </c>
+      <c r="B328" s="3" t="s">
+        <v>764</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D328" s="3">
+        <v>2.0233959E7</v>
+      </c>
+      <c r="E328" s="3" t="s">
+        <v>765</v>
+      </c>
+      <c r="F328" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H328" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I328" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J328" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K328" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L328" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M328" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="2">
+        <v>45206.88901864583</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>766</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D329" s="3">
+        <v>2.0232523E7</v>
+      </c>
+      <c r="E329" s="3" t="s">
+        <v>767</v>
+      </c>
+      <c r="F329" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G329" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H329" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I329" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J329" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K329" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L329" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N329" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="2">
+        <v>45206.91812918981</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D330" s="3">
+        <v>2.0223E7</v>
+      </c>
+      <c r="E330" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="F330" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G330" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H330" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I330" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J330" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K330" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L330" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N330" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2">
+        <v>45206.92296271991</v>
+      </c>
+      <c r="B331" s="3" t="s">
+        <v>770</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D331" s="3">
+        <v>2.0203409E7</v>
+      </c>
+      <c r="E331" s="3" t="s">
+        <v>771</v>
+      </c>
+      <c r="F331" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G331" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H331" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I331" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J331" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K331" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L331" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M331" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2">
+        <v>45206.9352659375</v>
+      </c>
+      <c r="B332" s="3" t="s">
+        <v>772</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D332" s="3">
+        <v>2.0217122E7</v>
+      </c>
+      <c r="E332" s="3" t="s">
+        <v>773</v>
+      </c>
+      <c r="F332" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G332" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H332" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I332" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J332" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K332" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L332" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N332" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2">
+        <v>45206.939116180554</v>
+      </c>
+      <c r="B333" s="3" t="s">
+        <v>774</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D333" s="3">
+        <v>2.0181095E7</v>
+      </c>
+      <c r="E333" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="F333" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G333" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H333" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I333" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J333" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K333" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L333" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N333" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2">
+        <v>45206.954891354166</v>
+      </c>
+      <c r="B334" s="3" t="s">
+        <v>776</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D334" s="3">
+        <v>2.0233825E7</v>
+      </c>
+      <c r="E334" s="3" t="s">
+        <v>777</v>
+      </c>
+      <c r="F334" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G334" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H334" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I334" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J334" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K334" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L334" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M334" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2">
+        <v>45206.96506884259</v>
+      </c>
+      <c r="B335" s="3" t="s">
+        <v>778</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D335" s="3">
+        <v>2.023662E7</v>
+      </c>
+      <c r="E335" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="F335" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G335" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H335" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I335" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J335" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K335" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L335" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N335" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="830">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2351,6 +2351,156 @@
   </si>
   <si>
     <t>서진영</t>
+  </si>
+  <si>
+    <t>kq872@naver.com</t>
+  </si>
+  <si>
+    <t>이원상</t>
+  </si>
+  <si>
+    <t>sejung2854@gmail.com</t>
+  </si>
+  <si>
+    <t>김세중</t>
+  </si>
+  <si>
+    <t>rladbqls1728@naver.com</t>
+  </si>
+  <si>
+    <t>김유빈</t>
+  </si>
+  <si>
+    <t>cici030728@gmail.com</t>
+  </si>
+  <si>
+    <t>박태양</t>
+  </si>
+  <si>
+    <t>ggjtt4051@gmail.com</t>
+  </si>
+  <si>
+    <t>최아린</t>
+  </si>
+  <si>
+    <t>heeyeon_02@naver.com</t>
+  </si>
+  <si>
+    <t>이희연</t>
+  </si>
+  <si>
+    <t>angelnhs@naver.com</t>
+  </si>
+  <si>
+    <t>남현수</t>
+  </si>
+  <si>
+    <t>kimyoung4808@gmail.com</t>
+  </si>
+  <si>
+    <t>김승영</t>
+  </si>
+  <si>
+    <t>eunku7188@naver.com</t>
+  </si>
+  <si>
+    <t>곽은규</t>
+  </si>
+  <si>
+    <t>yerin2545717@gmail.com</t>
+  </si>
+  <si>
+    <t>권예린</t>
+  </si>
+  <si>
+    <t>daeun8937@naver.com</t>
+  </si>
+  <si>
+    <t>최다은</t>
+  </si>
+  <si>
+    <t>choe0119@gmail.com</t>
+  </si>
+  <si>
+    <t>최태웅</t>
+  </si>
+  <si>
+    <t>jhkang050107@gmail.com</t>
+  </si>
+  <si>
+    <t>강지희</t>
+  </si>
+  <si>
+    <t>t26a1@naver.com</t>
+  </si>
+  <si>
+    <t>반도체</t>
+  </si>
+  <si>
+    <t>신동한</t>
+  </si>
+  <si>
+    <t>alsgk03@naver.com</t>
+  </si>
+  <si>
+    <t>박민하</t>
+  </si>
+  <si>
+    <t>clearrin55@gmail.com</t>
+  </si>
+  <si>
+    <t>김예린</t>
+  </si>
+  <si>
+    <t>20162715@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김현욱</t>
+  </si>
+  <si>
+    <t>ekgus0916@naver.com</t>
+  </si>
+  <si>
+    <t>김다현</t>
+  </si>
+  <si>
+    <t>qasw0529@naver.com</t>
+  </si>
+  <si>
+    <t>noble2755@naver.com</t>
+  </si>
+  <si>
+    <t>김정기</t>
+  </si>
+  <si>
+    <t>dltmdxo0123@naver.com</t>
+  </si>
+  <si>
+    <t>이승태</t>
+  </si>
+  <si>
+    <t>smiledjwj@naver.com</t>
+  </si>
+  <si>
+    <t>김지우</t>
+  </si>
+  <si>
+    <t>sinjisu030426@gmail.com</t>
+  </si>
+  <si>
+    <t>신지수</t>
+  </si>
+  <si>
+    <t>dongwoo2869@naver.com</t>
+  </si>
+  <si>
+    <t>남동우</t>
+  </si>
+  <si>
+    <t>dayoun2004@naver.com</t>
+  </si>
+  <si>
+    <t>이다윤</t>
   </si>
 </sst>
 </file>
@@ -16364,6 +16514,1031 @@
         <v>64</v>
       </c>
     </row>
+    <row r="336">
+      <c r="A336" s="2">
+        <v>45206.97566829861</v>
+      </c>
+      <c r="B336" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D336" s="3">
+        <v>2.0193531E7</v>
+      </c>
+      <c r="E336" s="3" t="s">
+        <v>781</v>
+      </c>
+      <c r="F336" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G336" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H336" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I336" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J336" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K336" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L336" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N336" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2">
+        <v>45206.989978391204</v>
+      </c>
+      <c r="B337" s="3" t="s">
+        <v>782</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D337" s="3">
+        <v>2.019231E7</v>
+      </c>
+      <c r="E337" s="3" t="s">
+        <v>783</v>
+      </c>
+      <c r="F337" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G337" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H337" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I337" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J337" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K337" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L337" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N337" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2">
+        <v>45206.99471443287</v>
+      </c>
+      <c r="B338" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D338" s="3">
+        <v>2.0232412E7</v>
+      </c>
+      <c r="E338" s="3" t="s">
+        <v>785</v>
+      </c>
+      <c r="F338" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G338" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H338" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I338" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J338" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K338" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L338" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N338" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2">
+        <v>45207.01145011574</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>786</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D339" s="3">
+        <v>2.0235175E7</v>
+      </c>
+      <c r="E339" s="3" t="s">
+        <v>787</v>
+      </c>
+      <c r="F339" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G339" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H339" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I339" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J339" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K339" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L339" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N339" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2">
+        <v>45207.013522430556</v>
+      </c>
+      <c r="B340" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D340" s="3">
+        <v>2.0233051E7</v>
+      </c>
+      <c r="E340" s="3" t="s">
+        <v>789</v>
+      </c>
+      <c r="F340" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G340" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H340" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I340" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J340" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K340" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L340" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M340" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2">
+        <v>45207.015298796294</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>790</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D341" s="3">
+        <v>2.0231536E7</v>
+      </c>
+      <c r="E341" s="3" t="s">
+        <v>791</v>
+      </c>
+      <c r="F341" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G341" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H341" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I341" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J341" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K341" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L341" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M341" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2">
+        <v>45207.04442332176</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D342" s="3">
+        <v>2.0236234E7</v>
+      </c>
+      <c r="E342" s="3" t="s">
+        <v>793</v>
+      </c>
+      <c r="F342" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G342" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H342" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I342" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J342" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K342" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L342" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M342" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2">
+        <v>45207.07300966435</v>
+      </c>
+      <c r="B343" s="3" t="s">
+        <v>794</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D343" s="3">
+        <v>2.0233709E7</v>
+      </c>
+      <c r="E343" s="3" t="s">
+        <v>795</v>
+      </c>
+      <c r="F343" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G343" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H343" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I343" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J343" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K343" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L343" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M343" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2">
+        <v>45207.07983008102</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D344" s="3">
+        <v>2.0212601E7</v>
+      </c>
+      <c r="E344" s="3" t="s">
+        <v>797</v>
+      </c>
+      <c r="F344" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G344" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H344" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I344" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J344" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K344" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L344" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M344" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2">
+        <v>45207.0951709838</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>798</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D345" s="3">
+        <v>2.0232909E7</v>
+      </c>
+      <c r="E345" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F345" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G345" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H345" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I345" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J345" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K345" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L345" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M345" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2">
+        <v>45207.3654927662</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D346" s="3">
+        <v>2.0232753E7</v>
+      </c>
+      <c r="E346" s="3" t="s">
+        <v>801</v>
+      </c>
+      <c r="F346" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G346" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H346" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I346" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J346" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K346" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L346" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N346" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2">
+        <v>45207.432623726854</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>802</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D347" s="3">
+        <v>2.0226176E7</v>
+      </c>
+      <c r="E347" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="F347" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G347" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H347" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I347" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J347" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K347" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L347" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M347" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2">
+        <v>45207.45275877314</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D348" s="3">
+        <v>2.0236203E7</v>
+      </c>
+      <c r="E348" s="3" t="s">
+        <v>805</v>
+      </c>
+      <c r="F348" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G348" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H348" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I348" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J348" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K348" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L348" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N348" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2">
+        <v>45207.45983773148</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>806</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>807</v>
+      </c>
+      <c r="D349" s="3">
+        <v>2.0193331E7</v>
+      </c>
+      <c r="E349" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="F349" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G349" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H349" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I349" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J349" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K349" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L349" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M349" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2">
+        <v>45207.46106883102</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>809</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D350" s="3">
+        <v>2.0222213E7</v>
+      </c>
+      <c r="E350" s="3" t="s">
+        <v>810</v>
+      </c>
+      <c r="F350" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G350" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H350" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I350" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J350" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K350" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L350" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N350" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2">
+        <v>45207.46457484954</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>811</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D351" s="3">
+        <v>2.0211509E7</v>
+      </c>
+      <c r="E351" s="3" t="s">
+        <v>812</v>
+      </c>
+      <c r="F351" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G351" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H351" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I351" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J351" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K351" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L351" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M351" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2">
+        <v>45207.475476747684</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D352" s="3">
+        <v>2.0162715E7</v>
+      </c>
+      <c r="E352" s="3" t="s">
+        <v>814</v>
+      </c>
+      <c r="F352" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G352" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H352" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I352" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J352" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K352" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L352" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N352" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2">
+        <v>45207.49397273148</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>815</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D353" s="3">
+        <v>2.0217125E7</v>
+      </c>
+      <c r="E353" s="3" t="s">
+        <v>816</v>
+      </c>
+      <c r="F353" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G353" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H353" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I353" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J353" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K353" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L353" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M353" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2">
+        <v>45207.49979505787</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>817</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D354" s="3">
+        <v>2.0232508E7</v>
+      </c>
+      <c r="E354" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F354" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G354" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H354" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I354" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J354" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K354" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L354" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N354" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="2">
+        <v>45207.50658086805</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D355" s="3">
+        <v>2.0233211E7</v>
+      </c>
+      <c r="E355" s="3" t="s">
+        <v>819</v>
+      </c>
+      <c r="F355" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G355" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H355" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I355" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J355" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K355" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L355" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N355" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="2">
+        <v>45207.5188475926</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>820</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D356" s="3">
+        <v>2.0202837E7</v>
+      </c>
+      <c r="E356" s="3" t="s">
+        <v>821</v>
+      </c>
+      <c r="F356" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G356" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H356" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I356" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J356" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K356" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L356" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M356" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="2">
+        <v>45207.525422060186</v>
+      </c>
+      <c r="B357" s="3" t="s">
+        <v>822</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D357" s="3">
+        <v>2.0231511E7</v>
+      </c>
+      <c r="E357" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="F357" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G357" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H357" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I357" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J357" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K357" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L357" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M357" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="2">
+        <v>45207.526661875</v>
+      </c>
+      <c r="B358" s="3" t="s">
+        <v>824</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D358" s="3">
+        <v>2.0222728E7</v>
+      </c>
+      <c r="E358" s="3" t="s">
+        <v>825</v>
+      </c>
+      <c r="F358" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G358" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H358" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I358" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J358" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K358" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L358" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M358" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="2">
+        <v>45207.54813384259</v>
+      </c>
+      <c r="B359" s="3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="D359" s="3">
+        <v>2.0202216E7</v>
+      </c>
+      <c r="E359" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="F359" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G359" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H359" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I359" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J359" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K359" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L359" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M359" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="2">
+        <v>45207.55282415509</v>
+      </c>
+      <c r="B360" s="3" t="s">
+        <v>828</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D360" s="3">
+        <v>2.0236752E7</v>
+      </c>
+      <c r="E360" s="3" t="s">
+        <v>829</v>
+      </c>
+      <c r="F360" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G360" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H360" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I360" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J360" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K360" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L360" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N360" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3604" uniqueCount="830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="1080">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2501,6 +2501,756 @@
   </si>
   <si>
     <t>이다윤</t>
+  </si>
+  <si>
+    <t>djdodhrghr@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학전공</t>
+  </si>
+  <si>
+    <t>송서현</t>
+  </si>
+  <si>
+    <t>clara9398@naver.com</t>
+  </si>
+  <si>
+    <t>양은지</t>
+  </si>
+  <si>
+    <t>zzy15908664762@Gmail.com</t>
+  </si>
+  <si>
+    <t>ZHAO ZIYAN</t>
+  </si>
+  <si>
+    <t>sang010516@naver.com</t>
+  </si>
+  <si>
+    <t>최상은</t>
+  </si>
+  <si>
+    <t>bogus418@naver.com</t>
+  </si>
+  <si>
+    <t>강경일</t>
+  </si>
+  <si>
+    <t>h20205265@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최준영</t>
+  </si>
+  <si>
+    <t>gaejisub@gmail.com</t>
+  </si>
+  <si>
+    <t>배승유</t>
+  </si>
+  <si>
+    <t>rjfrh11@naver.com</t>
+  </si>
+  <si>
+    <t>서무혁</t>
+  </si>
+  <si>
+    <t>namhyunwoo1004@gmail.com</t>
+  </si>
+  <si>
+    <t>남현우</t>
+  </si>
+  <si>
+    <t>hyunbin7379@gmail.com</t>
+  </si>
+  <si>
+    <t>정현빈</t>
+  </si>
+  <si>
+    <t>jhyeong234@naver.com</t>
+  </si>
+  <si>
+    <t>김준형</t>
+  </si>
+  <si>
+    <t>leesave9@naver.com</t>
+  </si>
+  <si>
+    <t>인문학부 국어국문학전공</t>
+  </si>
+  <si>
+    <t>이혁재</t>
+  </si>
+  <si>
+    <t>shanesun20030923@gmail.com</t>
+  </si>
+  <si>
+    <t>선세인</t>
+  </si>
+  <si>
+    <t>p.pla1226@gmail.com</t>
+  </si>
+  <si>
+    <t>박성곤</t>
+  </si>
+  <si>
+    <t>ysa8659@gmail.com</t>
+  </si>
+  <si>
+    <t>조성목</t>
+  </si>
+  <si>
+    <t>rlaekdp1505@naver.com</t>
+  </si>
+  <si>
+    <t>김다예</t>
+  </si>
+  <si>
+    <t>djcjfakstp@gmail.com</t>
+  </si>
+  <si>
+    <t>융합인재학부</t>
+  </si>
+  <si>
+    <t>어철</t>
+  </si>
+  <si>
+    <t>kxjenlee@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌학부(비지니스)</t>
+  </si>
+  <si>
+    <t>이제인</t>
+  </si>
+  <si>
+    <t>sung93716@gmail.com</t>
+  </si>
+  <si>
+    <t>한예림</t>
+  </si>
+  <si>
+    <t>scw0922@naver.com</t>
+  </si>
+  <si>
+    <t>신채원</t>
+  </si>
+  <si>
+    <t>choeunland@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>송민혁</t>
+  </si>
+  <si>
+    <t>hogin0912@naver.com</t>
+  </si>
+  <si>
+    <t>신호진</t>
+  </si>
+  <si>
+    <t>audri01@naver.com</t>
+  </si>
+  <si>
+    <t>이승아</t>
+  </si>
+  <si>
+    <t>iamjjum@naver.com</t>
+  </si>
+  <si>
+    <t>rkgus8286@naver.com</t>
+  </si>
+  <si>
+    <t>이주영</t>
+  </si>
+  <si>
+    <t>sjm3756@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무</t>
+  </si>
+  <si>
+    <t>서장민</t>
+  </si>
+  <si>
+    <t>mhw040414@naver.com</t>
+  </si>
+  <si>
+    <t>문희원</t>
+  </si>
+  <si>
+    <t>jaejae7070@naver.com</t>
+  </si>
+  <si>
+    <t>이재빈</t>
+  </si>
+  <si>
+    <t>sojeongy39@gmail.com</t>
+  </si>
+  <si>
+    <t>윤소정</t>
+  </si>
+  <si>
+    <t>jjedalee@gmail.com</t>
+  </si>
+  <si>
+    <t>정재은</t>
+  </si>
+  <si>
+    <t>whddlf0504@icloud.com</t>
+  </si>
+  <si>
+    <t>김종일</t>
+  </si>
+  <si>
+    <t>ggr1042@naver.com</t>
+  </si>
+  <si>
+    <t>중국</t>
+  </si>
+  <si>
+    <t>김경록</t>
+  </si>
+  <si>
+    <t>kimkitty040510@gmail.com</t>
+  </si>
+  <si>
+    <t>jsk8070@naver.com</t>
+  </si>
+  <si>
+    <t>김세아</t>
+  </si>
+  <si>
+    <t>soekhyun7628@naver.com</t>
+  </si>
+  <si>
+    <t>김석현</t>
+  </si>
+  <si>
+    <t>yoon04817@gmail.com</t>
+  </si>
+  <si>
+    <t>장윤서</t>
+  </si>
+  <si>
+    <t>ntkrud0221@naver.com</t>
+  </si>
+  <si>
+    <t>노태경</t>
+  </si>
+  <si>
+    <t>20235130@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>김상윤</t>
+  </si>
+  <si>
+    <t>h20205164@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박건웅</t>
+  </si>
+  <si>
+    <t>obj2107@gmail.com</t>
+  </si>
+  <si>
+    <t>오병우</t>
+  </si>
+  <si>
+    <t>skyblue990080@gmail.com</t>
+  </si>
+  <si>
+    <t>윤나영</t>
+  </si>
+  <si>
+    <t>sarah04113@naver.com</t>
+  </si>
+  <si>
+    <t>박사랑</t>
+  </si>
+  <si>
+    <t>j1204yh@naver.com</t>
+  </si>
+  <si>
+    <t>정영호</t>
+  </si>
+  <si>
+    <t>dldmlcks56@gmail.com</t>
+  </si>
+  <si>
+    <t>이의찬</t>
+  </si>
+  <si>
+    <t>amielee1997@naver.com</t>
+  </si>
+  <si>
+    <t>이지수</t>
+  </si>
+  <si>
+    <t>limmh96@gmail.com</t>
+  </si>
+  <si>
+    <t>임민호</t>
+  </si>
+  <si>
+    <t>teo48253@gmail.com</t>
+  </si>
+  <si>
+    <t>이수혁</t>
+  </si>
+  <si>
+    <t>tjgussla77@naver.com</t>
+  </si>
+  <si>
+    <t>차서현</t>
+  </si>
+  <si>
+    <t>hyeseongi81@gmail.com</t>
+  </si>
+  <si>
+    <t>체육</t>
+  </si>
+  <si>
+    <t>이혜성</t>
+  </si>
+  <si>
+    <t>ncc11068@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">생명과학과 </t>
+  </si>
+  <si>
+    <t>이규린</t>
+  </si>
+  <si>
+    <t>ryan.jin1005@gmail.com</t>
+  </si>
+  <si>
+    <t>진승재</t>
+  </si>
+  <si>
+    <t>rin5920@naver.com</t>
+  </si>
+  <si>
+    <t>ehgnsdl5110312@gmail.com</t>
+  </si>
+  <si>
+    <t>p51008085@gamil.com</t>
+  </si>
+  <si>
+    <t>박준수</t>
+  </si>
+  <si>
+    <t>gksthgus3322@naver.com</t>
+  </si>
+  <si>
+    <t>한소현</t>
+  </si>
+  <si>
+    <t>meldek98@gmail.com</t>
+  </si>
+  <si>
+    <t>강비성</t>
+  </si>
+  <si>
+    <t>mingye990410@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>duddndywjd@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환경생명공학과 </t>
+  </si>
+  <si>
+    <t>송영우</t>
+  </si>
+  <si>
+    <t>zmcnvb@naver.com</t>
+  </si>
+  <si>
+    <t>lju5422@naver.com</t>
+  </si>
+  <si>
+    <t>임준섭</t>
+  </si>
+  <si>
+    <t>alscoco100@gmail.com</t>
+  </si>
+  <si>
+    <t>김민채</t>
+  </si>
+  <si>
+    <t>jinhwanjeong8@gmail.com</t>
+  </si>
+  <si>
+    <t>정진환</t>
+  </si>
+  <si>
+    <t>choeeun1502@gmail.com</t>
+  </si>
+  <si>
+    <t>데이터사언스학부</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>heojunhee@naver.com</t>
+  </si>
+  <si>
+    <t>허준희</t>
+  </si>
+  <si>
+    <t>minjae0812@naver.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 빅데이터전공</t>
+  </si>
+  <si>
+    <t>주민재</t>
+  </si>
+  <si>
+    <t>jinwon4725@naver.com</t>
+  </si>
+  <si>
+    <t>장진원</t>
+  </si>
+  <si>
+    <t>gksgh2311@naver.com</t>
+  </si>
+  <si>
+    <t>전한호</t>
+  </si>
+  <si>
+    <t>sumin102573@naver.com</t>
+  </si>
+  <si>
+    <t>김수민</t>
+  </si>
+  <si>
+    <t>mng437@naver.com</t>
+  </si>
+  <si>
+    <t>김민규</t>
+  </si>
+  <si>
+    <t>soccert1999@gmail.com</t>
+  </si>
+  <si>
+    <t>육정민</t>
+  </si>
+  <si>
+    <t>a01031309196@gmail.com</t>
+  </si>
+  <si>
+    <t>김현채</t>
+  </si>
+  <si>
+    <t>sexytaegeun@gmail.com</t>
+  </si>
+  <si>
+    <t>성태근</t>
+  </si>
+  <si>
+    <t>at79711@naver.com</t>
+  </si>
+  <si>
+    <t>데이터사이언스</t>
+  </si>
+  <si>
+    <t>박재영</t>
+  </si>
+  <si>
+    <t>seongmo0731@naver.com</t>
+  </si>
+  <si>
+    <t>조성모</t>
+  </si>
+  <si>
+    <t>yeon-jin22@naver.com</t>
+  </si>
+  <si>
+    <t>최연진</t>
+  </si>
+  <si>
+    <t>roy041108@gmail.com</t>
+  </si>
+  <si>
+    <t>신영훈</t>
+  </si>
+  <si>
+    <t>dbgustmd1113@naver.com</t>
+  </si>
+  <si>
+    <t>유현승</t>
+  </si>
+  <si>
+    <t>rhksan324@naver.com</t>
+  </si>
+  <si>
+    <t>이관무</t>
+  </si>
+  <si>
+    <t>yoo040128@naver.com</t>
+  </si>
+  <si>
+    <t>유승주</t>
+  </si>
+  <si>
+    <t>k00e0096@naver.com</t>
+  </si>
+  <si>
+    <t>임민지</t>
+  </si>
+  <si>
+    <t>qwelkjzxc00000@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서진</t>
+  </si>
+  <si>
+    <t>ayden0429@gmail.com</t>
+  </si>
+  <si>
+    <t>이성연</t>
+  </si>
+  <si>
+    <t>yena8546@naver.com</t>
+  </si>
+  <si>
+    <t>장예나</t>
+  </si>
+  <si>
+    <t>gmyeongju515@gmail.com</t>
+  </si>
+  <si>
+    <t>김명주</t>
+  </si>
+  <si>
+    <t>minhan3729@gmail.com</t>
+  </si>
+  <si>
+    <t>이민한</t>
+  </si>
+  <si>
+    <t>gata0523@gmail.com</t>
+  </si>
+  <si>
+    <t>서형록</t>
+  </si>
+  <si>
+    <t>biseos4@gmail.com</t>
+  </si>
+  <si>
+    <t>박주영</t>
+  </si>
+  <si>
+    <t>ljh2017@naver.com</t>
+  </si>
+  <si>
+    <t>이정효</t>
+  </si>
+  <si>
+    <t>hshs0104746@naver.com</t>
+  </si>
+  <si>
+    <t>최희수</t>
+  </si>
+  <si>
+    <t>ke64276065@gmail.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>harin3040@naver.com</t>
+  </si>
+  <si>
+    <t>김현진</t>
+  </si>
+  <si>
+    <t>jaylee531@naver.com</t>
+  </si>
+  <si>
+    <t>이제이</t>
+  </si>
+  <si>
+    <t>20233824@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>안지영</t>
+  </si>
+  <si>
+    <t>homelearn04@naver.com</t>
+  </si>
+  <si>
+    <t>박종욱</t>
+  </si>
+  <si>
+    <t>yantaijin1@naver.com</t>
+  </si>
+  <si>
+    <t>박종진</t>
+  </si>
+  <si>
+    <t>wndltkr@naver.com</t>
+  </si>
+  <si>
+    <t>주이삭</t>
+  </si>
+  <si>
+    <t>uy7249@gmail.com</t>
+  </si>
+  <si>
+    <t>이다인</t>
+  </si>
+  <si>
+    <t>vbn116@naver.com</t>
+  </si>
+  <si>
+    <t>진미경</t>
+  </si>
+  <si>
+    <t>baeih15@naver.com</t>
+  </si>
+  <si>
+    <t>배임호</t>
+  </si>
+  <si>
+    <t>ahn12025759@gmail.com</t>
+  </si>
+  <si>
+    <t>안채현</t>
+  </si>
+  <si>
+    <t>20232327@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">사회복지학부 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">박소희 </t>
+  </si>
+  <si>
+    <t>rhdskrud123@naver.com</t>
+  </si>
+  <si>
+    <t>공나경</t>
+  </si>
+  <si>
+    <t>aj4497@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">반도체•디스플레이 스쿨 </t>
+  </si>
+  <si>
+    <t>안연지</t>
+  </si>
+  <si>
+    <t>lyd18207267351@gmail.com</t>
+  </si>
+  <si>
+    <t>문화산업</t>
+  </si>
+  <si>
+    <t>LIU YANDAN</t>
+  </si>
+  <si>
+    <t>baegmin9@gmail.com</t>
+  </si>
+  <si>
+    <t>백민</t>
+  </si>
+  <si>
+    <t>hyeoni8635@daum.net</t>
+  </si>
+  <si>
+    <t>임서현</t>
+  </si>
+  <si>
+    <t>gabiekook040907@gmail.com</t>
+  </si>
+  <si>
+    <t>장형욱</t>
+  </si>
+  <si>
+    <t>bin85288@daum.net</t>
+  </si>
+  <si>
+    <t>김수빈</t>
+  </si>
+  <si>
+    <t>u01022994088@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어융합학과</t>
+  </si>
+  <si>
+    <t>구광모</t>
+  </si>
+  <si>
+    <t>srankhanwoo@gmail.com</t>
+  </si>
+  <si>
+    <t>최찬우</t>
+  </si>
+  <si>
+    <t>ehddnr1884@naver.com</t>
+  </si>
+  <si>
+    <t>서동욱</t>
+  </si>
+  <si>
+    <t>kddong99@naver.com</t>
+  </si>
+  <si>
+    <t>빅데이터전공</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>rladyddus789@gmail.com</t>
+  </si>
+  <si>
+    <t>김용연</t>
+  </si>
+  <si>
+    <t>ali003@naver.com</t>
+  </si>
+  <si>
+    <t>사학과</t>
+  </si>
+  <si>
+    <t>yusoyun03@gmail.com</t>
+  </si>
+  <si>
+    <t>유소연</t>
+  </si>
+  <si>
+    <t>woojin984778@gmail.com</t>
+  </si>
+  <si>
+    <t>이우진</t>
+  </si>
+  <si>
+    <t>chant1238762@gmail.com</t>
+  </si>
+  <si>
+    <t>심재민</t>
+  </si>
+  <si>
+    <t>tjr5457@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>정현석</t>
   </si>
 </sst>
 </file>
@@ -17539,6 +18289,4885 @@
         <v>22</v>
       </c>
     </row>
+    <row r="361">
+      <c r="A361" s="2">
+        <v>45207.56527762732</v>
+      </c>
+      <c r="B361" s="3" t="s">
+        <v>830</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>831</v>
+      </c>
+      <c r="D361" s="3">
+        <v>2.0216618E7</v>
+      </c>
+      <c r="E361" s="3" t="s">
+        <v>832</v>
+      </c>
+      <c r="F361" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G361" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H361" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I361" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J361" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K361" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L361" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M361" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="2">
+        <v>45207.56683471065</v>
+      </c>
+      <c r="B362" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D362" s="3">
+        <v>2.0232552E7</v>
+      </c>
+      <c r="E362" s="3" t="s">
+        <v>834</v>
+      </c>
+      <c r="F362" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G362" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H362" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I362" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J362" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K362" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L362" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N362" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="2">
+        <v>45207.57025017361</v>
+      </c>
+      <c r="B363" s="3" t="s">
+        <v>835</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D363" s="3">
+        <v>2.0208013E7</v>
+      </c>
+      <c r="E363" s="3" t="s">
+        <v>836</v>
+      </c>
+      <c r="F363" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G363" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H363" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I363" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J363" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K363" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L363" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M363" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="2">
+        <v>45207.57683046296</v>
+      </c>
+      <c r="B364" s="3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D364" s="3">
+        <v>2.0202851E7</v>
+      </c>
+      <c r="E364" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="F364" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G364" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H364" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I364" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J364" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K364" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L364" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M364" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="2">
+        <v>45207.57792511574</v>
+      </c>
+      <c r="B365" s="3" t="s">
+        <v>839</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D365" s="3">
+        <v>2.0173701E7</v>
+      </c>
+      <c r="E365" s="3" t="s">
+        <v>840</v>
+      </c>
+      <c r="F365" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G365" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H365" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I365" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J365" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K365" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N365" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="2">
+        <v>45207.57843003472</v>
+      </c>
+      <c r="B366" s="3" t="s">
+        <v>841</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D366" s="3">
+        <v>2.0205265E7</v>
+      </c>
+      <c r="E366" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="F366" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G366" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H366" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I366" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J366" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K366" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L366" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M366" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="2">
+        <v>45207.58566164352</v>
+      </c>
+      <c r="B367" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D367" s="3">
+        <v>2.0225169E7</v>
+      </c>
+      <c r="E367" s="3" t="s">
+        <v>844</v>
+      </c>
+      <c r="F367" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G367" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H367" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I367" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J367" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K367" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L367" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N367" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="2">
+        <v>45207.590532372684</v>
+      </c>
+      <c r="B368" s="3" t="s">
+        <v>845</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D368" s="3">
+        <v>2.0193328E7</v>
+      </c>
+      <c r="E368" s="3" t="s">
+        <v>846</v>
+      </c>
+      <c r="F368" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G368" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H368" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I368" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J368" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K368" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L368" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M368" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="2">
+        <v>45207.59394050926</v>
+      </c>
+      <c r="B369" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D369" s="3">
+        <v>2.0202948E7</v>
+      </c>
+      <c r="E369" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="F369" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G369" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H369" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I369" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J369" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K369" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L369" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N369" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="2">
+        <v>45207.60797413194</v>
+      </c>
+      <c r="B370" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D370" s="3">
+        <v>2.0233036E7</v>
+      </c>
+      <c r="E370" s="3" t="s">
+        <v>850</v>
+      </c>
+      <c r="F370" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G370" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H370" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I370" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J370" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K370" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L370" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M370" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="2">
+        <v>45207.61351549768</v>
+      </c>
+      <c r="B371" s="3" t="s">
+        <v>851</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D371" s="3">
+        <v>2.0232935E7</v>
+      </c>
+      <c r="E371" s="3" t="s">
+        <v>852</v>
+      </c>
+      <c r="F371" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G371" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H371" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I371" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J371" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K371" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L371" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M371" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="2">
+        <v>45207.61405070602</v>
+      </c>
+      <c r="B372" s="3" t="s">
+        <v>853</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>854</v>
+      </c>
+      <c r="D372" s="3">
+        <v>2.0181088E7</v>
+      </c>
+      <c r="E372" s="3" t="s">
+        <v>855</v>
+      </c>
+      <c r="F372" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G372" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H372" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I372" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J372" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K372" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L372" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M372" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="2">
+        <v>45207.61505383102</v>
+      </c>
+      <c r="B373" s="3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D373" s="3">
+        <v>2.0236253E7</v>
+      </c>
+      <c r="E373" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="F373" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G373" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H373" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I373" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J373" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K373" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L373" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M373" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="2">
+        <v>45207.622018888884</v>
+      </c>
+      <c r="B374" s="3" t="s">
+        <v>858</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D374" s="3">
+        <v>2.0236127E7</v>
+      </c>
+      <c r="E374" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F374" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G374" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H374" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I374" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J374" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K374" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L374" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M374" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="2">
+        <v>45207.62448450232</v>
+      </c>
+      <c r="B375" s="3" t="s">
+        <v>431</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D375" s="3">
+        <v>2.0232704E7</v>
+      </c>
+      <c r="E375" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="F375" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G375" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H375" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I375" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J375" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K375" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L375" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N375" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="2">
+        <v>45207.630505243054</v>
+      </c>
+      <c r="B376" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D376" s="3">
+        <v>2.0223537E7</v>
+      </c>
+      <c r="E376" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="F376" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G376" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H376" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I376" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J376" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K376" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L376" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N376" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="2">
+        <v>45207.64021394676</v>
+      </c>
+      <c r="B377" s="3" t="s">
+        <v>862</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D377" s="3">
+        <v>2.0222908E7</v>
+      </c>
+      <c r="E377" s="3" t="s">
+        <v>863</v>
+      </c>
+      <c r="F377" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G377" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H377" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I377" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J377" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K377" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L377" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N377" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="2">
+        <v>45207.64365275463</v>
+      </c>
+      <c r="B378" s="3" t="s">
+        <v>864</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>865</v>
+      </c>
+      <c r="D378" s="3">
+        <v>2.0196515E7</v>
+      </c>
+      <c r="E378" s="3" t="s">
+        <v>866</v>
+      </c>
+      <c r="F378" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G378" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H378" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I378" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J378" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K378" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M378" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="2">
+        <v>45207.645563819446</v>
+      </c>
+      <c r="B379" s="3" t="s">
+        <v>867</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>868</v>
+      </c>
+      <c r="D379" s="3">
+        <v>2.0226417E7</v>
+      </c>
+      <c r="E379" s="3" t="s">
+        <v>869</v>
+      </c>
+      <c r="F379" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G379" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H379" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I379" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J379" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K379" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L379" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M379" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="2">
+        <v>45207.65166041667</v>
+      </c>
+      <c r="B380" s="3" t="s">
+        <v>870</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D380" s="3">
+        <v>2.0233261E7</v>
+      </c>
+      <c r="E380" s="3" t="s">
+        <v>871</v>
+      </c>
+      <c r="F380" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G380" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H380" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I380" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J380" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K380" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L380" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M380" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="2">
+        <v>45207.65268090278</v>
+      </c>
+      <c r="B381" s="3" t="s">
+        <v>872</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D381" s="3">
+        <v>2.0236256E7</v>
+      </c>
+      <c r="E381" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="F381" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G381" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H381" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I381" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J381" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K381" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L381" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N381" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="2">
+        <v>45207.654236828705</v>
+      </c>
+      <c r="B382" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D382" s="3">
+        <v>2.0181054E7</v>
+      </c>
+      <c r="E382" s="3" t="s">
+        <v>876</v>
+      </c>
+      <c r="F382" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G382" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H382" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I382" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J382" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K382" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L382" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N382" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="2">
+        <v>45207.66043071759</v>
+      </c>
+      <c r="B383" s="3" t="s">
+        <v>877</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D383" s="3">
+        <v>2.0232829E7</v>
+      </c>
+      <c r="E383" s="3" t="s">
+        <v>878</v>
+      </c>
+      <c r="F383" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G383" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H383" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I383" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J383" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K383" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L383" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N383" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="2">
+        <v>45207.67301097223</v>
+      </c>
+      <c r="B384" s="3" t="s">
+        <v>879</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D384" s="3">
+        <v>2.0203639E7</v>
+      </c>
+      <c r="E384" s="3" t="s">
+        <v>880</v>
+      </c>
+      <c r="F384" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G384" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H384" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I384" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J384" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K384" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L384" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N384" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="2">
+        <v>45207.67405636574</v>
+      </c>
+      <c r="B385" s="3" t="s">
+        <v>881</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D385" s="3">
+        <v>2.0233606E7</v>
+      </c>
+      <c r="E385" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F385" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G385" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H385" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I385" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J385" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K385" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L385" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N385" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="2">
+        <v>45207.67558123842</v>
+      </c>
+      <c r="B386" s="3" t="s">
+        <v>882</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D386" s="3">
+        <v>2.0233729E7</v>
+      </c>
+      <c r="E386" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F386" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G386" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H386" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I386" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J386" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K386" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L386" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M386" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="2">
+        <v>45207.68318288194</v>
+      </c>
+      <c r="B387" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D387" s="3">
+        <v>2.0163118E7</v>
+      </c>
+      <c r="E387" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="F387" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G387" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H387" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I387" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J387" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K387" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L387" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M387" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="2">
+        <v>45207.68449629629</v>
+      </c>
+      <c r="B388" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D388" s="3">
+        <v>2.023161E7</v>
+      </c>
+      <c r="E388" s="3" t="s">
+        <v>888</v>
+      </c>
+      <c r="F388" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G388" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H388" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I388" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J388" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K388" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L388" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M388" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="2">
+        <v>45207.68451203704</v>
+      </c>
+      <c r="B389" s="3" t="s">
+        <v>889</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D389" s="3">
+        <v>2.0221631E7</v>
+      </c>
+      <c r="E389" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="F389" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G389" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H389" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I389" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J389" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K389" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L389" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M389" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="2">
+        <v>45207.685145972224</v>
+      </c>
+      <c r="B390" s="3" t="s">
+        <v>891</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D390" s="3">
+        <v>2.0222987E7</v>
+      </c>
+      <c r="E390" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="F390" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G390" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H390" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I390" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J390" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K390" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L390" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N390" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="2">
+        <v>45207.68618287037</v>
+      </c>
+      <c r="B391" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D391" s="3">
+        <v>2.0232134E7</v>
+      </c>
+      <c r="E391" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="F391" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G391" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H391" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I391" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J391" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K391" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L391" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M391" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="2">
+        <v>45207.689261481486</v>
+      </c>
+      <c r="B392" s="3" t="s">
+        <v>895</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D392" s="3">
+        <v>2.0185121E7</v>
+      </c>
+      <c r="E392" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F392" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G392" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H392" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I392" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J392" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K392" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L392" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M392" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="2">
+        <v>45207.691146655096</v>
+      </c>
+      <c r="B393" s="3" t="s">
+        <v>897</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>898</v>
+      </c>
+      <c r="D393" s="3">
+        <v>2.0221542E7</v>
+      </c>
+      <c r="E393" s="3" t="s">
+        <v>899</v>
+      </c>
+      <c r="F393" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G393" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H393" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I393" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J393" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K393" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L393" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M393" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="2">
+        <v>45207.69616236111</v>
+      </c>
+      <c r="B394" s="3" t="s">
+        <v>900</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D394" s="3">
+        <v>2.0232707E7</v>
+      </c>
+      <c r="E394" s="3" t="s">
+        <v>699</v>
+      </c>
+      <c r="F394" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G394" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H394" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I394" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J394" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K394" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L394" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M394" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="2">
+        <v>45207.69757503472</v>
+      </c>
+      <c r="B395" s="3" t="s">
+        <v>901</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D395" s="3">
+        <v>2.0207064E7</v>
+      </c>
+      <c r="E395" s="3" t="s">
+        <v>902</v>
+      </c>
+      <c r="F395" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G395" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H395" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I395" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J395" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K395" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L395" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M395" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="2">
+        <v>45207.69876363426</v>
+      </c>
+      <c r="B396" s="3" t="s">
+        <v>903</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D396" s="3">
+        <v>2.0223807E7</v>
+      </c>
+      <c r="E396" s="3" t="s">
+        <v>904</v>
+      </c>
+      <c r="F396" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G396" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H396" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I396" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J396" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K396" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L396" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M396" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="2">
+        <v>45207.70598561343</v>
+      </c>
+      <c r="B397" s="3" t="s">
+        <v>905</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D397" s="3">
+        <v>2.023677E7</v>
+      </c>
+      <c r="E397" s="3" t="s">
+        <v>906</v>
+      </c>
+      <c r="F397" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G397" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H397" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I397" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J397" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K397" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L397" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N397" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="2">
+        <v>45207.70962318287</v>
+      </c>
+      <c r="B398" s="3" t="s">
+        <v>907</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D398" s="3">
+        <v>2.0234118E7</v>
+      </c>
+      <c r="E398" s="3" t="s">
+        <v>908</v>
+      </c>
+      <c r="F398" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G398" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H398" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I398" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J398" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K398" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L398" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M398" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="2">
+        <v>45207.71998185186</v>
+      </c>
+      <c r="B399" s="3" t="s">
+        <v>909</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D399" s="3">
+        <v>2.023513E7</v>
+      </c>
+      <c r="E399" s="3" t="s">
+        <v>910</v>
+      </c>
+      <c r="F399" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G399" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H399" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I399" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J399" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K399" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L399" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N399" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="2">
+        <v>45207.72143582176</v>
+      </c>
+      <c r="B400" s="3" t="s">
+        <v>911</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D400" s="3">
+        <v>2.0205164E7</v>
+      </c>
+      <c r="E400" s="3" t="s">
+        <v>912</v>
+      </c>
+      <c r="F400" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G400" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H400" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I400" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J400" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K400" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L400" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M400" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="2">
+        <v>45207.72340300926</v>
+      </c>
+      <c r="B401" s="3" t="s">
+        <v>913</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D401" s="3">
+        <v>2.0173026E7</v>
+      </c>
+      <c r="E401" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="F401" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G401" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H401" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I401" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J401" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K401" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L401" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N401" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="2">
+        <v>45207.7252271412</v>
+      </c>
+      <c r="B402" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D402" s="3">
+        <v>2.0233828E7</v>
+      </c>
+      <c r="E402" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="F402" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G402" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H402" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I402" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J402" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K402" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L402" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M402" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="2">
+        <v>45207.729347326385</v>
+      </c>
+      <c r="B403" s="3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="D403" s="3">
+        <v>2.0232532E7</v>
+      </c>
+      <c r="E403" s="3" t="s">
+        <v>918</v>
+      </c>
+      <c r="F403" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G403" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H403" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I403" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J403" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K403" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L403" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M403" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="2">
+        <v>45207.737694282405</v>
+      </c>
+      <c r="B404" s="3" t="s">
+        <v>919</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D404" s="3">
+        <v>2.0233247E7</v>
+      </c>
+      <c r="E404" s="3" t="s">
+        <v>920</v>
+      </c>
+      <c r="F404" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G404" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H404" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I404" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J404" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K404" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L404" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N404" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="2">
+        <v>45207.7387103588</v>
+      </c>
+      <c r="B405" s="3" t="s">
+        <v>921</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D405" s="3">
+        <v>2.0173144E7</v>
+      </c>
+      <c r="E405" s="3" t="s">
+        <v>922</v>
+      </c>
+      <c r="F405" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G405" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H405" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I405" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J405" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K405" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L405" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N405" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="2">
+        <v>45207.74362199074</v>
+      </c>
+      <c r="B406" s="3" t="s">
+        <v>923</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D406" s="3">
+        <v>2.0217159E7</v>
+      </c>
+      <c r="E406" s="3" t="s">
+        <v>924</v>
+      </c>
+      <c r="F406" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G406" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H406" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I406" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J406" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K406" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L406" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N406" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="2">
+        <v>45207.756309212964</v>
+      </c>
+      <c r="B407" s="3" t="s">
+        <v>925</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D407" s="3">
+        <v>2.0232632E7</v>
+      </c>
+      <c r="E407" s="3" t="s">
+        <v>926</v>
+      </c>
+      <c r="F407" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G407" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H407" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I407" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J407" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K407" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L407" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M407" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="2">
+        <v>45207.76941699074</v>
+      </c>
+      <c r="B408" s="3" t="s">
+        <v>927</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D408" s="3">
+        <v>2.023342E7</v>
+      </c>
+      <c r="E408" s="3" t="s">
+        <v>928</v>
+      </c>
+      <c r="F408" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G408" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H408" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I408" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J408" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K408" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L408" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M408" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="2">
+        <v>45207.775699502316</v>
+      </c>
+      <c r="B409" s="3" t="s">
+        <v>929</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D409" s="3">
+        <v>2.0236295E7</v>
+      </c>
+      <c r="E409" s="3" t="s">
+        <v>930</v>
+      </c>
+      <c r="F409" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G409" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H409" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I409" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J409" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K409" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L409" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M409" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="2">
+        <v>45207.78292572917</v>
+      </c>
+      <c r="B410" s="3" t="s">
+        <v>931</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>932</v>
+      </c>
+      <c r="D410" s="3">
+        <v>2.0224137E7</v>
+      </c>
+      <c r="E410" s="3" t="s">
+        <v>933</v>
+      </c>
+      <c r="F410" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G410" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H410" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I410" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J410" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K410" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L410" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M410" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="2">
+        <v>45207.78680554398</v>
+      </c>
+      <c r="B411" s="3" t="s">
+        <v>934</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>935</v>
+      </c>
+      <c r="D411" s="3">
+        <v>2.0233529E7</v>
+      </c>
+      <c r="E411" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="F411" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G411" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H411" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I411" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J411" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K411" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L411" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N411" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="2">
+        <v>45207.79275635417</v>
+      </c>
+      <c r="B412" s="3" t="s">
+        <v>937</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D412" s="3">
+        <v>2.0192999E7</v>
+      </c>
+      <c r="E412" s="3" t="s">
+        <v>938</v>
+      </c>
+      <c r="F412" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G412" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H412" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I412" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J412" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K412" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L412" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N412" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="2">
+        <v>45207.79276037037</v>
+      </c>
+      <c r="B413" s="3" t="s">
+        <v>939</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D413" s="3">
+        <v>2.0233425E7</v>
+      </c>
+      <c r="E413" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="F413" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G413" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H413" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I413" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J413" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K413" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L413" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M413" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="2">
+        <v>45207.79779945602</v>
+      </c>
+      <c r="B414" s="3" t="s">
+        <v>940</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D414" s="3">
+        <v>2.0212708E7</v>
+      </c>
+      <c r="E414" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F414" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G414" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H414" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I414" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J414" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K414" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L414" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M414" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="2">
+        <v>45207.810129537036</v>
+      </c>
+      <c r="B415" s="3" t="s">
+        <v>941</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D415" s="3">
+        <v>2.0236726E7</v>
+      </c>
+      <c r="E415" s="3" t="s">
+        <v>942</v>
+      </c>
+      <c r="F415" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G415" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H415" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I415" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J415" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K415" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L415" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N415" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="2">
+        <v>45207.82090982639</v>
+      </c>
+      <c r="B416" s="3" t="s">
+        <v>943</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D416" s="3">
+        <v>2.0236303E7</v>
+      </c>
+      <c r="E416" s="3" t="s">
+        <v>944</v>
+      </c>
+      <c r="F416" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G416" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H416" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I416" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J416" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K416" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L416" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M416" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="2">
+        <v>45207.82254538195</v>
+      </c>
+      <c r="B417" s="3" t="s">
+        <v>945</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D417" s="3">
+        <v>2.0235102E7</v>
+      </c>
+      <c r="E417" s="3" t="s">
+        <v>946</v>
+      </c>
+      <c r="F417" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G417" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H417" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I417" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J417" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K417" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L417" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N417" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="2">
+        <v>45207.82808603009</v>
+      </c>
+      <c r="B418" s="3" t="s">
+        <v>947</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>948</v>
+      </c>
+      <c r="D418" s="3">
+        <v>2.0183639E7</v>
+      </c>
+      <c r="E418" s="3" t="s">
+        <v>645</v>
+      </c>
+      <c r="F418" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G418" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H418" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I418" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J418" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K418" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L418" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M418" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="2">
+        <v>45207.829012546295</v>
+      </c>
+      <c r="B419" s="3" t="s">
+        <v>949</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>950</v>
+      </c>
+      <c r="D419" s="3">
+        <v>2.0223721E7</v>
+      </c>
+      <c r="E419" s="3" t="s">
+        <v>951</v>
+      </c>
+      <c r="F419" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G419" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H419" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I419" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J419" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K419" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L419" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N419" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="2">
+        <v>45207.83021396991</v>
+      </c>
+      <c r="B420" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D420" s="3">
+        <v>2.0213014E7</v>
+      </c>
+      <c r="E420" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="F420" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G420" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H420" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I420" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J420" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K420" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L420" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M420" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="2">
+        <v>45207.83396643518</v>
+      </c>
+      <c r="B421" s="3" t="s">
+        <v>953</v>
+      </c>
+      <c r="C421" s="3">
+        <v>2.0192348E7</v>
+      </c>
+      <c r="D421" s="3">
+        <v>2.0192348E7</v>
+      </c>
+      <c r="E421" s="3" t="s">
+        <v>954</v>
+      </c>
+      <c r="F421" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G421" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H421" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I421" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J421" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K421" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L421" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M421" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="2">
+        <v>45207.83448451389</v>
+      </c>
+      <c r="B422" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D422" s="3">
+        <v>2.0223806E7</v>
+      </c>
+      <c r="E422" s="3" t="s">
+        <v>956</v>
+      </c>
+      <c r="F422" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G422" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H422" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I422" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J422" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K422" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L422" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N422" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="2">
+        <v>45207.84299099537</v>
+      </c>
+      <c r="B423" s="3" t="s">
+        <v>957</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D423" s="3">
+        <v>2.0236776E7</v>
+      </c>
+      <c r="E423" s="3" t="s">
+        <v>958</v>
+      </c>
+      <c r="F423" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G423" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H423" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I423" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J423" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K423" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L423" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N423" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="2">
+        <v>45207.848568761576</v>
+      </c>
+      <c r="B424" s="3" t="s">
+        <v>959</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>960</v>
+      </c>
+      <c r="D424" s="3">
+        <v>2.0233253E7</v>
+      </c>
+      <c r="E424" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="F424" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G424" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H424" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I424" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J424" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K424" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L424" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N424" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="2">
+        <v>45207.8493925463</v>
+      </c>
+      <c r="B425" s="3" t="s">
+        <v>962</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D425" s="3">
+        <v>2.0231106E7</v>
+      </c>
+      <c r="E425" s="3" t="s">
+        <v>963</v>
+      </c>
+      <c r="F425" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G425" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H425" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I425" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J425" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K425" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L425" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M425" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="2">
+        <v>45207.851396620375</v>
+      </c>
+      <c r="B426" s="3" t="s">
+        <v>964</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>965</v>
+      </c>
+      <c r="D426" s="3">
+        <v>2.0215249E7</v>
+      </c>
+      <c r="E426" s="3" t="s">
+        <v>966</v>
+      </c>
+      <c r="F426" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G426" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H426" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I426" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J426" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K426" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L426" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M426" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="2">
+        <v>45207.85188313657</v>
+      </c>
+      <c r="B427" s="3" t="s">
+        <v>967</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D427" s="3">
+        <v>2.0232355E7</v>
+      </c>
+      <c r="E427" s="3" t="s">
+        <v>968</v>
+      </c>
+      <c r="F427" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G427" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H427" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I427" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J427" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K427" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L427" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M427" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="2">
+        <v>45207.853218564815</v>
+      </c>
+      <c r="B428" s="3" t="s">
+        <v>969</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D428" s="3">
+        <v>2.0232842E7</v>
+      </c>
+      <c r="E428" s="3" t="s">
+        <v>970</v>
+      </c>
+      <c r="F428" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G428" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H428" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I428" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J428" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K428" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L428" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N428" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="2">
+        <v>45207.853258414354</v>
+      </c>
+      <c r="B429" s="3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D429" s="3">
+        <v>2.0212922E7</v>
+      </c>
+      <c r="E429" s="3" t="s">
+        <v>972</v>
+      </c>
+      <c r="F429" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G429" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H429" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I429" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J429" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K429" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L429" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M429" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="2">
+        <v>45207.85777997685</v>
+      </c>
+      <c r="B430" s="3" t="s">
+        <v>973</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D430" s="3">
+        <v>2.0232105E7</v>
+      </c>
+      <c r="E430" s="3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F430" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G430" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H430" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I430" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J430" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K430" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L430" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M430" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="2">
+        <v>45207.86095465277</v>
+      </c>
+      <c r="B431" s="3" t="s">
+        <v>975</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D431" s="3">
+        <v>2.0182125E7</v>
+      </c>
+      <c r="E431" s="3" t="s">
+        <v>976</v>
+      </c>
+      <c r="F431" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G431" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H431" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I431" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J431" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K431" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L431" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M431" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="2">
+        <v>45207.86126881944</v>
+      </c>
+      <c r="B432" s="3" t="s">
+        <v>977</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="D432" s="3">
+        <v>2.0232609E7</v>
+      </c>
+      <c r="E432" s="3" t="s">
+        <v>978</v>
+      </c>
+      <c r="F432" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G432" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H432" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I432" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J432" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K432" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L432" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N432" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="2">
+        <v>45207.87079230324</v>
+      </c>
+      <c r="B433" s="3" t="s">
+        <v>979</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D433" s="3">
+        <v>2.0232118E7</v>
+      </c>
+      <c r="E433" s="3" t="s">
+        <v>980</v>
+      </c>
+      <c r="F433" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G433" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H433" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I433" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J433" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K433" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L433" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M433" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="2">
+        <v>45207.87509756944</v>
+      </c>
+      <c r="B434" s="3" t="s">
+        <v>981</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>982</v>
+      </c>
+      <c r="D434" s="3">
+        <v>2.023322E7</v>
+      </c>
+      <c r="E434" s="3" t="s">
+        <v>983</v>
+      </c>
+      <c r="F434" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G434" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H434" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I434" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J434" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K434" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L434" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N434" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="2">
+        <v>45207.87854497685</v>
+      </c>
+      <c r="B435" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D435" s="3">
+        <v>2.0192988E7</v>
+      </c>
+      <c r="E435" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="F435" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G435" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H435" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I435" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J435" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K435" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L435" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N435" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="2">
+        <v>45207.87865234954</v>
+      </c>
+      <c r="B436" s="3" t="s">
+        <v>986</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D436" s="3">
+        <v>2.0233256E7</v>
+      </c>
+      <c r="E436" s="3" t="s">
+        <v>987</v>
+      </c>
+      <c r="F436" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G436" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H436" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I436" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J436" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K436" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L436" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N436" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="2">
+        <v>45207.8826096875</v>
+      </c>
+      <c r="B437" s="3" t="s">
+        <v>988</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D437" s="3">
+        <v>2.0235199E7</v>
+      </c>
+      <c r="E437" s="3" t="s">
+        <v>989</v>
+      </c>
+      <c r="F437" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G437" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H437" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I437" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J437" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K437" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L437" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M437" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="2">
+        <v>45207.88753407408</v>
+      </c>
+      <c r="B438" s="3" t="s">
+        <v>990</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D438" s="3">
+        <v>2.0236746E7</v>
+      </c>
+      <c r="E438" s="3" t="s">
+        <v>991</v>
+      </c>
+      <c r="F438" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G438" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H438" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I438" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J438" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K438" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L438" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M438" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="2">
+        <v>45207.8905653588</v>
+      </c>
+      <c r="B439" s="3" t="s">
+        <v>992</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D439" s="3">
+        <v>2.0203001E7</v>
+      </c>
+      <c r="E439" s="3" t="s">
+        <v>993</v>
+      </c>
+      <c r="F439" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G439" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H439" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I439" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J439" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K439" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L439" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M439" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="2">
+        <v>45207.89162445602</v>
+      </c>
+      <c r="B440" s="3" t="s">
+        <v>994</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D440" s="3">
+        <v>2.0232622E7</v>
+      </c>
+      <c r="E440" s="3" t="s">
+        <v>995</v>
+      </c>
+      <c r="F440" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G440" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H440" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I440" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J440" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K440" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L440" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N440" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="2">
+        <v>45207.89350155093</v>
+      </c>
+      <c r="B441" s="3" t="s">
+        <v>996</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D441" s="3">
+        <v>2.0202355E7</v>
+      </c>
+      <c r="E441" s="3" t="s">
+        <v>997</v>
+      </c>
+      <c r="F441" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G441" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H441" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I441" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J441" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K441" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N441" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="2">
+        <v>45207.89427055555</v>
+      </c>
+      <c r="B442" s="3" t="s">
+        <v>998</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D442" s="3">
+        <v>2.0211051E7</v>
+      </c>
+      <c r="E442" s="3" t="s">
+        <v>999</v>
+      </c>
+      <c r="F442" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G442" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H442" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I442" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J442" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K442" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L442" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M442" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="2">
+        <v>45207.89798175926</v>
+      </c>
+      <c r="B443" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D443" s="3">
+        <v>2.0226145E7</v>
+      </c>
+      <c r="E443" s="3" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F443" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G443" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H443" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I443" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J443" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K443" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L443" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M443" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="2">
+        <v>45207.902553935186</v>
+      </c>
+      <c r="B444" s="3" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D444" s="3">
+        <v>2.0233025E7</v>
+      </c>
+      <c r="E444" s="3" t="s">
+        <v>1003</v>
+      </c>
+      <c r="F444" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G444" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H444" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I444" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J444" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K444" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L444" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N444" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="2">
+        <v>45207.90477439815</v>
+      </c>
+      <c r="B445" s="3" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D445" s="3">
+        <v>2.0213606E7</v>
+      </c>
+      <c r="E445" s="3" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F445" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G445" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H445" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I445" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J445" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K445" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L445" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N445" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="2">
+        <v>45207.90626819445</v>
+      </c>
+      <c r="B446" s="3" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="D446" s="3">
+        <v>2.0182556E7</v>
+      </c>
+      <c r="E446" s="3" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F446" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G446" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H446" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I446" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J446" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K446" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L446" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N446" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="2">
+        <v>45207.90670332176</v>
+      </c>
+      <c r="B447" s="3" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D447" s="3">
+        <v>2.0235188E7</v>
+      </c>
+      <c r="E447" s="3" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F447" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G447" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H447" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I447" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J447" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K447" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L447" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M447" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="2">
+        <v>45207.909749768514</v>
+      </c>
+      <c r="B448" s="3" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D448" s="3">
+        <v>2.0235171E7</v>
+      </c>
+      <c r="E448" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F448" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G448" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H448" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I448" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J448" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L448" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M448" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="2">
+        <v>45207.92222306713</v>
+      </c>
+      <c r="B449" s="3" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="D449" s="3">
+        <v>2.0181079E7</v>
+      </c>
+      <c r="E449" s="3" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F449" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G449" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H449" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I449" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J449" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K449" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L449" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N449" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="2">
+        <v>45207.929531180554</v>
+      </c>
+      <c r="B450" s="3" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D450" s="3">
+        <v>2.0232639E7</v>
+      </c>
+      <c r="E450" s="3" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F450" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G450" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H450" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I450" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J450" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K450" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L450" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M450" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="2">
+        <v>45207.93341521991</v>
+      </c>
+      <c r="B451" s="3" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D451" s="3">
+        <v>2.0223705E7</v>
+      </c>
+      <c r="E451" s="3" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F451" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G451" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H451" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I451" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J451" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K451" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L451" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N451" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="2">
+        <v>45207.93626423611</v>
+      </c>
+      <c r="B452" s="3" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D452" s="3">
+        <v>2.0232113E7</v>
+      </c>
+      <c r="E452" s="3" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F452" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G452" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H452" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I452" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J452" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K452" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L452" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M452" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="2">
+        <v>45207.94075956018</v>
+      </c>
+      <c r="B453" s="3" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D453" s="3">
+        <v>2.0233632E7</v>
+      </c>
+      <c r="E453" s="3" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F453" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G453" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H453" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I453" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J453" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K453" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L453" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N453" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="2">
+        <v>45207.944999224535</v>
+      </c>
+      <c r="B454" s="3" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D454" s="3">
+        <v>2.0233824E7</v>
+      </c>
+      <c r="E454" s="3" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F454" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G454" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H454" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I454" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J454" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K454" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L454" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N454" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2">
+        <v>45207.94564063658</v>
+      </c>
+      <c r="B455" s="3" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D455" s="3">
+        <v>2.023517E7</v>
+      </c>
+      <c r="E455" s="3" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F455" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G455" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H455" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I455" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J455" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K455" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L455" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N455" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2">
+        <v>45207.94815497685</v>
+      </c>
+      <c r="B456" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D456" s="3">
+        <v>2.0191517E7</v>
+      </c>
+      <c r="E456" s="3" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F456" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G456" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H456" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I456" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J456" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K456" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L456" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N456" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2">
+        <v>45207.94848769676</v>
+      </c>
+      <c r="B457" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D457" s="3">
+        <v>2.0185168E7</v>
+      </c>
+      <c r="E457" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F457" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G457" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H457" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I457" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J457" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K457" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L457" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N457" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2">
+        <v>45207.949329641204</v>
+      </c>
+      <c r="B458" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D458" s="3">
+        <v>2.0207091E7</v>
+      </c>
+      <c r="E458" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F458" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G458" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H458" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I458" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J458" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K458" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L458" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N458" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2">
+        <v>45207.9499802662</v>
+      </c>
+      <c r="B459" s="3" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D459" s="3">
+        <v>2.0223963E7</v>
+      </c>
+      <c r="E459" s="3" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F459" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G459" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H459" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I459" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J459" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K459" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L459" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N459" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2">
+        <v>45207.95346534722</v>
+      </c>
+      <c r="B460" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D460" s="3">
+        <v>2.022517E7</v>
+      </c>
+      <c r="E460" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F460" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G460" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H460" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I460" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J460" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K460" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L460" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N460" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2">
+        <v>45207.954440104164</v>
+      </c>
+      <c r="B461" s="3" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D461" s="3">
+        <v>2.0217132E7</v>
+      </c>
+      <c r="E461" s="3" t="s">
+        <v>1037</v>
+      </c>
+      <c r="F461" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G461" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H461" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I461" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J461" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K461" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L461" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M461" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2">
+        <v>45207.95466320602</v>
+      </c>
+      <c r="B462" s="3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>1039</v>
+      </c>
+      <c r="D462" s="3">
+        <v>2.0232327E7</v>
+      </c>
+      <c r="E462" s="3" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F462" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G462" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H462" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I462" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J462" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K462" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L462" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M462" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2">
+        <v>45207.95478157407</v>
+      </c>
+      <c r="B463" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D463" s="3">
+        <v>2.0231002E7</v>
+      </c>
+      <c r="E463" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F463" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G463" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H463" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I463" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J463" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K463" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L463" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N463" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2">
+        <v>45207.958654270835</v>
+      </c>
+      <c r="B464" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D464" s="3">
+        <v>2.0233326E7</v>
+      </c>
+      <c r="E464" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F464" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G464" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H464" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I464" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J464" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K464" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L464" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N464" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2">
+        <v>45207.959498055556</v>
+      </c>
+      <c r="B465" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D465" s="3">
+        <v>2.0218006E7</v>
+      </c>
+      <c r="E465" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="F465" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G465" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H465" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I465" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J465" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K465" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L465" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M465" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2">
+        <v>45207.96039659722</v>
+      </c>
+      <c r="B466" s="3" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D466" s="3">
+        <v>2.0233222E7</v>
+      </c>
+      <c r="E466" s="3" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F466" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G466" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H466" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I466" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J466" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K466" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L466" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N466" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2">
+        <v>45207.96081675926</v>
+      </c>
+      <c r="B467" s="3" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D467" s="3">
+        <v>2.0233426E7</v>
+      </c>
+      <c r="E467" s="3" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F467" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G467" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H467" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I467" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J467" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K467" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L467" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M467" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="2">
+        <v>45207.96989260417</v>
+      </c>
+      <c r="B468" s="3" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D468" s="3">
+        <v>2.0232356E7</v>
+      </c>
+      <c r="E468" s="3" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F468" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G468" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H468" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I468" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J468" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K468" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L468" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M468" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="2">
+        <v>45207.976302800926</v>
+      </c>
+      <c r="B469" s="3" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="D469" s="3">
+        <v>2.0231016E7</v>
+      </c>
+      <c r="E469" s="3" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F469" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G469" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H469" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I469" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J469" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K469" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L469" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M469" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="2">
+        <v>45207.97811972222</v>
+      </c>
+      <c r="B470" s="3" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D470" s="3">
+        <v>2.0225111E7</v>
+      </c>
+      <c r="E470" s="3" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F470" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G470" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H470" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I470" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J470" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K470" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L470" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N470" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="2">
+        <v>45207.99175565972</v>
+      </c>
+      <c r="B471" s="3" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D471" s="3">
+        <v>2.0226175E7</v>
+      </c>
+      <c r="E471" s="3" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F471" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G471" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H471" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I471" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J471" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K471" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L471" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N471" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="2">
+        <v>45207.9954102662</v>
+      </c>
+      <c r="B472" s="3" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D472" s="3">
+        <v>2.0233225E7</v>
+      </c>
+      <c r="E472" s="3" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F472" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G472" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H472" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I472" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J472" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K472" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L472" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M472" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="2">
+        <v>45207.9971844213</v>
+      </c>
+      <c r="B473" s="3" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>1065</v>
+      </c>
+      <c r="D473" s="3">
+        <v>2.0181205E7</v>
+      </c>
+      <c r="E473" s="3" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F473" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G473" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H473" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I473" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J473" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K473" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L473" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M473" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="2">
+        <v>45208.00050707176</v>
+      </c>
+      <c r="B474" s="3" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D474" s="3">
+        <v>2.0191508E7</v>
+      </c>
+      <c r="E474" s="3" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F474" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G474" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H474" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I474" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J474" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K474" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L474" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M474" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="2">
+        <v>45208.01286217592</v>
+      </c>
+      <c r="B475" s="3" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>1070</v>
+      </c>
+      <c r="D475" s="3">
+        <v>2.0221011E7</v>
+      </c>
+      <c r="E475" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="F475" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G475" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H475" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I475" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J475" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K475" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L475" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N475" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="2">
+        <v>45208.013115497684</v>
+      </c>
+      <c r="B476" s="3" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D476" s="3">
+        <v>2.0236745E7</v>
+      </c>
+      <c r="E476" s="3" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F476" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G476" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H476" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I476" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J476" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K476" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L476" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N476" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="2">
+        <v>45208.013857812504</v>
+      </c>
+      <c r="B477" s="3" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D477" s="3">
+        <v>2.0236759E7</v>
+      </c>
+      <c r="E477" s="3" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F477" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G477" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H477" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I477" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J477" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K477" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L477" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M477" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="2">
+        <v>45208.01401488426</v>
+      </c>
+      <c r="B478" s="3" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D478" s="3">
+        <v>2.0225186E7</v>
+      </c>
+      <c r="E478" s="3" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F478" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G478" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H478" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I478" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J478" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K478" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L478" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N478" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="2">
+        <v>45208.0145555787</v>
+      </c>
+      <c r="B479" s="3" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>1078</v>
+      </c>
+      <c r="D479" s="3">
+        <v>2.0193344E7</v>
+      </c>
+      <c r="E479" s="3" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F479" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G479" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H479" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I479" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J479" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K479" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L479" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N479" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4793" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5063" uniqueCount="1136">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3251,6 +3251,174 @@
   </si>
   <si>
     <t>정현석</t>
+  </si>
+  <si>
+    <t>byeol1710@naver.com</t>
+  </si>
+  <si>
+    <t>김별</t>
+  </si>
+  <si>
+    <t>0227jsh@naver.com</t>
+  </si>
+  <si>
+    <t>장서희</t>
+  </si>
+  <si>
+    <t>yejin4259@naver.com</t>
+  </si>
+  <si>
+    <t>changyu0202@naver.com</t>
+  </si>
+  <si>
+    <t>이찬규</t>
+  </si>
+  <si>
+    <t>1004eunsei@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌 비즈니스학과</t>
+  </si>
+  <si>
+    <t>조은세</t>
+  </si>
+  <si>
+    <t>hoverdahee@gmail.com</t>
+  </si>
+  <si>
+    <t>김다희</t>
+  </si>
+  <si>
+    <t>zesprie@naver.com</t>
+  </si>
+  <si>
+    <t>강미소</t>
+  </si>
+  <si>
+    <t>kimeunjin829@naver.com</t>
+  </si>
+  <si>
+    <t>김은진</t>
+  </si>
+  <si>
+    <t>qkqch128@naver.com</t>
+  </si>
+  <si>
+    <t>반초원</t>
+  </si>
+  <si>
+    <t>lhe0209@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>khw6583@gmail.com</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>rlaeogus0704@naver.com</t>
+  </si>
+  <si>
+    <t>김대현</t>
+  </si>
+  <si>
+    <t>yenaridia@naver.com</t>
+  </si>
+  <si>
+    <t>최예나</t>
+  </si>
+  <si>
+    <t>wjdalsdl9391@naver.com</t>
+  </si>
+  <si>
+    <t>엄정민</t>
+  </si>
+  <si>
+    <t>ai20233638@gmail.com</t>
+  </si>
+  <si>
+    <t>장예은</t>
+  </si>
+  <si>
+    <t>junhvn1@gmail.com</t>
+  </si>
+  <si>
+    <t>박준한</t>
+  </si>
+  <si>
+    <t>kilucas45@gmail.com</t>
+  </si>
+  <si>
+    <t>김동건</t>
+  </si>
+  <si>
+    <t>yeshin05@naver.com</t>
+  </si>
+  <si>
+    <t>최예원</t>
+  </si>
+  <si>
+    <t>ohr3876@gmail.com</t>
+  </si>
+  <si>
+    <t>정철</t>
+  </si>
+  <si>
+    <t>20226760@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>Ai의료융합</t>
+  </si>
+  <si>
+    <t>이민홍</t>
+  </si>
+  <si>
+    <t>im3790@naver.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>임진형</t>
+  </si>
+  <si>
+    <t>sdg93712426@gmail.com</t>
+  </si>
+  <si>
+    <t>신동건</t>
+  </si>
+  <si>
+    <t>zra9751@naver.com</t>
+  </si>
+  <si>
+    <t>박찬모</t>
+  </si>
+  <si>
+    <t>sujongchoe8@gmail.com</t>
+  </si>
+  <si>
+    <t>최수종</t>
+  </si>
+  <si>
+    <t>good011218@naver.com</t>
+  </si>
+  <si>
+    <t>최승혁</t>
+  </si>
+  <si>
+    <t>canty0917@gmail.com</t>
+  </si>
+  <si>
+    <t>조민주</t>
+  </si>
+  <si>
+    <t>eunhorui1029@gmail.com</t>
+  </si>
+  <si>
+    <t>조은호</t>
   </si>
 </sst>
 </file>
@@ -23168,6 +23336,1113 @@
         <v>22</v>
       </c>
     </row>
+    <row r="480">
+      <c r="A480" s="2">
+        <v>45208.05541858796</v>
+      </c>
+      <c r="B480" s="3" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D480" s="3">
+        <v>2.0226218E7</v>
+      </c>
+      <c r="E480" s="3" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F480" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G480" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H480" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I480" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J480" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K480" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L480" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N480" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="2">
+        <v>45208.09421430556</v>
+      </c>
+      <c r="B481" s="3" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D481" s="3">
+        <v>2.0233843E7</v>
+      </c>
+      <c r="E481" s="3" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F481" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G481" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H481" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I481" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J481" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K481" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L481" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M481" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="2">
+        <v>45208.18374840278</v>
+      </c>
+      <c r="B482" s="3" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D482" s="3">
+        <v>2.0233951E7</v>
+      </c>
+      <c r="E482" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F482" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G482" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H482" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I482" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J482" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K482" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L482" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M482" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="2">
+        <v>45208.40923336806</v>
+      </c>
+      <c r="B483" s="3" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D483" s="3">
+        <v>2.023263E7</v>
+      </c>
+      <c r="E483" s="3" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F483" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G483" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H483" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I483" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J483" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L483" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M483" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="2">
+        <v>45208.41323681713</v>
+      </c>
+      <c r="B484" s="3" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>1088</v>
+      </c>
+      <c r="D484" s="3">
+        <v>2.0226423E7</v>
+      </c>
+      <c r="E484" s="3" t="s">
+        <v>1089</v>
+      </c>
+      <c r="F484" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G484" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H484" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I484" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J484" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K484" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L484" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N484" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="2">
+        <v>45208.51672717593</v>
+      </c>
+      <c r="B485" s="3" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D485" s="3">
+        <v>2.0233912E7</v>
+      </c>
+      <c r="E485" s="3" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F485" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G485" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H485" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I485" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J485" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K485" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L485" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N485" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="2">
+        <v>45208.52932298611</v>
+      </c>
+      <c r="B486" s="3" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D486" s="3">
+        <v>2.0182101E7</v>
+      </c>
+      <c r="E486" s="3" t="s">
+        <v>1093</v>
+      </c>
+      <c r="F486" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G486" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H486" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I486" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J486" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K486" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L486" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M486" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="2">
+        <v>45208.582346400464</v>
+      </c>
+      <c r="B487" s="3" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D487" s="3">
+        <v>2.0202321E7</v>
+      </c>
+      <c r="E487" s="3" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F487" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G487" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H487" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I487" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J487" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K487" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L487" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N487" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="2">
+        <v>45208.586048576384</v>
+      </c>
+      <c r="B488" s="3" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D488" s="3">
+        <v>2.0203411E7</v>
+      </c>
+      <c r="E488" s="3" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F488" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G488" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H488" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I488" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J488" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K488" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L488" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N488" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="2">
+        <v>45208.605494999996</v>
+      </c>
+      <c r="B489" s="3" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D489" s="3">
+        <v>2.0213024E7</v>
+      </c>
+      <c r="E489" s="3" t="s">
+        <v>1099</v>
+      </c>
+      <c r="F489" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G489" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H489" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I489" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J489" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K489" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="L489" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M489" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="2">
+        <v>45208.62470086805</v>
+      </c>
+      <c r="B490" s="3" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D490" s="3">
+        <v>2.0235154E7</v>
+      </c>
+      <c r="E490" s="3" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F490" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G490" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H490" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I490" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J490" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K490" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L490" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M490" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="2">
+        <v>45208.6455694676</v>
+      </c>
+      <c r="B491" s="3" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="D491" s="3">
+        <v>2.0193604E7</v>
+      </c>
+      <c r="E491" s="3" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F491" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G491" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H491" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I491" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J491" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K491" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L491" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M491" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="2">
+        <v>45208.65064758102</v>
+      </c>
+      <c r="B492" s="3" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D492" s="3">
+        <v>2.0201634E7</v>
+      </c>
+      <c r="E492" s="3" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F492" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G492" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H492" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I492" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J492" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K492" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L492" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M492" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="2">
+        <v>45208.70222295139</v>
+      </c>
+      <c r="B493" s="3" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="D493" s="3">
+        <v>2.0231617E7</v>
+      </c>
+      <c r="E493" s="3" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F493" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G493" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H493" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I493" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J493" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K493" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L493" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N493" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="2">
+        <v>45208.7717880787</v>
+      </c>
+      <c r="B494" s="3" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D494" s="3">
+        <v>2.0233638E7</v>
+      </c>
+      <c r="E494" s="3" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F494" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G494" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H494" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I494" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J494" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K494" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L494" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N494" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="2">
+        <v>45208.782035208336</v>
+      </c>
+      <c r="B495" s="3" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D495" s="3">
+        <v>2.0192614E7</v>
+      </c>
+      <c r="E495" s="3" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F495" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G495" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H495" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I495" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J495" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K495" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L495" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N495" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="2">
+        <v>45208.78385018518</v>
+      </c>
+      <c r="B496" s="3" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D496" s="3">
+        <v>2.0236604E7</v>
+      </c>
+      <c r="E496" s="3" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F496" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G496" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H496" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I496" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J496" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K496" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L496" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M496" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="2">
+        <v>45208.78815482639</v>
+      </c>
+      <c r="B497" s="3" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D497" s="3">
+        <v>2.0236639E7</v>
+      </c>
+      <c r="E497" s="3" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F497" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G497" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H497" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I497" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J497" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K497" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L497" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M497" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="2">
+        <v>45208.797365266204</v>
+      </c>
+      <c r="B498" s="3" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D498" s="3">
+        <v>2.0233035E7</v>
+      </c>
+      <c r="E498" s="3" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F498" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G498" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H498" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I498" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J498" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K498" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L498" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M498" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2">
+        <v>45208.831702766205</v>
+      </c>
+      <c r="B499" s="3" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>1119</v>
+      </c>
+      <c r="D499" s="3">
+        <v>2.022676E7</v>
+      </c>
+      <c r="E499" s="3" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F499" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G499" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H499" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I499" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J499" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K499" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L499" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M499" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="2">
+        <v>45208.88830697916</v>
+      </c>
+      <c r="B500" s="3" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D500" s="3">
+        <v>2.0203346E7</v>
+      </c>
+      <c r="E500" s="3" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F500" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G500" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H500" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I500" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J500" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K500" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L500" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M500" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="2">
+        <v>45208.891806562504</v>
+      </c>
+      <c r="B501" s="3" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D501" s="3">
+        <v>2.0233322E7</v>
+      </c>
+      <c r="E501" s="3" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F501" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G501" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H501" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I501" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J501" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K501" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L501" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M501" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="2">
+        <v>45208.90628555555</v>
+      </c>
+      <c r="B502" s="3" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D502" s="3">
+        <v>2.0202965E7</v>
+      </c>
+      <c r="E502" s="3" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F502" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G502" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H502" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I502" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J502" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K502" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L502" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M502" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="2">
+        <v>45208.90895940972</v>
+      </c>
+      <c r="B503" s="3" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D503" s="3">
+        <v>2.0222637E7</v>
+      </c>
+      <c r="E503" s="3" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F503" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G503" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H503" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I503" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J503" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K503" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L503" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M503" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="2">
+        <v>45208.90961121528</v>
+      </c>
+      <c r="B504" s="3" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D504" s="3">
+        <v>2.0205261E7</v>
+      </c>
+      <c r="E504" s="3" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F504" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G504" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H504" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="I504" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J504" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K504" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L504" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N504" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="2">
+        <v>45208.910170682866</v>
+      </c>
+      <c r="B505" s="3" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D505" s="3">
+        <v>2.0232363E7</v>
+      </c>
+      <c r="E505" s="3" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F505" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G505" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H505" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I505" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J505" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K505" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L505" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M505" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="2">
+        <v>45208.92090899305</v>
+      </c>
+      <c r="B506" s="3" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D506" s="3">
+        <v>2.0223047E7</v>
+      </c>
+      <c r="E506" s="3" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F506" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G506" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H506" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I506" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J506" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K506" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L506" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N506" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5263" uniqueCount="1175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5393" uniqueCount="1201">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3536,6 +3536,84 @@
   </si>
   <si>
     <t>박진옥</t>
+  </si>
+  <si>
+    <t>qndks2129@naver.com</t>
+  </si>
+  <si>
+    <t>박지혜</t>
+  </si>
+  <si>
+    <t>chi9605@naver.com</t>
+  </si>
+  <si>
+    <t>이채연</t>
+  </si>
+  <si>
+    <t>parksiwoo1214@naver.com</t>
+  </si>
+  <si>
+    <t>박시우</t>
+  </si>
+  <si>
+    <t>030223cho@naver.com</t>
+  </si>
+  <si>
+    <t>조성진</t>
+  </si>
+  <si>
+    <t>gimchaemin97@gmail.com</t>
+  </si>
+  <si>
+    <t>김채민</t>
+  </si>
+  <si>
+    <t>jinwoo3817@naver.com</t>
+  </si>
+  <si>
+    <t>원진우</t>
+  </si>
+  <si>
+    <t>umseoy2@gmail.com</t>
+  </si>
+  <si>
+    <t>엄서영</t>
+  </si>
+  <si>
+    <t>b0612river@gmail.com</t>
+  </si>
+  <si>
+    <t>최정원</t>
+  </si>
+  <si>
+    <t>cmsgood99@gmail.com</t>
+  </si>
+  <si>
+    <t>곽동희</t>
+  </si>
+  <si>
+    <t>sherisim@naver.com</t>
+  </si>
+  <si>
+    <t>심시원</t>
+  </si>
+  <si>
+    <t>dms95123@naver.com</t>
+  </si>
+  <si>
+    <t>김은별</t>
+  </si>
+  <si>
+    <t>hmw1019@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>한민우</t>
+  </si>
+  <si>
+    <t>rjsdnjs0711@gmail.com</t>
+  </si>
+  <si>
+    <t>서건원</t>
   </si>
 </sst>
 </file>
@@ -25380,6 +25458,539 @@
         <v>27</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2">
+        <v>45209.993199097225</v>
+      </c>
+      <c r="B527" s="3" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C527" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D527" s="3">
+        <v>2.0232617E7</v>
+      </c>
+      <c r="E527" s="3" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F527" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G527" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H527" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I527" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J527" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K527" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L527" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M527" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2">
+        <v>45209.99593547454</v>
+      </c>
+      <c r="B528" s="3" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D528" s="3">
+        <v>2.0202633E7</v>
+      </c>
+      <c r="E528" s="3" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F528" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G528" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H528" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I528" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J528" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K528" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L528" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N528" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="2">
+        <v>45210.00361693287</v>
+      </c>
+      <c r="B529" s="3" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C529" s="3" t="s">
+        <v>803</v>
+      </c>
+      <c r="D529" s="3">
+        <v>2.0193219E7</v>
+      </c>
+      <c r="E529" s="3" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F529" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G529" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H529" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I529" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J529" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K529" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L529" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N529" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="2">
+        <v>45210.00520319444</v>
+      </c>
+      <c r="B530" s="3" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C530" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D530" s="3">
+        <v>2.0231235E7</v>
+      </c>
+      <c r="E530" s="3" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F530" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G530" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H530" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I530" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J530" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K530" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L530" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M530" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2">
+        <v>45210.49058194444</v>
+      </c>
+      <c r="B531" s="3" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C531" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D531" s="3">
+        <v>2.0236231E7</v>
+      </c>
+      <c r="E531" s="3" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F531" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G531" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H531" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I531" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J531" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K531" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L531" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M531" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2">
+        <v>45210.62008716435</v>
+      </c>
+      <c r="B532" s="3" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C532" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D532" s="3">
+        <v>2.0222552E7</v>
+      </c>
+      <c r="E532" s="3" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F532" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G532" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H532" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I532" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J532" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K532" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L532" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N532" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="2">
+        <v>45210.652477627315</v>
+      </c>
+      <c r="B533" s="3" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C533" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D533" s="3">
+        <v>2.0233939E7</v>
+      </c>
+      <c r="E533" s="3" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F533" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G533" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H533" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I533" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J533" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K533" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L533" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N533" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="2">
+        <v>45210.66815135417</v>
+      </c>
+      <c r="B534" s="3" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D534" s="3">
+        <v>2.0232638E7</v>
+      </c>
+      <c r="E534" s="3" t="s">
+        <v>1190</v>
+      </c>
+      <c r="F534" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G534" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H534" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I534" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J534" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K534" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L534" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N534" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="2">
+        <v>45210.6846272338</v>
+      </c>
+      <c r="B535" s="3" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D535" s="3">
+        <v>2.0233905E7</v>
+      </c>
+      <c r="E535" s="3" t="s">
+        <v>1192</v>
+      </c>
+      <c r="F535" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G535" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H535" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I535" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J535" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K535" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L535" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M535" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="2">
+        <v>45210.71038175926</v>
+      </c>
+      <c r="B536" s="3" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C536" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D536" s="3">
+        <v>2.0236741E7</v>
+      </c>
+      <c r="E536" s="3" t="s">
+        <v>1194</v>
+      </c>
+      <c r="F536" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G536" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H536" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I536" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J536" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K536" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L536" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N536" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="2">
+        <v>45210.780879247686</v>
+      </c>
+      <c r="B537" s="3" t="s">
+        <v>1195</v>
+      </c>
+      <c r="C537" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D537" s="3">
+        <v>2.0232317E7</v>
+      </c>
+      <c r="E537" s="3" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F537" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G537" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H537" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I537" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J537" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K537" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L537" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N537" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="2">
+        <v>45210.83208364583</v>
+      </c>
+      <c r="B538" s="3" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D538" s="3">
+        <v>2.0236785E7</v>
+      </c>
+      <c r="E538" s="3" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F538" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G538" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H538" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I538" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J538" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K538" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L538" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N538" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2">
+        <v>45210.90220923611</v>
+      </c>
+      <c r="B539" s="3" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C539" s="3" t="s">
+        <v>985</v>
+      </c>
+      <c r="D539" s="3">
+        <v>2.0223324E7</v>
+      </c>
+      <c r="E539" s="3" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F539" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G539" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H539" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I539" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J539" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K539" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L539" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M539" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5393" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5503" uniqueCount="1224">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3614,6 +3614,75 @@
   </si>
   <si>
     <t>서건원</t>
+  </si>
+  <si>
+    <t>02c06c@naver.com</t>
+  </si>
+  <si>
+    <t>김채현</t>
+  </si>
+  <si>
+    <t>limhyoeun8698@naver.com</t>
+  </si>
+  <si>
+    <t>임효은</t>
+  </si>
+  <si>
+    <t>minky1501@gmail.com</t>
+  </si>
+  <si>
+    <t>최민경</t>
+  </si>
+  <si>
+    <t>lsyun5050@naver.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>rbdms0619@gmail.com</t>
+  </si>
+  <si>
+    <t>김규은</t>
+  </si>
+  <si>
+    <t>mkdaniel2020@gmail.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>권다넬</t>
+  </si>
+  <si>
+    <t>spb012@naver.com</t>
+  </si>
+  <si>
+    <t>모수빈</t>
+  </si>
+  <si>
+    <t>pop8976@naver.com</t>
+  </si>
+  <si>
+    <t>최시현</t>
+  </si>
+  <si>
+    <t>donguk3121@gmail.com</t>
+  </si>
+  <si>
+    <t>신동욱</t>
+  </si>
+  <si>
+    <t>jshong01@gmail.com</t>
+  </si>
+  <si>
+    <t>홍준성</t>
+  </si>
+  <si>
+    <t>20217071@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>오선민</t>
   </si>
 </sst>
 </file>
@@ -25991,6 +26060,457 @@
         <v>90</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2">
+        <v>45210.92836548611</v>
+      </c>
+      <c r="B540" s="3" t="s">
+        <v>1201</v>
+      </c>
+      <c r="C540" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D540" s="3">
+        <v>2.0217055E7</v>
+      </c>
+      <c r="E540" s="3" t="s">
+        <v>1202</v>
+      </c>
+      <c r="F540" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G540" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H540" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I540" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J540" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K540" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L540" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N540" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="2">
+        <v>45210.93442883102</v>
+      </c>
+      <c r="B541" s="3" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C541" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D541" s="3">
+        <v>2.0232572E7</v>
+      </c>
+      <c r="E541" s="3" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F541" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G541" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H541" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I541" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J541" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K541" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L541" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M541" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="2">
+        <v>45210.94156709491</v>
+      </c>
+      <c r="B542" s="3" t="s">
+        <v>1205</v>
+      </c>
+      <c r="C542" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D542" s="3">
+        <v>2.0233644E7</v>
+      </c>
+      <c r="E542" s="3" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F542" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="G542" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H542" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I542" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J542" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K542" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L542" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N542" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="2">
+        <v>45210.96729851852</v>
+      </c>
+      <c r="B543" s="3" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C543" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D543" s="3">
+        <v>2.0232561E7</v>
+      </c>
+      <c r="E543" s="3" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F543" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G543" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H543" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I543" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J543" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K543" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L543" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N543" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="2">
+        <v>45210.9693754051</v>
+      </c>
+      <c r="B544" s="3" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C544" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D544" s="3">
+        <v>2.0213803E7</v>
+      </c>
+      <c r="E544" s="3" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F544" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G544" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H544" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I544" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J544" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K544" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L544" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M544" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="2">
+        <v>45211.00474398148</v>
+      </c>
+      <c r="B545" s="3" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D545" s="3">
+        <v>2.0226403E7</v>
+      </c>
+      <c r="E545" s="3" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F545" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G545" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H545" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I545" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J545" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K545" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L545" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N545" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2">
+        <v>45211.042544236116</v>
+      </c>
+      <c r="B546" s="3" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D546" s="3">
+        <v>2.023253E7</v>
+      </c>
+      <c r="E546" s="3" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F546" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G546" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H546" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I546" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J546" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K546" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L546" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N546" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2">
+        <v>45211.04492346065</v>
+      </c>
+      <c r="B547" s="3" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C547" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D547" s="3">
+        <v>2.0232756E7</v>
+      </c>
+      <c r="E547" s="3" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F547" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G547" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H547" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I547" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J547" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K547" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L547" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M547" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="2">
+        <v>45211.154219675926</v>
+      </c>
+      <c r="B548" s="3" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C548" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D548" s="3">
+        <v>2.0226129E7</v>
+      </c>
+      <c r="E548" s="3" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F548" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G548" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H548" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I548" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J548" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K548" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L548" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M548" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="2">
+        <v>45211.3974615162</v>
+      </c>
+      <c r="B549" s="3" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D549" s="3">
+        <v>2.0226178E7</v>
+      </c>
+      <c r="E549" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F549" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G549" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H549" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I549" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J549" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K549" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L549" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N549" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="2">
+        <v>45211.477750983795</v>
+      </c>
+      <c r="B550" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C550" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D550" s="3">
+        <v>2.0217071E7</v>
+      </c>
+      <c r="E550" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F550" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G550" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H550" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I550" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J550" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K550" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L550" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N550" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5503" uniqueCount="1224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="1259">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3683,6 +3683,111 @@
   </si>
   <si>
     <t>오선민</t>
+  </si>
+  <si>
+    <t>jihongg0531@gmail.com</t>
+  </si>
+  <si>
+    <t>김지홍</t>
+  </si>
+  <si>
+    <t>qkrwjdwns0526@gmail.com</t>
+  </si>
+  <si>
+    <t>박정준</t>
+  </si>
+  <si>
+    <t>lgh4787@gmail.com</t>
+  </si>
+  <si>
+    <t>이가현</t>
+  </si>
+  <si>
+    <t>urica45642@gmail.com</t>
+  </si>
+  <si>
+    <t>유시현</t>
+  </si>
+  <si>
+    <t>dndbql123@naver.com</t>
+  </si>
+  <si>
+    <t>전유비</t>
+  </si>
+  <si>
+    <t>pmr0093@naver.com</t>
+  </si>
+  <si>
+    <t>박미래</t>
+  </si>
+  <si>
+    <t>ryan.kang04@gmail.com</t>
+  </si>
+  <si>
+    <t>강우석</t>
+  </si>
+  <si>
+    <t>hyunseo4370@gmail.com</t>
+  </si>
+  <si>
+    <t>장현서</t>
+  </si>
+  <si>
+    <t>tpdud0049@naver.com</t>
+  </si>
+  <si>
+    <t>김세영</t>
+  </si>
+  <si>
+    <t>kgh15820@naver.com</t>
+  </si>
+  <si>
+    <t>김가현</t>
+  </si>
+  <si>
+    <t>xpjungwoo0518@kakao.com</t>
+  </si>
+  <si>
+    <t>이정우</t>
+  </si>
+  <si>
+    <t>hhuning8814@gmail.com</t>
+  </si>
+  <si>
+    <t>임지우</t>
+  </si>
+  <si>
+    <t>6405street@naver.com</t>
+  </si>
+  <si>
+    <t>zero040409@gmail.com</t>
+  </si>
+  <si>
+    <t>차하율</t>
+  </si>
+  <si>
+    <t>happle0313@naver.com</t>
+  </si>
+  <si>
+    <t>김희경</t>
+  </si>
+  <si>
+    <t>xyxuxn9256@gmail.com</t>
+  </si>
+  <si>
+    <t>인초윤</t>
+  </si>
+  <si>
+    <t>jisung5549@naver.com</t>
+  </si>
+  <si>
+    <t>송지성</t>
+  </si>
+  <si>
+    <t>suani3176@gmail.com</t>
+  </si>
+  <si>
+    <t>박수안</t>
   </si>
 </sst>
 </file>
@@ -26511,6 +26616,744 @@
         <v>27</v>
       </c>
     </row>
+    <row r="551">
+      <c r="A551" s="2">
+        <v>45211.55215861111</v>
+      </c>
+      <c r="B551" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C551" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D551" s="3">
+        <v>2.023361E7</v>
+      </c>
+      <c r="E551" s="3" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F551" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G551" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H551" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I551" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J551" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K551" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L551" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N551" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2">
+        <v>45211.612565601856</v>
+      </c>
+      <c r="B552" s="3" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C552" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D552" s="3">
+        <v>2.0236129E7</v>
+      </c>
+      <c r="E552" s="3" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F552" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G552" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H552" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I552" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J552" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K552" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L552" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N552" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2">
+        <v>45211.71396949074</v>
+      </c>
+      <c r="B553" s="3" t="s">
+        <v>1228</v>
+      </c>
+      <c r="C553" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D553" s="3">
+        <v>2.0232999E7</v>
+      </c>
+      <c r="E553" s="3" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F553" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G553" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H553" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I553" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J553" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K553" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L553" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M553" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2">
+        <v>45211.797628368055</v>
+      </c>
+      <c r="B554" s="3" t="s">
+        <v>1230</v>
+      </c>
+      <c r="C554" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D554" s="3">
+        <v>2.0235215E7</v>
+      </c>
+      <c r="E554" s="3" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F554" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G554" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H554" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I554" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J554" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K554" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L554" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M554" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="2">
+        <v>45211.80289900463</v>
+      </c>
+      <c r="B555" s="3" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C555" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D555" s="3">
+        <v>2.0232574E7</v>
+      </c>
+      <c r="E555" s="3" t="s">
+        <v>1233</v>
+      </c>
+      <c r="F555" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G555" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H555" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I555" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J555" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K555" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L555" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N555" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="2">
+        <v>45211.814087453706</v>
+      </c>
+      <c r="B556" s="3" t="s">
+        <v>1234</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D556" s="3">
+        <v>2.0192319E7</v>
+      </c>
+      <c r="E556" s="3" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F556" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G556" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H556" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I556" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J556" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K556" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L556" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M556" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="2">
+        <v>45211.81814185185</v>
+      </c>
+      <c r="B557" s="3" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D557" s="3">
+        <v>2.0235105E7</v>
+      </c>
+      <c r="E557" s="3" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F557" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G557" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H557" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I557" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J557" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K557" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L557" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M557" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="2">
+        <v>45211.845198344905</v>
+      </c>
+      <c r="B558" s="3" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C558" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D558" s="3">
+        <v>2.0236636E7</v>
+      </c>
+      <c r="E558" s="3" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F558" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G558" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H558" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I558" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J558" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K558" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L558" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M558" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="2">
+        <v>45211.849947118055</v>
+      </c>
+      <c r="B559" s="3" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C559" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D559" s="3">
+        <v>2.0233914E7</v>
+      </c>
+      <c r="E559" s="3" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F559" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G559" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H559" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I559" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J559" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K559" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L559" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N559" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2">
+        <v>45211.89511560185</v>
+      </c>
+      <c r="B560" s="3" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D560" s="3">
+        <v>2.0201503E7</v>
+      </c>
+      <c r="E560" s="3" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F560" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G560" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H560" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I560" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J560" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K560" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L560" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M560" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2">
+        <v>45211.929964027775</v>
+      </c>
+      <c r="B561" s="3" t="s">
+        <v>1244</v>
+      </c>
+      <c r="C561" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D561" s="3">
+        <v>2.0231626E7</v>
+      </c>
+      <c r="E561" s="3" t="s">
+        <v>1245</v>
+      </c>
+      <c r="F561" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G561" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H561" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I561" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J561" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K561" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L561" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N561" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2">
+        <v>45212.000002395835</v>
+      </c>
+      <c r="B562" s="3" t="s">
+        <v>1246</v>
+      </c>
+      <c r="C562" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D562" s="3">
+        <v>2.0236635E7</v>
+      </c>
+      <c r="E562" s="3" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F562" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G562" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H562" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I562" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J562" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K562" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L562" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N562" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2">
+        <v>45212.01288877315</v>
+      </c>
+      <c r="B563" s="3" t="s">
+        <v>1248</v>
+      </c>
+      <c r="C563" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D563" s="3">
+        <v>2.0212932E7</v>
+      </c>
+      <c r="E563" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F563" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G563" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H563" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I563" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J563" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K563" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L563" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M563" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2">
+        <v>45212.0504216088</v>
+      </c>
+      <c r="B564" s="3" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C564" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D564" s="3">
+        <v>2.023305E7</v>
+      </c>
+      <c r="E564" s="3" t="s">
+        <v>1250</v>
+      </c>
+      <c r="F564" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G564" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H564" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I564" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J564" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K564" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L564" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N564" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2">
+        <v>45212.076912662036</v>
+      </c>
+      <c r="B565" s="3" t="s">
+        <v>1251</v>
+      </c>
+      <c r="C565" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="D565" s="3">
+        <v>2.0202945E7</v>
+      </c>
+      <c r="E565" s="3" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F565" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G565" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H565" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I565" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J565" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K565" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L565" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N565" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2">
+        <v>45212.08198177083</v>
+      </c>
+      <c r="B566" s="3" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C566" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D566" s="3">
+        <v>2.0212561E7</v>
+      </c>
+      <c r="E566" s="3" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F566" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G566" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H566" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I566" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J566" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K566" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L566" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N566" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="2">
+        <v>45212.33723959491</v>
+      </c>
+      <c r="B567" s="3" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D567" s="3">
+        <v>2.022297E7</v>
+      </c>
+      <c r="E567" s="3" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F567" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G567" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H567" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I567" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J567" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K567" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L567" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M567" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="2">
+        <v>45212.46988596064</v>
+      </c>
+      <c r="B568" s="3" t="s">
+        <v>1257</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D568" s="3">
+        <v>2.0232328E7</v>
+      </c>
+      <c r="E568" s="3" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F568" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G568" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H568" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I568" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J568" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K568" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L568" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N568" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5683" uniqueCount="1259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5873" uniqueCount="1294">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3788,6 +3788,111 @@
   </si>
   <si>
     <t>박수안</t>
+  </si>
+  <si>
+    <t>lucky021217@naver.com</t>
+  </si>
+  <si>
+    <t>kfic0221@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합부</t>
+  </si>
+  <si>
+    <t>duswn8911@naver.com</t>
+  </si>
+  <si>
+    <t>김연주</t>
+  </si>
+  <si>
+    <t>nhj010521@gmail.com</t>
+  </si>
+  <si>
+    <t>노형준</t>
+  </si>
+  <si>
+    <t>ans1929@gmail.com</t>
+  </si>
+  <si>
+    <t>조유진</t>
+  </si>
+  <si>
+    <t>goldmoon1217@gmail.com</t>
+  </si>
+  <si>
+    <t>소프트웨어학부 - 콘텐츠IT전공(학과)</t>
+  </si>
+  <si>
+    <t>정진영</t>
+  </si>
+  <si>
+    <t>chs1886@naver.com</t>
+  </si>
+  <si>
+    <t>최현승</t>
+  </si>
+  <si>
+    <t>kimhongik03@naver.com</t>
+  </si>
+  <si>
+    <t>김홍익</t>
+  </si>
+  <si>
+    <t>osy2858@gmail.com</t>
+  </si>
+  <si>
+    <t>오수연</t>
+  </si>
+  <si>
+    <t>hankyo777@naver.com</t>
+  </si>
+  <si>
+    <t>장성주</t>
+  </si>
+  <si>
+    <t>lcbat4@gmail.com</t>
+  </si>
+  <si>
+    <t>홍서경</t>
+  </si>
+  <si>
+    <t>leedongbin01@naver.con</t>
+  </si>
+  <si>
+    <t>이동빈</t>
+  </si>
+  <si>
+    <t>yukima0110@naver.com</t>
+  </si>
+  <si>
+    <t>유설진</t>
+  </si>
+  <si>
+    <t>iceflower082@gmail.com</t>
+  </si>
+  <si>
+    <t>한지우</t>
+  </si>
+  <si>
+    <t>yeji28667@naver.com</t>
+  </si>
+  <si>
+    <t>신예지</t>
+  </si>
+  <si>
+    <t>5542o@naver.com</t>
+  </si>
+  <si>
+    <t>권오준</t>
+  </si>
+  <si>
+    <t>kmj10456@gmail.com</t>
+  </si>
+  <si>
+    <t>dosilver1107@naver.com</t>
+  </si>
+  <si>
+    <t>임도은</t>
   </si>
 </sst>
 </file>
@@ -27354,6 +27459,785 @@
         <v>27</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2">
+        <v>45212.51635002314</v>
+      </c>
+      <c r="B569" s="3" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C569" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D569" s="3">
+        <v>2.0236288E7</v>
+      </c>
+      <c r="E569" s="3" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F569" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G569" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H569" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I569" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J569" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K569" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L569" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N569" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2">
+        <v>45212.5243021412</v>
+      </c>
+      <c r="B570" s="3" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C570" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D570" s="3">
+        <v>2.0212621E7</v>
+      </c>
+      <c r="E570" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="F570" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G570" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H570" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I570" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J570" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K570" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L570" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M570" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2">
+        <v>45212.59518704861</v>
+      </c>
+      <c r="B571" s="3" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>1261</v>
+      </c>
+      <c r="D571" s="3">
+        <v>2.0236733E7</v>
+      </c>
+      <c r="E571" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="F571" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G571" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H571" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I571" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J571" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K571" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L571" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M571" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="2">
+        <v>45212.63119983797</v>
+      </c>
+      <c r="B572" s="3" t="s">
+        <v>1262</v>
+      </c>
+      <c r="C572" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D572" s="3">
+        <v>2.0217081E7</v>
+      </c>
+      <c r="E572" s="3" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F572" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G572" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H572" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I572" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J572" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K572" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L572" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M572" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2">
+        <v>45212.635639942135</v>
+      </c>
+      <c r="B573" s="3" t="s">
+        <v>1264</v>
+      </c>
+      <c r="C573" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D573" s="3">
+        <v>2.0231214E7</v>
+      </c>
+      <c r="E573" s="3" t="s">
+        <v>1265</v>
+      </c>
+      <c r="F573" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G573" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H573" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I573" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J573" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K573" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L573" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M573" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2">
+        <v>45212.650370891206</v>
+      </c>
+      <c r="B574" s="3" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C574" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D574" s="3">
+        <v>2.020275E7</v>
+      </c>
+      <c r="E574" s="3" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F574" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G574" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H574" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I574" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J574" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K574" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L574" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M574" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="2">
+        <v>45212.65198380787</v>
+      </c>
+      <c r="B575" s="3" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C575" s="3" t="s">
+        <v>1269</v>
+      </c>
+      <c r="D575" s="3">
+        <v>2.0205252E7</v>
+      </c>
+      <c r="E575" s="3" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F575" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G575" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H575" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I575" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J575" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K575" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L575" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N575" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="2">
+        <v>45212.68362373843</v>
+      </c>
+      <c r="B576" s="3" t="s">
+        <v>1271</v>
+      </c>
+      <c r="C576" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D576" s="3">
+        <v>2.0193009E7</v>
+      </c>
+      <c r="E576" s="3" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F576" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G576" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H576" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I576" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J576" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K576" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L576" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M576" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="2">
+        <v>45212.71434864584</v>
+      </c>
+      <c r="B577" s="3" t="s">
+        <v>1273</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D577" s="3">
+        <v>2.0232114E7</v>
+      </c>
+      <c r="E577" s="3" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F577" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G577" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H577" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I577" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J577" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K577" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L577" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M577" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="2">
+        <v>45212.71532284722</v>
+      </c>
+      <c r="B578" s="3" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D578" s="3">
+        <v>2.0233826E7</v>
+      </c>
+      <c r="E578" s="3" t="s">
+        <v>1276</v>
+      </c>
+      <c r="F578" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G578" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H578" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I578" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J578" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K578" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L578" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M578" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="2">
+        <v>45212.731430520835</v>
+      </c>
+      <c r="B579" s="3" t="s">
+        <v>1277</v>
+      </c>
+      <c r="C579" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D579" s="3">
+        <v>2.0233244E7</v>
+      </c>
+      <c r="E579" s="3" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F579" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G579" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H579" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I579" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J579" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K579" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L579" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N579" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="2">
+        <v>45212.73849659722</v>
+      </c>
+      <c r="B580" s="3" t="s">
+        <v>1279</v>
+      </c>
+      <c r="C580" s="3" t="s">
+        <v>914</v>
+      </c>
+      <c r="D580" s="3">
+        <v>2.0236429E7</v>
+      </c>
+      <c r="E580" s="3" t="s">
+        <v>1280</v>
+      </c>
+      <c r="F580" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G580" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H580" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I580" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J580" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K580" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L580" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N580" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="2">
+        <v>45212.74434706019</v>
+      </c>
+      <c r="B581" s="3" t="s">
+        <v>1281</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D581" s="3">
+        <v>2.0231224E7</v>
+      </c>
+      <c r="E581" s="3" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F581" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G581" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H581" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I581" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J581" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K581" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L581" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N581" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="2">
+        <v>45212.74470729167</v>
+      </c>
+      <c r="B582" s="3" t="s">
+        <v>1283</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D582" s="3">
+        <v>2.019212E7</v>
+      </c>
+      <c r="E582" s="3" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F582" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G582" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H582" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I582" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J582" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K582" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L582" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N582" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="2">
+        <v>45212.745394791666</v>
+      </c>
+      <c r="B583" s="3" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C583" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D583" s="3">
+        <v>2.0226647E7</v>
+      </c>
+      <c r="E583" s="3" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F583" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G583" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H583" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I583" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J583" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K583" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L583" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M583" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="2">
+        <v>45212.76882185185</v>
+      </c>
+      <c r="B584" s="3" t="s">
+        <v>1287</v>
+      </c>
+      <c r="C584" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D584" s="3">
+        <v>2.0236623E7</v>
+      </c>
+      <c r="E584" s="3" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F584" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G584" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H584" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I584" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J584" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K584" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L584" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M584" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="2">
+        <v>45212.78054415509</v>
+      </c>
+      <c r="B585" s="3" t="s">
+        <v>1289</v>
+      </c>
+      <c r="C585" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D585" s="3">
+        <v>2.0226703E7</v>
+      </c>
+      <c r="E585" s="3" t="s">
+        <v>1290</v>
+      </c>
+      <c r="F585" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G585" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H585" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I585" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J585" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K585" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L585" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M585" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2">
+        <v>45212.7856177662</v>
+      </c>
+      <c r="B586" s="3" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C586" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D586" s="3">
+        <v>2.0232104E7</v>
+      </c>
+      <c r="E586" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="F586" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G586" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H586" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I586" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J586" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K586" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L586" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N586" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="2">
+        <v>45212.78740273148</v>
+      </c>
+      <c r="B587" s="3" t="s">
+        <v>1292</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D587" s="3">
+        <v>2.0212233E7</v>
+      </c>
+      <c r="E587" s="3" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F587" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G587" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I587" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J587" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K587" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L587" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M587" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5873" uniqueCount="1294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="1314">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3893,6 +3893,66 @@
   </si>
   <si>
     <t>임도은</t>
+  </si>
+  <si>
+    <t>khjkhj0314@naver.com</t>
+  </si>
+  <si>
+    <t>김현종</t>
+  </si>
+  <si>
+    <t>kjh2715c@gmail.com</t>
+  </si>
+  <si>
+    <t>김정후</t>
+  </si>
+  <si>
+    <t>junwon5424@naver.com</t>
+  </si>
+  <si>
+    <t>김준원</t>
+  </si>
+  <si>
+    <t>zzx3488@naver.com</t>
+  </si>
+  <si>
+    <t>이인혁</t>
+  </si>
+  <si>
+    <t>yukuyl0625@naver.com</t>
+  </si>
+  <si>
+    <t>차유결</t>
+  </si>
+  <si>
+    <t>smile001118@naver.com</t>
+  </si>
+  <si>
+    <t>홍성준</t>
+  </si>
+  <si>
+    <t>bldrlsld@gmail.com</t>
+  </si>
+  <si>
+    <t>김규빈</t>
+  </si>
+  <si>
+    <t>rio040701@naver.com</t>
+  </si>
+  <si>
+    <t>홍은혜</t>
+  </si>
+  <si>
+    <t>youngsoo051400@naver.com</t>
+  </si>
+  <si>
+    <t>최영수</t>
+  </si>
+  <si>
+    <t>kangsamy2@gmail.com</t>
+  </si>
+  <si>
+    <t>강새미</t>
   </si>
 </sst>
 </file>
@@ -28238,6 +28298,416 @@
         <v>32</v>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="2">
+        <v>45212.82184122685</v>
+      </c>
+      <c r="B588" s="3" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D588" s="3">
+        <v>2.0235155E7</v>
+      </c>
+      <c r="E588" s="3" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F588" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G588" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H588" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I588" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J588" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K588" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L588" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N588" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="2">
+        <v>45212.822763923614</v>
+      </c>
+      <c r="B589" s="3" t="s">
+        <v>1296</v>
+      </c>
+      <c r="C589" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D589" s="3">
+        <v>2.0182517E7</v>
+      </c>
+      <c r="E589" s="3" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F589" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G589" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H589" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I589" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J589" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K589" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L589" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M589" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="2">
+        <v>45212.8615450463</v>
+      </c>
+      <c r="B590" s="3" t="s">
+        <v>1298</v>
+      </c>
+      <c r="C590" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D590" s="3">
+        <v>2.0226613E7</v>
+      </c>
+      <c r="E590" s="3" t="s">
+        <v>1299</v>
+      </c>
+      <c r="F590" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G590" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H590" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I590" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J590" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K590" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L590" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N590" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2">
+        <v>45212.882963055556</v>
+      </c>
+      <c r="B591" s="3" t="s">
+        <v>1300</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D591" s="3">
+        <v>2.0192953E7</v>
+      </c>
+      <c r="E591" s="3" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F591" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G591" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H591" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I591" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J591" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K591" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L591" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N591" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2">
+        <v>45212.89556446759</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1302</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D592" s="3">
+        <v>2.023154E7</v>
+      </c>
+      <c r="E592" s="3" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F592" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G592" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="H592" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I592" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="J592" s="4">
+        <v>0.767</v>
+      </c>
+      <c r="K592" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L592" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N592" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="2">
+        <v>45212.89980291667</v>
+      </c>
+      <c r="B593" s="3" t="s">
+        <v>1304</v>
+      </c>
+      <c r="C593" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D593" s="3">
+        <v>2.022224E7</v>
+      </c>
+      <c r="E593" s="3" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F593" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G593" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H593" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I593" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J593" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K593" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L593" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M593" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="2">
+        <v>45212.91108024305</v>
+      </c>
+      <c r="B594" s="3" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C594" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D594" s="3">
+        <v>2.0221603E7</v>
+      </c>
+      <c r="E594" s="3" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F594" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G594" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H594" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I594" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J594" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K594" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L594" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N594" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="2">
+        <v>45212.95014265046</v>
+      </c>
+      <c r="B595" s="3" t="s">
+        <v>1308</v>
+      </c>
+      <c r="C595" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D595" s="3">
+        <v>2.023528E7</v>
+      </c>
+      <c r="E595" s="3" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F595" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G595" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H595" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I595" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J595" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K595" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L595" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M595" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2">
+        <v>45212.97823541667</v>
+      </c>
+      <c r="B596" s="3" t="s">
+        <v>1310</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="D596" s="3">
+        <v>2.0233052E7</v>
+      </c>
+      <c r="E596" s="3" t="s">
+        <v>1311</v>
+      </c>
+      <c r="F596" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G596" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H596" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I596" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J596" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K596" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L596" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N596" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2">
+        <v>45212.98242677083</v>
+      </c>
+      <c r="B597" s="3" t="s">
+        <v>1312</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D597" s="3">
+        <v>2.0232302E7</v>
+      </c>
+      <c r="E597" s="3" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F597" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G597" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H597" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I597" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J597" s="4">
+        <v>0.654</v>
+      </c>
+      <c r="K597" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L597" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M597" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/R/data/quiz231002_tmp.xlsx
+++ b/R/data/quiz231002_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5973" uniqueCount="1314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="1347">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3953,6 +3953,105 @@
   </si>
   <si>
     <t>강새미</t>
+  </si>
+  <si>
+    <t>shni92@naver.com</t>
+  </si>
+  <si>
+    <t>김서현</t>
+  </si>
+  <si>
+    <t>hyj4213@naver.com</t>
+  </si>
+  <si>
+    <t>함영준</t>
+  </si>
+  <si>
+    <t>ghys1837@naver.com</t>
+  </si>
+  <si>
+    <t>언어청각학부 청각학 전공</t>
+  </si>
+  <si>
+    <t>안영서</t>
+  </si>
+  <si>
+    <t>richhjin@naver.com</t>
+  </si>
+  <si>
+    <t>freenix1001@naver.com</t>
+  </si>
+  <si>
+    <t>강서연</t>
+  </si>
+  <si>
+    <t>chaeseungwoo99@gmail.com</t>
+  </si>
+  <si>
+    <t>식품영양</t>
+  </si>
+  <si>
+    <t>채승우</t>
+  </si>
+  <si>
+    <t>1004soeun@naver.com</t>
+  </si>
+  <si>
+    <t>김소은</t>
+  </si>
+  <si>
+    <t>20233817@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박주희</t>
+  </si>
+  <si>
+    <t>jinyoung05503@gmail.com</t>
+  </si>
+  <si>
+    <t>이진영</t>
+  </si>
+  <si>
+    <t>godis2002@naver.com</t>
+  </si>
+  <si>
+    <t>김승겸</t>
+  </si>
+  <si>
+    <t>isol62@naver.com</t>
+  </si>
+  <si>
+    <t>육이솔</t>
+  </si>
+  <si>
+    <t>tjwls7140@naver.com</t>
+  </si>
+  <si>
+    <t>황서진</t>
+  </si>
+  <si>
+    <t>1207dpwls@naver.com</t>
+  </si>
+  <si>
+    <t>주예진</t>
+  </si>
+  <si>
+    <t>duhyeon120@naver.com</t>
+  </si>
+  <si>
+    <t>남두현</t>
+  </si>
+  <si>
+    <t>tkdgns8006@naver.com</t>
+  </si>
+  <si>
+    <t>이상훈</t>
+  </si>
+  <si>
+    <t>qwer030815@naver.com</t>
+  </si>
+  <si>
+    <t>정은진</t>
   </si>
 </sst>
 </file>
@@ -28708,6 +28807,662 @@
         <v>32</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2">
+        <v>45213.04138905092</v>
+      </c>
+      <c r="B598" s="3" t="s">
+        <v>1314</v>
+      </c>
+      <c r="C598" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D598" s="3">
+        <v>2.0236606E7</v>
+      </c>
+      <c r="E598" s="3" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F598" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G598" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H598" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I598" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J598" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K598" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L598" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N598" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2">
+        <v>45213.049881099534</v>
+      </c>
+      <c r="B599" s="3" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C599" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D599" s="3">
+        <v>2.023259E7</v>
+      </c>
+      <c r="E599" s="3" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F599" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G599" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H599" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I599" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J599" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K599" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L599" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M599" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2">
+        <v>45213.05752283565</v>
+      </c>
+      <c r="B600" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C600" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D600" s="3">
+        <v>2.0213939E7</v>
+      </c>
+      <c r="E600" s="3" t="s">
+        <v>1320</v>
+      </c>
+      <c r="F600" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G600" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H600" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I600" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J600" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K600" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L600" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N600" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2">
+        <v>45213.06510320602</v>
+      </c>
+      <c r="B601" s="3" t="s">
+        <v>1321</v>
+      </c>
+      <c r="C601" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D601" s="3">
+        <v>2.0233732E7</v>
+      </c>
+      <c r="E601" s="3" t="s">
+        <v>883</v>
+      </c>
+      <c r="F601" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G601" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H601" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I601" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J601" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K601" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L601" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N601" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="2">
+        <v>45213.441255763886</v>
+      </c>
+      <c r="B602" s="3" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C602" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D602" s="3">
+        <v>2.0233903E7</v>
+      </c>
+      <c r="E602" s="3" t="s">
+        <v>1323</v>
+      </c>
+      <c r="F602" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G602" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H602" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I602" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J602" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K602" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L602" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M602" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="2">
+        <v>45213.46190678241</v>
+      </c>
+      <c r="B603" s="3" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C603" s="3" t="s">
+        <v>1325</v>
+      </c>
+      <c r="D603" s="3">
+        <v>2.0183845E7</v>
+      </c>
+      <c r="E603" s="3" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F603" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G603" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H603" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I603" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J603" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K603" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L603" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M603" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="2">
+        <v>45213.46894075231</v>
+      </c>
+      <c r="B604" s="3" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C604" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D604" s="3">
+        <v>2.0232514E7</v>
+      </c>
+      <c r="E604" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F604" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G604" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H604" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I604" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J604" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K604" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L604" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N604" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="2">
+        <v>45213.50165607639</v>
+      </c>
+      <c r="B605" s="3" t="s">
+        <v>1329</v>
+      </c>
+      <c r="C605" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D605" s="3">
+        <v>2.0233817E7</v>
+      </c>
+      <c r="E605" s="3" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F605" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G605" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H605" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I605" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J605" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K605" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L605" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N605" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="2">
+        <v>45213.51395541667</v>
+      </c>
+      <c r="B606" s="3" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C606" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D606" s="3">
+        <v>2.0233534E7</v>
+      </c>
+      <c r="E606" s="3" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F606" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G606" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H606" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I606" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J606" s="4">
+        <v>0.521</v>
+      </c>
+      <c r="K606" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L606" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M606" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="2">
+        <v>45213.53437446759</v>
+      </c>
+      <c r="B607" s="3" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C607" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D607" s="3">
+        <v>2.0211706E7</v>
+      </c>
+      <c r="E607" s="3" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F607" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G607" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H607" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I607" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J607" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K607" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L607" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M607" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2">
+        <v>45213.53841162037</v>
+      </c>
+      <c r="B608" s="3" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C608" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D608" s="3">
+        <v>2.0232339E7</v>
+      </c>
+      <c r="E608" s="3" t="s">
+        <v>1336</v>
+      </c>
+      <c r="F608" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G608" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H608" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I608" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J608" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K608" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L608" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N608" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2">
+        <v>45213.542566018514</v>
+      </c>
+      <c r="B609" s="3" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C609" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D609" s="3">
+        <v>2.0233353E7</v>
+      </c>
+      <c r="E609" s="3" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F609" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G609" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H609" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I609" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J609" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K609" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L609" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M609" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="2">
+        <v>45213.549629016205</v>
+      </c>
+      <c r="B610" s="3" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C610" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D610" s="3">
+        <v>2.0202751E7</v>
+      </c>
+      <c r="E610" s="3" t="s">
+        <v>1340</v>
+      </c>
+      <c r="F610" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G610" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H610" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I610" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J610" s="5">
+        <v>0.72</v>
+      </c>
+      <c r="K610" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="L610" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N610" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="2">
+        <v>45213.563221226854</v>
+      </c>
+      <c r="B611" s="3" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C611" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="D611" s="3">
+        <v>2.0232612E7</v>
+      </c>
+      <c r="E611" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F611" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G611" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H611" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I611" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J611" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K611" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L611" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N611" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="2">
+        <v>45213.58418450231</v>
+      </c>
+      <c r="B612" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C612" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D612" s="3">
+        <v>2.0207035E7</v>
+      </c>
+      <c r="E612" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="F612" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G612" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H612" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I612" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J612" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K612" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="L612" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N612" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="2">
+        <v>45213.586306666664</v>
+      </c>
+      <c r="B613" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C613" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D613" s="3">
+        <v>2.0223639E7</v>
+      </c>
+      <c r="E613" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F613" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G613" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="H613" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I613" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J613" s="4">
+        <v>0.407</v>
+      </c>
+      <c r="K613" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L613" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N613" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
